--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,90 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Lyngby</t>
+  </si>
+  <si>
+    <t>AGF</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['26', '37']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['29', '45+4', '59', '89']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['44', '56']</t>
+  </si>
+  <si>
+    <t>['10', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '64']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +836,1152 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6454057</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45128.58333333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>1.73</v>
+      </c>
+      <c r="U2">
+        <v>2.5</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>1.33</v>
+      </c>
+      <c r="X2">
+        <v>3.25</v>
+      </c>
+      <c r="Y2">
+        <v>2.5</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>6.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.11</v>
+      </c>
+      <c r="AC2">
+        <v>1.27</v>
+      </c>
+      <c r="AD2">
+        <v>5.75</v>
+      </c>
+      <c r="AE2">
+        <v>11</v>
+      </c>
+      <c r="AF2">
+        <v>1.01</v>
+      </c>
+      <c r="AG2">
+        <v>16.5</v>
+      </c>
+      <c r="AH2">
+        <v>1.22</v>
+      </c>
+      <c r="AI2">
+        <v>4.3</v>
+      </c>
+      <c r="AJ2">
+        <v>1.71</v>
+      </c>
+      <c r="AK2">
+        <v>2.05</v>
+      </c>
+      <c r="AL2">
+        <v>2.1</v>
+      </c>
+      <c r="AM2">
+        <v>1.67</v>
+      </c>
+      <c r="AN2">
+        <v>1.06</v>
+      </c>
+      <c r="AO2">
+        <v>1.11</v>
+      </c>
+      <c r="AP2">
+        <v>3.5</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.28</v>
+      </c>
+      <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>4.65</v>
+      </c>
+      <c r="BA2">
+        <v>1.23</v>
+      </c>
+      <c r="BB2">
+        <v>1.44</v>
+      </c>
+      <c r="BC2">
+        <v>1.88</v>
+      </c>
+      <c r="BD2">
+        <v>2.35</v>
+      </c>
+      <c r="BE2">
+        <v>3.25</v>
+      </c>
+      <c r="BF2">
+        <v>9</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>5</v>
+      </c>
+      <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
+        <v>14</v>
+      </c>
+      <c r="BK2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6454058</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>2.4</v>
+      </c>
+      <c r="V3">
+        <v>2.1</v>
+      </c>
+      <c r="W3">
+        <v>1.3</v>
+      </c>
+      <c r="X3">
+        <v>3.4</v>
+      </c>
+      <c r="Y3">
+        <v>2.38</v>
+      </c>
+      <c r="Z3">
+        <v>1.53</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>1.13</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>1.61</v>
+      </c>
+      <c r="AF3">
+        <v>1.03</v>
+      </c>
+      <c r="AG3">
+        <v>16</v>
+      </c>
+      <c r="AH3">
+        <v>1.19</v>
+      </c>
+      <c r="AI3">
+        <v>4.6</v>
+      </c>
+      <c r="AJ3">
+        <v>1.6</v>
+      </c>
+      <c r="AK3">
+        <v>2.2</v>
+      </c>
+      <c r="AL3">
+        <v>1.67</v>
+      </c>
+      <c r="AM3">
+        <v>2.1</v>
+      </c>
+      <c r="AN3">
+        <v>2.33</v>
+      </c>
+      <c r="AO3">
+        <v>1.24</v>
+      </c>
+      <c r="AP3">
+        <v>1.18</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>2.78</v>
+      </c>
+      <c r="AY3">
+        <v>8.5</v>
+      </c>
+      <c r="AZ3">
+        <v>1.59</v>
+      </c>
+      <c r="BA3">
+        <v>1.18</v>
+      </c>
+      <c r="BB3">
+        <v>1.36</v>
+      </c>
+      <c r="BC3">
+        <v>1.63</v>
+      </c>
+      <c r="BD3">
+        <v>2.1</v>
+      </c>
+      <c r="BE3">
+        <v>2.8</v>
+      </c>
+      <c r="BF3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <v>7</v>
+      </c>
+      <c r="BH3">
+        <v>6</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>11</v>
+      </c>
+      <c r="BK3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6454059</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45130.375</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>2.2</v>
+      </c>
+      <c r="U4">
+        <v>2.25</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>2.75</v>
+      </c>
+      <c r="Y4">
+        <v>2.75</v>
+      </c>
+      <c r="Z4">
+        <v>1.4</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>1.08</v>
+      </c>
+      <c r="AC4">
+        <v>1.63</v>
+      </c>
+      <c r="AD4">
+        <v>3.55</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>1.05</v>
+      </c>
+      <c r="AG4">
+        <v>11.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.29</v>
+      </c>
+      <c r="AI4">
+        <v>3.55</v>
+      </c>
+      <c r="AJ4">
+        <v>1.95</v>
+      </c>
+      <c r="AK4">
+        <v>1.73</v>
+      </c>
+      <c r="AL4">
+        <v>1.95</v>
+      </c>
+      <c r="AM4">
+        <v>1.8</v>
+      </c>
+      <c r="AN4">
+        <v>1.13</v>
+      </c>
+      <c r="AO4">
+        <v>1.25</v>
+      </c>
+      <c r="AP4">
+        <v>2.41</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.31</v>
+      </c>
+      <c r="AY4">
+        <v>9.5</v>
+      </c>
+      <c r="AZ4">
+        <v>4.13</v>
+      </c>
+      <c r="BA4">
+        <v>1.23</v>
+      </c>
+      <c r="BB4">
+        <v>1.44</v>
+      </c>
+      <c r="BC4">
+        <v>1.95</v>
+      </c>
+      <c r="BD4">
+        <v>2.35</v>
+      </c>
+      <c r="BE4">
+        <v>3.25</v>
+      </c>
+      <c r="BF4">
+        <v>6</v>
+      </c>
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>13</v>
+      </c>
+      <c r="BK4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6454060</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45130.45833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>2.6</v>
+      </c>
+      <c r="U5">
+        <v>2.3</v>
+      </c>
+      <c r="V5">
+        <v>3.75</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>3.4</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.5</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1.13</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>3.65</v>
+      </c>
+      <c r="AE5">
+        <v>3.56</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>16</v>
+      </c>
+      <c r="AH5">
+        <v>1.19</v>
+      </c>
+      <c r="AI5">
+        <v>4.6</v>
+      </c>
+      <c r="AJ5">
+        <v>1.64</v>
+      </c>
+      <c r="AK5">
+        <v>2.18</v>
+      </c>
+      <c r="AL5">
+        <v>1.57</v>
+      </c>
+      <c r="AM5">
+        <v>2.25</v>
+      </c>
+      <c r="AN5">
+        <v>1.32</v>
+      </c>
+      <c r="AO5">
+        <v>1.24</v>
+      </c>
+      <c r="AP5">
+        <v>1.64</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.69</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>2.54</v>
+      </c>
+      <c r="BA5">
+        <v>1.21</v>
+      </c>
+      <c r="BB5">
+        <v>1.4</v>
+      </c>
+      <c r="BC5">
+        <v>1.71</v>
+      </c>
+      <c r="BD5">
+        <v>2.2</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>9</v>
+      </c>
+      <c r="BG5">
+        <v>7</v>
+      </c>
+      <c r="BH5">
+        <v>4</v>
+      </c>
+      <c r="BI5">
+        <v>6</v>
+      </c>
+      <c r="BJ5">
+        <v>13</v>
+      </c>
+      <c r="BK5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6454061</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45130.54166666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>3.2</v>
+      </c>
+      <c r="U6">
+        <v>2.25</v>
+      </c>
+      <c r="V6">
+        <v>3.1</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
+        <v>2.63</v>
+      </c>
+      <c r="Z6">
+        <v>1.44</v>
+      </c>
+      <c r="AA6">
+        <v>6.5</v>
+      </c>
+      <c r="AB6">
+        <v>1.11</v>
+      </c>
+      <c r="AC6">
+        <v>2.71</v>
+      </c>
+      <c r="AD6">
+        <v>3.5</v>
+      </c>
+      <c r="AE6">
+        <v>2.5</v>
+      </c>
+      <c r="AF6">
+        <v>1.04</v>
+      </c>
+      <c r="AG6">
+        <v>14</v>
+      </c>
+      <c r="AH6">
+        <v>1.22</v>
+      </c>
+      <c r="AI6">
+        <v>4.35</v>
+      </c>
+      <c r="AJ6">
+        <v>1.65</v>
+      </c>
+      <c r="AK6">
+        <v>2.16</v>
+      </c>
+      <c r="AL6">
+        <v>1.62</v>
+      </c>
+      <c r="AM6">
+        <v>2.2</v>
+      </c>
+      <c r="AN6">
+        <v>1.55</v>
+      </c>
+      <c r="AO6">
+        <v>1.25</v>
+      </c>
+      <c r="AP6">
+        <v>1.5</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.95</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>2.1</v>
+      </c>
+      <c r="BA6">
+        <v>1.23</v>
+      </c>
+      <c r="BB6">
+        <v>1.44</v>
+      </c>
+      <c r="BC6">
+        <v>1.8</v>
+      </c>
+      <c r="BD6">
+        <v>2.35</v>
+      </c>
+      <c r="BE6">
+        <v>3.25</v>
+      </c>
+      <c r="BF6">
+        <v>12</v>
+      </c>
+      <c r="BG6">
+        <v>5</v>
+      </c>
+      <c r="BH6">
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>17</v>
+      </c>
+      <c r="BK6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6454062</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45131.58333333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2.88</v>
+      </c>
+      <c r="U7">
+        <v>2.3</v>
+      </c>
+      <c r="V7">
+        <v>3.5</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>6.5</v>
+      </c>
+      <c r="AB7">
+        <v>1.11</v>
+      </c>
+      <c r="AC7">
+        <v>2.09</v>
+      </c>
+      <c r="AD7">
+        <v>3.6</v>
+      </c>
+      <c r="AE7">
+        <v>3.2</v>
+      </c>
+      <c r="AF7">
+        <v>1.04</v>
+      </c>
+      <c r="AG7">
+        <v>15.25</v>
+      </c>
+      <c r="AH7">
+        <v>1.22</v>
+      </c>
+      <c r="AI7">
+        <v>4.28</v>
+      </c>
+      <c r="AJ7">
+        <v>1.72</v>
+      </c>
+      <c r="AK7">
+        <v>2.19</v>
+      </c>
+      <c r="AL7">
+        <v>1.62</v>
+      </c>
+      <c r="AM7">
+        <v>2.2</v>
+      </c>
+      <c r="AN7">
+        <v>1.35</v>
+      </c>
+      <c r="AO7">
+        <v>1.3</v>
+      </c>
+      <c r="AP7">
+        <v>1.68</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.76</v>
+      </c>
+      <c r="AY7">
+        <v>9</v>
+      </c>
+      <c r="AZ7">
+        <v>2.49</v>
+      </c>
+      <c r="BA7">
+        <v>1.28</v>
+      </c>
+      <c r="BB7">
+        <v>1.53</v>
+      </c>
+      <c r="BC7">
+        <v>1.93</v>
+      </c>
+      <c r="BD7">
+        <v>2.5</v>
+      </c>
+      <c r="BE7">
+        <v>3.34</v>
+      </c>
+      <c r="BF7">
+        <v>9</v>
+      </c>
+      <c r="BG7">
+        <v>4</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>13</v>
+      </c>
+      <c r="BK7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,24 +229,24 @@
     <t>Nordsjælland</t>
   </si>
   <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
     <t>Hvidovre</t>
   </si>
   <si>
     <t>København</t>
   </si>
   <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Randers</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Viborg</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -265,6 +265,24 @@
     <t>['29', '45+4', '59', '89']</t>
   </si>
   <si>
+    <t>['41', '76']</t>
+  </si>
+  <si>
+    <t>['25', '52']</t>
+  </si>
+  <si>
+    <t>['45+16', '45+22']</t>
+  </si>
+  <si>
+    <t>['10', '32']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -278,6 +296,21 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['24', '25']</t>
+  </si>
+  <si>
+    <t>['19', '34', '70']</t>
+  </si>
+  <si>
+    <t>['34', '57']</t>
+  </si>
+  <si>
+    <t>['63', '90+5']</t>
+  </si>
+  <si>
+    <t>['35', '51', '86']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -883,7 +916,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -973,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1050,7 +1083,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1074,7 +1107,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1241,7 +1274,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1265,7 +1298,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1352,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1432,7 +1465,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1456,7 +1489,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1623,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1647,7 +1680,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1814,7 +1847,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1838,7 +1871,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1980,6 +2013,1152 @@
       </c>
       <c r="BK7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6454063</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45135.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>2.3</v>
+      </c>
+      <c r="U8">
+        <v>2.35</v>
+      </c>
+      <c r="V8">
+        <v>4.33</v>
+      </c>
+      <c r="W8">
+        <v>1.29</v>
+      </c>
+      <c r="X8">
+        <v>3.25</v>
+      </c>
+      <c r="Y8">
+        <v>2.45</v>
+      </c>
+      <c r="Z8">
+        <v>1.47</v>
+      </c>
+      <c r="AA8">
+        <v>5.85</v>
+      </c>
+      <c r="AB8">
+        <v>1.1</v>
+      </c>
+      <c r="AC8">
+        <v>1.73</v>
+      </c>
+      <c r="AD8">
+        <v>3.5</v>
+      </c>
+      <c r="AE8">
+        <v>4.33</v>
+      </c>
+      <c r="AF8">
+        <v>1.02</v>
+      </c>
+      <c r="AG8">
+        <v>14.5</v>
+      </c>
+      <c r="AH8">
+        <v>1.22</v>
+      </c>
+      <c r="AI8">
+        <v>4.3</v>
+      </c>
+      <c r="AJ8">
+        <v>1.7</v>
+      </c>
+      <c r="AK8">
+        <v>2.16</v>
+      </c>
+      <c r="AL8">
+        <v>1.65</v>
+      </c>
+      <c r="AM8">
+        <v>2.19</v>
+      </c>
+      <c r="AN8">
+        <v>1.22</v>
+      </c>
+      <c r="AO8">
+        <v>1.22</v>
+      </c>
+      <c r="AP8">
+        <v>2.15</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.64</v>
+      </c>
+      <c r="AY8">
+        <v>8</v>
+      </c>
+      <c r="AZ8">
+        <v>2.67</v>
+      </c>
+      <c r="BA8">
+        <v>1.25</v>
+      </c>
+      <c r="BB8">
+        <v>1.45</v>
+      </c>
+      <c r="BC8">
+        <v>1.9</v>
+      </c>
+      <c r="BD8">
+        <v>2.2</v>
+      </c>
+      <c r="BE8">
+        <v>3.4</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>7</v>
+      </c>
+      <c r="BH8">
+        <v>7</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>13</v>
+      </c>
+      <c r="BK8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6454064</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45136.45833333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>2.4</v>
+      </c>
+      <c r="V9">
+        <v>2.15</v>
+      </c>
+      <c r="W9">
+        <v>1.3</v>
+      </c>
+      <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>2.45</v>
+      </c>
+      <c r="Z9">
+        <v>1.47</v>
+      </c>
+      <c r="AA9">
+        <v>5.85</v>
+      </c>
+      <c r="AB9">
+        <v>1.1</v>
+      </c>
+      <c r="AC9">
+        <v>5.1</v>
+      </c>
+      <c r="AD9">
+        <v>4.2</v>
+      </c>
+      <c r="AE9">
+        <v>1.54</v>
+      </c>
+      <c r="AF9">
+        <v>1.02</v>
+      </c>
+      <c r="AG9">
+        <v>14.5</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>4.3</v>
+      </c>
+      <c r="AJ9">
+        <v>1.64</v>
+      </c>
+      <c r="AK9">
+        <v>1.99</v>
+      </c>
+      <c r="AL9">
+        <v>1.74</v>
+      </c>
+      <c r="AM9">
+        <v>2.04</v>
+      </c>
+      <c r="AN9">
+        <v>2.4</v>
+      </c>
+      <c r="AO9">
+        <v>1.2</v>
+      </c>
+      <c r="AP9">
+        <v>1.15</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>3</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1.6</v>
+      </c>
+      <c r="AW9">
+        <v>1.6</v>
+      </c>
+      <c r="AX9">
+        <v>3.33</v>
+      </c>
+      <c r="AY9">
+        <v>8.5</v>
+      </c>
+      <c r="AZ9">
+        <v>1.45</v>
+      </c>
+      <c r="BA9">
+        <v>1.38</v>
+      </c>
+      <c r="BB9">
+        <v>1.57</v>
+      </c>
+      <c r="BC9">
+        <v>1.9</v>
+      </c>
+      <c r="BD9">
+        <v>2.42</v>
+      </c>
+      <c r="BE9">
+        <v>4.5</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>6</v>
+      </c>
+      <c r="BH9">
+        <v>3</v>
+      </c>
+      <c r="BI9">
+        <v>5</v>
+      </c>
+      <c r="BJ9">
+        <v>10</v>
+      </c>
+      <c r="BK9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6454065</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45137.375</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2.3</v>
+      </c>
+      <c r="U10">
+        <v>2.38</v>
+      </c>
+      <c r="V10">
+        <v>4.5</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.5</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
+        <v>1.13</v>
+      </c>
+      <c r="AC10">
+        <v>1.77</v>
+      </c>
+      <c r="AD10">
+        <v>3.75</v>
+      </c>
+      <c r="AE10">
+        <v>4.3</v>
+      </c>
+      <c r="AF10">
+        <v>1.04</v>
+      </c>
+      <c r="AG10">
+        <v>15.25</v>
+      </c>
+      <c r="AH10">
+        <v>1.22</v>
+      </c>
+      <c r="AI10">
+        <v>4.35</v>
+      </c>
+      <c r="AJ10">
+        <v>1.63</v>
+      </c>
+      <c r="AK10">
+        <v>2.14</v>
+      </c>
+      <c r="AL10">
+        <v>1.67</v>
+      </c>
+      <c r="AM10">
+        <v>2.1</v>
+      </c>
+      <c r="AN10">
+        <v>1.21</v>
+      </c>
+      <c r="AO10">
+        <v>1.22</v>
+      </c>
+      <c r="AP10">
+        <v>1.9</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>1.97</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1.97</v>
+      </c>
+      <c r="AX10">
+        <v>1.51</v>
+      </c>
+      <c r="AY10">
+        <v>8.5</v>
+      </c>
+      <c r="AZ10">
+        <v>3.16</v>
+      </c>
+      <c r="BA10">
+        <v>1.25</v>
+      </c>
+      <c r="BB10">
+        <v>1.44</v>
+      </c>
+      <c r="BC10">
+        <v>1.9</v>
+      </c>
+      <c r="BD10">
+        <v>2.15</v>
+      </c>
+      <c r="BE10">
+        <v>3.4</v>
+      </c>
+      <c r="BF10">
+        <v>9</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>5</v>
+      </c>
+      <c r="BI10">
+        <v>4</v>
+      </c>
+      <c r="BJ10">
+        <v>14</v>
+      </c>
+      <c r="BK10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6454066</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45137.45833333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>2.3</v>
+      </c>
+      <c r="U11">
+        <v>2.38</v>
+      </c>
+      <c r="V11">
+        <v>4.5</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.25</v>
+      </c>
+      <c r="Y11">
+        <v>2.5</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>1.13</v>
+      </c>
+      <c r="AC11">
+        <v>1.65</v>
+      </c>
+      <c r="AD11">
+        <v>3.75</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>12</v>
+      </c>
+      <c r="AH11">
+        <v>1.17</v>
+      </c>
+      <c r="AI11">
+        <v>4.3</v>
+      </c>
+      <c r="AJ11">
+        <v>1.67</v>
+      </c>
+      <c r="AK11">
+        <v>2.08</v>
+      </c>
+      <c r="AL11">
+        <v>1.67</v>
+      </c>
+      <c r="AM11">
+        <v>2.1</v>
+      </c>
+      <c r="AN11">
+        <v>1.19</v>
+      </c>
+      <c r="AO11">
+        <v>1.22</v>
+      </c>
+      <c r="AP11">
+        <v>1.92</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0.5</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AX11">
+        <v>1.75</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>2.42</v>
+      </c>
+      <c r="BA11">
+        <v>1.27</v>
+      </c>
+      <c r="BB11">
+        <v>1.4</v>
+      </c>
+      <c r="BC11">
+        <v>1.98</v>
+      </c>
+      <c r="BD11">
+        <v>1.98</v>
+      </c>
+      <c r="BE11">
+        <v>3.5</v>
+      </c>
+      <c r="BF11">
+        <v>5</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6454067</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2.38</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>1.3</v>
+      </c>
+      <c r="X12">
+        <v>3.4</v>
+      </c>
+      <c r="Y12">
+        <v>2.5</v>
+      </c>
+      <c r="Z12">
+        <v>1.5</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>1.13</v>
+      </c>
+      <c r="AC12">
+        <v>1.69</v>
+      </c>
+      <c r="AD12">
+        <v>3.46</v>
+      </c>
+      <c r="AE12">
+        <v>4.03</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>16</v>
+      </c>
+      <c r="AH12">
+        <v>1.2</v>
+      </c>
+      <c r="AI12">
+        <v>4.57</v>
+      </c>
+      <c r="AJ12">
+        <v>1.73</v>
+      </c>
+      <c r="AK12">
+        <v>1.88</v>
+      </c>
+      <c r="AL12">
+        <v>1.57</v>
+      </c>
+      <c r="AM12">
+        <v>2.25</v>
+      </c>
+      <c r="AN12">
+        <v>1.27</v>
+      </c>
+      <c r="AO12">
+        <v>1.24</v>
+      </c>
+      <c r="AP12">
+        <v>1.71</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>1.59</v>
+      </c>
+      <c r="AY12">
+        <v>9</v>
+      </c>
+      <c r="AZ12">
+        <v>2.77</v>
+      </c>
+      <c r="BA12">
+        <v>1.12</v>
+      </c>
+      <c r="BB12">
+        <v>1.22</v>
+      </c>
+      <c r="BC12">
+        <v>1.57</v>
+      </c>
+      <c r="BD12">
+        <v>1.92</v>
+      </c>
+      <c r="BE12">
+        <v>2.42</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>9</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>13</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6454068</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45138.58333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <v>3.1</v>
+      </c>
+      <c r="U13">
+        <v>2.2</v>
+      </c>
+      <c r="V13">
+        <v>3.25</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2.75</v>
+      </c>
+      <c r="Z13">
+        <v>1.4</v>
+      </c>
+      <c r="AA13">
+        <v>8</v>
+      </c>
+      <c r="AB13">
+        <v>1.08</v>
+      </c>
+      <c r="AC13">
+        <v>2.72</v>
+      </c>
+      <c r="AD13">
+        <v>3.55</v>
+      </c>
+      <c r="AE13">
+        <v>2.84</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>12.25</v>
+      </c>
+      <c r="AH13">
+        <v>1.28</v>
+      </c>
+      <c r="AI13">
+        <v>3.75</v>
+      </c>
+      <c r="AJ13">
+        <v>1.86</v>
+      </c>
+      <c r="AK13">
+        <v>1.98</v>
+      </c>
+      <c r="AL13">
+        <v>1.7</v>
+      </c>
+      <c r="AM13">
+        <v>2.05</v>
+      </c>
+      <c r="AN13">
+        <v>1.45</v>
+      </c>
+      <c r="AO13">
+        <v>1.32</v>
+      </c>
+      <c r="AP13">
+        <v>1.52</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.5</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>1.62</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>1.62</v>
+      </c>
+      <c r="AX13">
+        <v>1.89</v>
+      </c>
+      <c r="AY13">
+        <v>8.5</v>
+      </c>
+      <c r="AZ13">
+        <v>2.31</v>
+      </c>
+      <c r="BA13">
+        <v>1.46</v>
+      </c>
+      <c r="BB13">
+        <v>1.83</v>
+      </c>
+      <c r="BC13">
+        <v>2.45</v>
+      </c>
+      <c r="BD13">
+        <v>3.5</v>
+      </c>
+      <c r="BE13">
+        <v>4.15</v>
+      </c>
+      <c r="BF13">
+        <v>12</v>
+      </c>
+      <c r="BG13">
+        <v>6</v>
+      </c>
+      <c r="BH13">
+        <v>5</v>
+      </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
+        <v>17</v>
+      </c>
+      <c r="BK13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,12 +241,12 @@
     <t>Brøndby</t>
   </si>
   <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>Hvidovre</t>
   </si>
   <si>
-    <t>København</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -283,6 +283,12 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['65', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '23', '29', '66']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -311,6 +317,9 @@
   </si>
   <si>
     <t>['35', '51', '86']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +901,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -916,7 +925,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1083,7 +1092,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1107,7 +1116,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1298,7 +1307,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1489,7 +1498,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1579,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1680,7 +1689,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1767,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -1871,7 +1880,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2062,7 +2071,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2229,7 +2238,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2444,7 +2453,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2611,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2635,7 +2644,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2826,7 +2835,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3017,7 +3026,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3159,6 +3168,388 @@
       </c>
       <c r="BK13">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6454070</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45142.58333333334</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>2.2</v>
+      </c>
+      <c r="U14">
+        <v>2.25</v>
+      </c>
+      <c r="V14">
+        <v>4.4</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2.62</v>
+      </c>
+      <c r="Z14">
+        <v>1.44</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>1.11</v>
+      </c>
+      <c r="AC14">
+        <v>1.72</v>
+      </c>
+      <c r="AD14">
+        <v>3.7</v>
+      </c>
+      <c r="AE14">
+        <v>4.4</v>
+      </c>
+      <c r="AF14">
+        <v>1.05</v>
+      </c>
+      <c r="AG14">
+        <v>9</v>
+      </c>
+      <c r="AH14">
+        <v>1.29</v>
+      </c>
+      <c r="AI14">
+        <v>3.5</v>
+      </c>
+      <c r="AJ14">
+        <v>1.9</v>
+      </c>
+      <c r="AK14">
+        <v>1.96</v>
+      </c>
+      <c r="AL14">
+        <v>1.8</v>
+      </c>
+      <c r="AM14">
+        <v>1.91</v>
+      </c>
+      <c r="AN14">
+        <v>1.18</v>
+      </c>
+      <c r="AO14">
+        <v>1.25</v>
+      </c>
+      <c r="AP14">
+        <v>2.1</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1.5</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>2.35</v>
+      </c>
+      <c r="AV14">
+        <v>0.88</v>
+      </c>
+      <c r="AW14">
+        <v>3.23</v>
+      </c>
+      <c r="AX14">
+        <v>1.37</v>
+      </c>
+      <c r="AY14">
+        <v>9</v>
+      </c>
+      <c r="AZ14">
+        <v>3.83</v>
+      </c>
+      <c r="BA14">
+        <v>1.27</v>
+      </c>
+      <c r="BB14">
+        <v>1.55</v>
+      </c>
+      <c r="BC14">
+        <v>1.86</v>
+      </c>
+      <c r="BD14">
+        <v>2.4</v>
+      </c>
+      <c r="BE14">
+        <v>3.4</v>
+      </c>
+      <c r="BF14">
+        <v>9</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+      <c r="BH14">
+        <v>2</v>
+      </c>
+      <c r="BI14">
+        <v>5</v>
+      </c>
+      <c r="BJ14">
+        <v>11</v>
+      </c>
+      <c r="BK14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6454069</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>1.83</v>
+      </c>
+      <c r="U15">
+        <v>2.6</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>1.27</v>
+      </c>
+      <c r="X15">
+        <v>3.4</v>
+      </c>
+      <c r="Y15">
+        <v>2.36</v>
+      </c>
+      <c r="Z15">
+        <v>1.52</v>
+      </c>
+      <c r="AA15">
+        <v>5.35</v>
+      </c>
+      <c r="AB15">
+        <v>1.12</v>
+      </c>
+      <c r="AC15">
+        <v>1.3</v>
+      </c>
+      <c r="AD15">
+        <v>4.7</v>
+      </c>
+      <c r="AE15">
+        <v>8</v>
+      </c>
+      <c r="AF15">
+        <v>1.01</v>
+      </c>
+      <c r="AG15">
+        <v>16.5</v>
+      </c>
+      <c r="AH15">
+        <v>1.19</v>
+      </c>
+      <c r="AI15">
+        <v>4.7</v>
+      </c>
+      <c r="AJ15">
+        <v>1.57</v>
+      </c>
+      <c r="AK15">
+        <v>2.33</v>
+      </c>
+      <c r="AL15">
+        <v>1.91</v>
+      </c>
+      <c r="AM15">
+        <v>1.86</v>
+      </c>
+      <c r="AN15">
+        <v>1.06</v>
+      </c>
+      <c r="AO15">
+        <v>1.13</v>
+      </c>
+      <c r="AP15">
+        <v>3.2</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0.5</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>1.61</v>
+      </c>
+      <c r="AW15">
+        <v>1.61</v>
+      </c>
+      <c r="AX15">
+        <v>1.3</v>
+      </c>
+      <c r="AY15">
+        <v>10</v>
+      </c>
+      <c r="AZ15">
+        <v>4.42</v>
+      </c>
+      <c r="BA15">
+        <v>1.24</v>
+      </c>
+      <c r="BB15">
+        <v>1.48</v>
+      </c>
+      <c r="BC15">
+        <v>1.8</v>
+      </c>
+      <c r="BD15">
+        <v>2.3</v>
+      </c>
+      <c r="BE15">
+        <v>3.2</v>
+      </c>
+      <c r="BF15">
+        <v>3</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>6</v>
+      </c>
+      <c r="BK15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['17', '29', '58', '82']</t>
+  </si>
+  <si>
+    <t>['52', '74', '80']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -320,6 +329,18 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['25', '75']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['28', '80']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,7 +1137,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1203,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -1498,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1585,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
         <v>0.5</v>
@@ -1689,7 +1710,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1779,7 +1800,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1880,7 +1901,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1970,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2071,7 +2092,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2262,7 +2283,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2644,7 +2665,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2835,7 +2856,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3026,7 +3047,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3217,7 +3238,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3343,7 +3364,7 @@
         <v>3.4</v>
       </c>
       <c r="BF14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG14">
         <v>5</v>
@@ -3355,7 +3376,7 @@
         <v>5</v>
       </c>
       <c r="BJ14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK14">
         <v>10</v>
@@ -3534,22 +3555,786 @@
         <v>3.2</v>
       </c>
       <c r="BF15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG15">
         <v>0</v>
       </c>
       <c r="BH15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ15">
+        <v>11</v>
+      </c>
+      <c r="BK15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6454071</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45144.375</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
         <v>6</v>
       </c>
-      <c r="BK15">
-        <v>3</v>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>2.2</v>
+      </c>
+      <c r="V16">
+        <v>2.75</v>
+      </c>
+      <c r="W16">
+        <v>1.4</v>
+      </c>
+      <c r="X16">
+        <v>2.75</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>1.36</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>1.08</v>
+      </c>
+      <c r="AC16">
+        <v>2.88</v>
+      </c>
+      <c r="AD16">
+        <v>3.25</v>
+      </c>
+      <c r="AE16">
+        <v>2.25</v>
+      </c>
+      <c r="AF16">
+        <v>1.04</v>
+      </c>
+      <c r="AG16">
+        <v>10.5</v>
+      </c>
+      <c r="AH16">
+        <v>1.32</v>
+      </c>
+      <c r="AI16">
+        <v>3.35</v>
+      </c>
+      <c r="AJ16">
+        <v>1.95</v>
+      </c>
+      <c r="AK16">
+        <v>1.75</v>
+      </c>
+      <c r="AL16">
+        <v>1.8</v>
+      </c>
+      <c r="AM16">
+        <v>1.95</v>
+      </c>
+      <c r="AN16">
+        <v>1.96</v>
+      </c>
+      <c r="AO16">
+        <v>1.24</v>
+      </c>
+      <c r="AP16">
+        <v>1.25</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>2.1</v>
+      </c>
+      <c r="AY16">
+        <v>7.5</v>
+      </c>
+      <c r="AZ16">
+        <v>1.95</v>
+      </c>
+      <c r="BA16">
+        <v>1.38</v>
+      </c>
+      <c r="BB16">
+        <v>1.66</v>
+      </c>
+      <c r="BC16">
+        <v>2.13</v>
+      </c>
+      <c r="BD16">
+        <v>2.75</v>
+      </c>
+      <c r="BE16">
+        <v>4.35</v>
+      </c>
+      <c r="BF16">
+        <v>2</v>
+      </c>
+      <c r="BG16">
+        <v>4</v>
+      </c>
+      <c r="BH16">
+        <v>4</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6454072</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45144.45833333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>1.36</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>2.63</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>1.1</v>
+      </c>
+      <c r="AC17">
+        <v>3.5</v>
+      </c>
+      <c r="AD17">
+        <v>3.6</v>
+      </c>
+      <c r="AE17">
+        <v>2.05</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>12.5</v>
+      </c>
+      <c r="AH17">
+        <v>1.27</v>
+      </c>
+      <c r="AI17">
+        <v>3.7</v>
+      </c>
+      <c r="AJ17">
+        <v>1.73</v>
+      </c>
+      <c r="AK17">
+        <v>2.05</v>
+      </c>
+      <c r="AL17">
+        <v>1.7</v>
+      </c>
+      <c r="AM17">
+        <v>2.05</v>
+      </c>
+      <c r="AN17">
+        <v>1.7</v>
+      </c>
+      <c r="AO17">
+        <v>1.25</v>
+      </c>
+      <c r="AP17">
+        <v>1.27</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.5</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>1.42</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1.42</v>
+      </c>
+      <c r="AX17">
+        <v>2.33</v>
+      </c>
+      <c r="AY17">
+        <v>8</v>
+      </c>
+      <c r="AZ17">
+        <v>1.82</v>
+      </c>
+      <c r="BA17">
+        <v>1.24</v>
+      </c>
+      <c r="BB17">
+        <v>1.48</v>
+      </c>
+      <c r="BC17">
+        <v>1.81</v>
+      </c>
+      <c r="BD17">
+        <v>2.3</v>
+      </c>
+      <c r="BE17">
+        <v>3.2</v>
+      </c>
+      <c r="BF17">
+        <v>5</v>
+      </c>
+      <c r="BG17">
+        <v>2</v>
+      </c>
+      <c r="BH17">
+        <v>8</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>13</v>
+      </c>
+      <c r="BK17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6454073</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45144.54166666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>2.3</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
+        <v>3.25</v>
+      </c>
+      <c r="Y18">
+        <v>2.63</v>
+      </c>
+      <c r="Z18">
+        <v>1.44</v>
+      </c>
+      <c r="AA18">
+        <v>6.5</v>
+      </c>
+      <c r="AB18">
+        <v>1.11</v>
+      </c>
+      <c r="AC18">
+        <v>1.95</v>
+      </c>
+      <c r="AD18">
+        <v>3.75</v>
+      </c>
+      <c r="AE18">
+        <v>3.6</v>
+      </c>
+      <c r="AF18">
+        <v>1.03</v>
+      </c>
+      <c r="AG18">
+        <v>12.5</v>
+      </c>
+      <c r="AH18">
+        <v>1.27</v>
+      </c>
+      <c r="AI18">
+        <v>3.7</v>
+      </c>
+      <c r="AJ18">
+        <v>1.83</v>
+      </c>
+      <c r="AK18">
+        <v>1.97</v>
+      </c>
+      <c r="AL18">
+        <v>1.67</v>
+      </c>
+      <c r="AM18">
+        <v>2.1</v>
+      </c>
+      <c r="AN18">
+        <v>1.3</v>
+      </c>
+      <c r="AO18">
+        <v>1.24</v>
+      </c>
+      <c r="AP18">
+        <v>1.88</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>3</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>1.5</v>
+      </c>
+      <c r="AU18">
+        <v>1.95</v>
+      </c>
+      <c r="AV18">
+        <v>1.26</v>
+      </c>
+      <c r="AW18">
+        <v>3.21</v>
+      </c>
+      <c r="AX18">
+        <v>1.55</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>2.92</v>
+      </c>
+      <c r="BA18">
+        <v>1.24</v>
+      </c>
+      <c r="BB18">
+        <v>1.52</v>
+      </c>
+      <c r="BC18">
+        <v>1.85</v>
+      </c>
+      <c r="BD18">
+        <v>2.33</v>
+      </c>
+      <c r="BE18">
+        <v>3.2</v>
+      </c>
+      <c r="BF18">
+        <v>4</v>
+      </c>
+      <c r="BG18">
+        <v>3</v>
+      </c>
+      <c r="BH18">
+        <v>9</v>
+      </c>
+      <c r="BI18">
+        <v>3</v>
+      </c>
+      <c r="BJ18">
+        <v>13</v>
+      </c>
+      <c r="BK18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6454074</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45145.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>2.83</v>
+      </c>
+      <c r="U19">
+        <v>2.18</v>
+      </c>
+      <c r="V19">
+        <v>3.74</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>3.04</v>
+      </c>
+      <c r="Y19">
+        <v>2.6</v>
+      </c>
+      <c r="Z19">
+        <v>1.47</v>
+      </c>
+      <c r="AA19">
+        <v>6.3</v>
+      </c>
+      <c r="AB19">
+        <v>1.1</v>
+      </c>
+      <c r="AC19">
+        <v>2.21</v>
+      </c>
+      <c r="AD19">
+        <v>3.54</v>
+      </c>
+      <c r="AE19">
+        <v>3.14</v>
+      </c>
+      <c r="AF19">
+        <v>1.03</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>1.24</v>
+      </c>
+      <c r="AI19">
+        <v>4.1</v>
+      </c>
+      <c r="AJ19">
+        <v>1.75</v>
+      </c>
+      <c r="AK19">
+        <v>1.91</v>
+      </c>
+      <c r="AL19">
+        <v>1.63</v>
+      </c>
+      <c r="AM19">
+        <v>2.22</v>
+      </c>
+      <c r="AN19">
+        <v>1.38</v>
+      </c>
+      <c r="AO19">
+        <v>1.31</v>
+      </c>
+      <c r="AP19">
+        <v>1.65</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19">
+        <v>1.5</v>
+      </c>
+      <c r="AU19">
+        <v>1.78</v>
+      </c>
+      <c r="AV19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW19">
+        <v>2.59</v>
+      </c>
+      <c r="AX19">
+        <v>1.95</v>
+      </c>
+      <c r="AY19">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>2.1</v>
+      </c>
+      <c r="BA19">
+        <v>1.24</v>
+      </c>
+      <c r="BB19">
+        <v>1.48</v>
+      </c>
+      <c r="BC19">
+        <v>1.81</v>
+      </c>
+      <c r="BD19">
+        <v>2.3</v>
+      </c>
+      <c r="BE19">
+        <v>3.2</v>
+      </c>
+      <c r="BF19">
+        <v>5</v>
+      </c>
+      <c r="BG19">
+        <v>9</v>
+      </c>
+      <c r="BH19">
+        <v>4</v>
+      </c>
+      <c r="BI19">
+        <v>8</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,15 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['77', '90']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['28', '84', '90']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
   </si>
   <si>
     <t>['28', '80']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['13', '65', '72', '81', '89']</t>
+  </si>
+  <si>
+    <t>['51', '59']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,7 +1155,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1519,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1710,7 +1728,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1901,7 +1919,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2092,7 +2110,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2182,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2283,7 +2301,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2665,7 +2683,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2752,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -2856,7 +2874,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -2943,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3047,7 +3065,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3238,7 +3256,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3620,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3811,7 +3829,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3901,7 +3919,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.42</v>
@@ -4002,7 +4020,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4193,7 +4211,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4335,6 +4353,770 @@
       </c>
       <c r="BK19">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6454077</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45149.58333333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>1.92</v>
+      </c>
+      <c r="U20">
+        <v>2.6</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <v>1.24</v>
+      </c>
+      <c r="X20">
+        <v>3.6</v>
+      </c>
+      <c r="Y20">
+        <v>2.28</v>
+      </c>
+      <c r="Z20">
+        <v>1.55</v>
+      </c>
+      <c r="AA20">
+        <v>5.3</v>
+      </c>
+      <c r="AB20">
+        <v>1.12</v>
+      </c>
+      <c r="AC20">
+        <v>1.38</v>
+      </c>
+      <c r="AD20">
+        <v>4.75</v>
+      </c>
+      <c r="AE20">
+        <v>6</v>
+      </c>
+      <c r="AF20">
+        <v>1.01</v>
+      </c>
+      <c r="AG20">
+        <v>18.5</v>
+      </c>
+      <c r="AH20">
+        <v>1.17</v>
+      </c>
+      <c r="AI20">
+        <v>4.95</v>
+      </c>
+      <c r="AJ20">
+        <v>1.61</v>
+      </c>
+      <c r="AK20">
+        <v>2.15</v>
+      </c>
+      <c r="AL20">
+        <v>1.74</v>
+      </c>
+      <c r="AM20">
+        <v>2.04</v>
+      </c>
+      <c r="AN20">
+        <v>1.1</v>
+      </c>
+      <c r="AO20">
+        <v>1.15</v>
+      </c>
+      <c r="AP20">
+        <v>2.85</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>1.5</v>
+      </c>
+      <c r="AU20">
+        <v>1.52</v>
+      </c>
+      <c r="AV20">
+        <v>1.36</v>
+      </c>
+      <c r="AW20">
+        <v>2.88</v>
+      </c>
+      <c r="AX20">
+        <v>1.41</v>
+      </c>
+      <c r="AY20">
+        <v>9.5</v>
+      </c>
+      <c r="AZ20">
+        <v>3.48</v>
+      </c>
+      <c r="BA20">
+        <v>1.14</v>
+      </c>
+      <c r="BB20">
+        <v>1.44</v>
+      </c>
+      <c r="BC20">
+        <v>1.7</v>
+      </c>
+      <c r="BD20">
+        <v>2.08</v>
+      </c>
+      <c r="BE20">
+        <v>2.47</v>
+      </c>
+      <c r="BF20">
+        <v>8</v>
+      </c>
+      <c r="BG20">
+        <v>4</v>
+      </c>
+      <c r="BH20">
+        <v>8</v>
+      </c>
+      <c r="BI20">
+        <v>2</v>
+      </c>
+      <c r="BJ20">
+        <v>16</v>
+      </c>
+      <c r="BK20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6454075</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45151.375</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>4.3</v>
+      </c>
+      <c r="U21">
+        <v>2.29</v>
+      </c>
+      <c r="V21">
+        <v>2.32</v>
+      </c>
+      <c r="W21">
+        <v>1.3</v>
+      </c>
+      <c r="X21">
+        <v>3.2</v>
+      </c>
+      <c r="Y21">
+        <v>2.35</v>
+      </c>
+      <c r="Z21">
+        <v>1.52</v>
+      </c>
+      <c r="AA21">
+        <v>5.3</v>
+      </c>
+      <c r="AB21">
+        <v>1.11</v>
+      </c>
+      <c r="AC21">
+        <v>3.3</v>
+      </c>
+      <c r="AD21">
+        <v>3.45</v>
+      </c>
+      <c r="AE21">
+        <v>1.86</v>
+      </c>
+      <c r="AF21">
+        <v>1.04</v>
+      </c>
+      <c r="AG21">
+        <v>12</v>
+      </c>
+      <c r="AH21">
+        <v>1.16</v>
+      </c>
+      <c r="AI21">
+        <v>4.4</v>
+      </c>
+      <c r="AJ21">
+        <v>1.6</v>
+      </c>
+      <c r="AK21">
+        <v>2.1</v>
+      </c>
+      <c r="AL21">
+        <v>1.57</v>
+      </c>
+      <c r="AM21">
+        <v>2.34</v>
+      </c>
+      <c r="AN21">
+        <v>1.87</v>
+      </c>
+      <c r="AO21">
+        <v>1.27</v>
+      </c>
+      <c r="AP21">
+        <v>1.18</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>0.5</v>
+      </c>
+      <c r="AT21">
+        <v>3</v>
+      </c>
+      <c r="AU21">
+        <v>1.62</v>
+      </c>
+      <c r="AV21">
+        <v>1.37</v>
+      </c>
+      <c r="AW21">
+        <v>2.99</v>
+      </c>
+      <c r="AX21">
+        <v>2.85</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>1.57</v>
+      </c>
+      <c r="BA21">
+        <v>1.32</v>
+      </c>
+      <c r="BB21">
+        <v>1.5</v>
+      </c>
+      <c r="BC21">
+        <v>1.86</v>
+      </c>
+      <c r="BD21">
+        <v>2.3</v>
+      </c>
+      <c r="BE21">
+        <v>4</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>9</v>
+      </c>
+      <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>6</v>
+      </c>
+      <c r="BK21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6454076</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45151.375</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>3.8</v>
+      </c>
+      <c r="U22">
+        <v>2.3</v>
+      </c>
+      <c r="V22">
+        <v>2.55</v>
+      </c>
+      <c r="W22">
+        <v>1.32</v>
+      </c>
+      <c r="X22">
+        <v>3.1</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.45</v>
+      </c>
+      <c r="AA22">
+        <v>5.2</v>
+      </c>
+      <c r="AB22">
+        <v>1.12</v>
+      </c>
+      <c r="AC22">
+        <v>3.3</v>
+      </c>
+      <c r="AD22">
+        <v>3.45</v>
+      </c>
+      <c r="AE22">
+        <v>1.86</v>
+      </c>
+      <c r="AF22">
+        <v>1.03</v>
+      </c>
+      <c r="AG22">
+        <v>15</v>
+      </c>
+      <c r="AH22">
+        <v>1.2</v>
+      </c>
+      <c r="AI22">
+        <v>4.6</v>
+      </c>
+      <c r="AJ22">
+        <v>1.6</v>
+      </c>
+      <c r="AK22">
+        <v>2.1</v>
+      </c>
+      <c r="AL22">
+        <v>1.57</v>
+      </c>
+      <c r="AM22">
+        <v>2.33</v>
+      </c>
+      <c r="AN22">
+        <v>1.77</v>
+      </c>
+      <c r="AO22">
+        <v>1.28</v>
+      </c>
+      <c r="AP22">
+        <v>1.22</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>1.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.44</v>
+      </c>
+      <c r="AV22">
+        <v>0.65</v>
+      </c>
+      <c r="AW22">
+        <v>2.09</v>
+      </c>
+      <c r="AX22">
+        <v>3.05</v>
+      </c>
+      <c r="AY22">
+        <v>7.5</v>
+      </c>
+      <c r="AZ22">
+        <v>1.56</v>
+      </c>
+      <c r="BA22">
+        <v>1.34</v>
+      </c>
+      <c r="BB22">
+        <v>1.57</v>
+      </c>
+      <c r="BC22">
+        <v>1.95</v>
+      </c>
+      <c r="BD22">
+        <v>2.5</v>
+      </c>
+      <c r="BE22">
+        <v>4.1</v>
+      </c>
+      <c r="BF22">
+        <v>3</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>4</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>7</v>
+      </c>
+      <c r="BK22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6454078</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>2.23</v>
+      </c>
+      <c r="U23">
+        <v>2.38</v>
+      </c>
+      <c r="V23">
+        <v>4.4</v>
+      </c>
+      <c r="W23">
+        <v>1.28</v>
+      </c>
+      <c r="X23">
+        <v>3.4</v>
+      </c>
+      <c r="Y23">
+        <v>2.55</v>
+      </c>
+      <c r="Z23">
+        <v>1.47</v>
+      </c>
+      <c r="AA23">
+        <v>6.4</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>1.9</v>
+      </c>
+      <c r="AD23">
+        <v>3.55</v>
+      </c>
+      <c r="AE23">
+        <v>3.8</v>
+      </c>
+      <c r="AF23">
+        <v>1.02</v>
+      </c>
+      <c r="AG23">
+        <v>14</v>
+      </c>
+      <c r="AH23">
+        <v>1.21</v>
+      </c>
+      <c r="AI23">
+        <v>4.3</v>
+      </c>
+      <c r="AJ23">
+        <v>1.68</v>
+      </c>
+      <c r="AK23">
+        <v>2.19</v>
+      </c>
+      <c r="AL23">
+        <v>1.68</v>
+      </c>
+      <c r="AM23">
+        <v>2.12</v>
+      </c>
+      <c r="AN23">
+        <v>1.22</v>
+      </c>
+      <c r="AO23">
+        <v>1.26</v>
+      </c>
+      <c r="AP23">
+        <v>2.12</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>0.5</v>
+      </c>
+      <c r="AU23">
+        <v>1.63</v>
+      </c>
+      <c r="AV23">
+        <v>1.36</v>
+      </c>
+      <c r="AW23">
+        <v>2.99</v>
+      </c>
+      <c r="AX23">
+        <v>1.43</v>
+      </c>
+      <c r="AY23">
+        <v>6.5</v>
+      </c>
+      <c r="AZ23">
+        <v>3.25</v>
+      </c>
+      <c r="BA23">
+        <v>1.15</v>
+      </c>
+      <c r="BB23">
+        <v>1.26</v>
+      </c>
+      <c r="BC23">
+        <v>1.53</v>
+      </c>
+      <c r="BD23">
+        <v>1.86</v>
+      </c>
+      <c r="BE23">
+        <v>2.33</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>3</v>
+      </c>
+      <c r="BH23">
+        <v>5</v>
+      </c>
+      <c r="BI23">
+        <v>2</v>
+      </c>
+      <c r="BJ23">
+        <v>9</v>
+      </c>
+      <c r="BK23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['28', '84', '90']</t>
   </si>
   <si>
+    <t>['43', '90+12']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>['51', '59']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,7 +1161,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1433,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1537,7 +1543,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1728,7 +1734,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1919,7 +1925,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2110,7 +2116,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2301,7 +2307,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2582,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>1.97</v>
@@ -2683,7 +2689,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2874,7 +2880,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3065,7 +3071,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3152,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>3</v>
@@ -3256,7 +3262,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3638,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3829,7 +3835,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4020,7 +4026,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4211,7 +4217,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4402,7 +4408,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4593,7 +4599,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4784,7 +4790,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -4978,13 +4984,13 @@
         <v>91</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>2.23</v>
@@ -5101,22 +5107,213 @@
         <v>2.33</v>
       </c>
       <c r="BF23">
+        <v>10</v>
+      </c>
+      <c r="BG23">
         <v>4</v>
       </c>
-      <c r="BG23">
-        <v>3</v>
-      </c>
       <c r="BH23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI23">
         <v>2</v>
       </c>
       <c r="BJ23">
+        <v>19</v>
+      </c>
+      <c r="BK23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6454079</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45151.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>2.4</v>
+      </c>
+      <c r="U24">
+        <v>2.25</v>
+      </c>
+      <c r="V24">
+        <v>4.5</v>
+      </c>
+      <c r="W24">
+        <v>1.34</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2.6</v>
+      </c>
+      <c r="Z24">
+        <v>1.42</v>
+      </c>
+      <c r="AA24">
+        <v>6.35</v>
+      </c>
+      <c r="AB24">
+        <v>1.08</v>
+      </c>
+      <c r="AC24">
+        <v>1.91</v>
+      </c>
+      <c r="AD24">
+        <v>3.5</v>
+      </c>
+      <c r="AE24">
+        <v>3.7</v>
+      </c>
+      <c r="AF24">
+        <v>1.03</v>
+      </c>
+      <c r="AG24">
+        <v>11.5</v>
+      </c>
+      <c r="AH24">
+        <v>1.27</v>
+      </c>
+      <c r="AI24">
+        <v>3.7</v>
+      </c>
+      <c r="AJ24">
+        <v>1.67</v>
+      </c>
+      <c r="AK24">
+        <v>2</v>
+      </c>
+      <c r="AL24">
+        <v>1.81</v>
+      </c>
+      <c r="AM24">
+        <v>1.96</v>
+      </c>
+      <c r="AN24">
+        <v>1.22</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>2.1</v>
+      </c>
+      <c r="AQ24">
+        <v>1.5</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1.33</v>
+      </c>
+      <c r="AT24">
+        <v>0.5</v>
+      </c>
+      <c r="AU24">
+        <v>2.02</v>
+      </c>
+      <c r="AV24">
+        <v>0.93</v>
+      </c>
+      <c r="AW24">
+        <v>2.95</v>
+      </c>
+      <c r="AX24">
+        <v>1.41</v>
+      </c>
+      <c r="AY24">
+        <v>6.75</v>
+      </c>
+      <c r="AZ24">
+        <v>3.3</v>
+      </c>
+      <c r="BA24">
+        <v>1.3</v>
+      </c>
+      <c r="BB24">
+        <v>1.5</v>
+      </c>
+      <c r="BC24">
+        <v>1.78</v>
+      </c>
+      <c r="BD24">
+        <v>2.25</v>
+      </c>
+      <c r="BE24">
+        <v>3.8</v>
+      </c>
+      <c r="BF24">
         <v>9</v>
       </c>
-      <c r="BK23">
-        <v>5</v>
+      <c r="BG24">
+        <v>6</v>
+      </c>
+      <c r="BH24">
+        <v>8</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>17</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0.5</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -5314,6 +5314,197 @@
       </c>
       <c r="BK24">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6454080</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45152.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>2.05</v>
+      </c>
+      <c r="U25">
+        <v>2.45</v>
+      </c>
+      <c r="V25">
+        <v>5.5</v>
+      </c>
+      <c r="W25">
+        <v>1.27</v>
+      </c>
+      <c r="X25">
+        <v>3.4</v>
+      </c>
+      <c r="Y25">
+        <v>2.36</v>
+      </c>
+      <c r="Z25">
+        <v>1.52</v>
+      </c>
+      <c r="AA25">
+        <v>5.35</v>
+      </c>
+      <c r="AB25">
+        <v>1.12</v>
+      </c>
+      <c r="AC25">
+        <v>1.63</v>
+      </c>
+      <c r="AD25">
+        <v>3.61</v>
+      </c>
+      <c r="AE25">
+        <v>4.18</v>
+      </c>
+      <c r="AF25">
+        <v>1.01</v>
+      </c>
+      <c r="AG25">
+        <v>16.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.2</v>
+      </c>
+      <c r="AI25">
+        <v>4.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.57</v>
+      </c>
+      <c r="AK25">
+        <v>2.15</v>
+      </c>
+      <c r="AL25">
+        <v>1.71</v>
+      </c>
+      <c r="AM25">
+        <v>2.09</v>
+      </c>
+      <c r="AN25">
+        <v>1.14</v>
+      </c>
+      <c r="AO25">
+        <v>1.17</v>
+      </c>
+      <c r="AP25">
+        <v>2.55</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0.5</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>0.67</v>
+      </c>
+      <c r="AU25">
+        <v>1.76</v>
+      </c>
+      <c r="AV25">
+        <v>1.05</v>
+      </c>
+      <c r="AW25">
+        <v>2.81</v>
+      </c>
+      <c r="AX25">
+        <v>1.52</v>
+      </c>
+      <c r="AY25">
+        <v>7</v>
+      </c>
+      <c r="AZ25">
+        <v>3.25</v>
+      </c>
+      <c r="BA25">
+        <v>1.46</v>
+      </c>
+      <c r="BB25">
+        <v>1.85</v>
+      </c>
+      <c r="BC25">
+        <v>2.4</v>
+      </c>
+      <c r="BD25">
+        <v>3.2</v>
+      </c>
+      <c r="BE25">
+        <v>5.1</v>
+      </c>
+      <c r="BF25">
+        <v>6</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BH25">
+        <v>10</v>
+      </c>
+      <c r="BI25">
+        <v>3</v>
+      </c>
+      <c r="BJ25">
+        <v>16</v>
+      </c>
+      <c r="BK25">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>['90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '76']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5507,6 +5510,197 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6454081</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45156.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>16</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>2.4</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
+        <v>1.32</v>
+      </c>
+      <c r="X26">
+        <v>3.2</v>
+      </c>
+      <c r="Y26">
+        <v>2.45</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.12</v>
+      </c>
+      <c r="AC26">
+        <v>5.2</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>1.59</v>
+      </c>
+      <c r="AF26">
+        <v>1.04</v>
+      </c>
+      <c r="AG26">
+        <v>15.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.23</v>
+      </c>
+      <c r="AI26">
+        <v>4.27</v>
+      </c>
+      <c r="AJ26">
+        <v>1.75</v>
+      </c>
+      <c r="AK26">
+        <v>1.95</v>
+      </c>
+      <c r="AL26">
+        <v>1.9</v>
+      </c>
+      <c r="AM26">
+        <v>1.88</v>
+      </c>
+      <c r="AN26">
+        <v>2.65</v>
+      </c>
+      <c r="AO26">
+        <v>1.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.13</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>3</v>
+      </c>
+      <c r="AU26">
+        <v>0.75</v>
+      </c>
+      <c r="AV26">
+        <v>1.6</v>
+      </c>
+      <c r="AW26">
+        <v>2.35</v>
+      </c>
+      <c r="AX26">
+        <v>3.49</v>
+      </c>
+      <c r="AY26">
+        <v>9</v>
+      </c>
+      <c r="AZ26">
+        <v>1.41</v>
+      </c>
+      <c r="BA26">
+        <v>1.21</v>
+      </c>
+      <c r="BB26">
+        <v>1.46</v>
+      </c>
+      <c r="BC26">
+        <v>1.75</v>
+      </c>
+      <c r="BD26">
+        <v>2.2</v>
+      </c>
+      <c r="BE26">
+        <v>3</v>
+      </c>
+      <c r="BF26">
+        <v>7</v>
+      </c>
+      <c r="BG26">
+        <v>6</v>
+      </c>
+      <c r="BH26">
+        <v>5</v>
+      </c>
+      <c r="BI26">
+        <v>3</v>
+      </c>
+      <c r="BJ26">
+        <v>12</v>
+      </c>
+      <c r="BK26">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,15 @@
     <t>['43', '90+12']</t>
   </si>
   <si>
+    <t>['58', '67']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -368,6 +377,12 @@
   </si>
   <si>
     <t>['10', '76']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -1164,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1251,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -1546,7 +1561,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1633,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1737,7 +1752,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1824,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1928,7 +1943,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2119,7 +2134,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2310,7 +2325,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2588,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -2692,7 +2707,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2883,7 +2898,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3074,7 +3089,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3164,7 +3179,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>1.62</v>
@@ -3265,7 +3280,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3352,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3546,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3647,7 +3662,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3737,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3838,7 +3853,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3925,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4029,7 +4044,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4119,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>1.95</v>
@@ -4220,7 +4235,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4307,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -4411,7 +4426,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4602,7 +4617,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4692,7 +4707,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>1.62</v>
@@ -4793,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5175,7 +5190,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5557,7 +5572,7 @@
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5699,6 +5714,770 @@
       </c>
       <c r="BK26">
         <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6454082</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45158.375</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>3.4</v>
+      </c>
+      <c r="U27">
+        <v>2.38</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.29</v>
+      </c>
+      <c r="X27">
+        <v>3.5</v>
+      </c>
+      <c r="Y27">
+        <v>2.38</v>
+      </c>
+      <c r="Z27">
+        <v>1.53</v>
+      </c>
+      <c r="AA27">
+        <v>5.5</v>
+      </c>
+      <c r="AB27">
+        <v>1.14</v>
+      </c>
+      <c r="AC27">
+        <v>2.88</v>
+      </c>
+      <c r="AD27">
+        <v>3.5</v>
+      </c>
+      <c r="AE27">
+        <v>2.23</v>
+      </c>
+      <c r="AF27">
+        <v>1.03</v>
+      </c>
+      <c r="AG27">
+        <v>12</v>
+      </c>
+      <c r="AH27">
+        <v>1.18</v>
+      </c>
+      <c r="AI27">
+        <v>4.33</v>
+      </c>
+      <c r="AJ27">
+        <v>1.48</v>
+      </c>
+      <c r="AK27">
+        <v>2.54</v>
+      </c>
+      <c r="AL27">
+        <v>1.5</v>
+      </c>
+      <c r="AM27">
+        <v>2.5</v>
+      </c>
+      <c r="AN27">
+        <v>1.65</v>
+      </c>
+      <c r="AO27">
+        <v>1.29</v>
+      </c>
+      <c r="AP27">
+        <v>1.4</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>2</v>
+      </c>
+      <c r="AU27">
+        <v>1.97</v>
+      </c>
+      <c r="AV27">
+        <v>1.52</v>
+      </c>
+      <c r="AW27">
+        <v>3.49</v>
+      </c>
+      <c r="AX27">
+        <v>2.28</v>
+      </c>
+      <c r="AY27">
+        <v>8</v>
+      </c>
+      <c r="AZ27">
+        <v>1.85</v>
+      </c>
+      <c r="BA27">
+        <v>1.23</v>
+      </c>
+      <c r="BB27">
+        <v>1.6</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
+        <v>2.55</v>
+      </c>
+      <c r="BE27">
+        <v>3.25</v>
+      </c>
+      <c r="BF27">
+        <v>6</v>
+      </c>
+      <c r="BG27">
+        <v>5</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>5</v>
+      </c>
+      <c r="BJ27">
+        <v>7</v>
+      </c>
+      <c r="BK27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6454083</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45158.45833333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>2.25</v>
+      </c>
+      <c r="V28">
+        <v>3.6</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>3.25</v>
+      </c>
+      <c r="Y28">
+        <v>2.63</v>
+      </c>
+      <c r="Z28">
+        <v>1.44</v>
+      </c>
+      <c r="AA28">
+        <v>6.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.11</v>
+      </c>
+      <c r="AC28">
+        <v>2.33</v>
+      </c>
+      <c r="AD28">
+        <v>3.19</v>
+      </c>
+      <c r="AE28">
+        <v>2.58</v>
+      </c>
+      <c r="AF28">
+        <v>1.03</v>
+      </c>
+      <c r="AG28">
+        <v>12.5</v>
+      </c>
+      <c r="AH28">
+        <v>1.25</v>
+      </c>
+      <c r="AI28">
+        <v>3.95</v>
+      </c>
+      <c r="AJ28">
+        <v>1.79</v>
+      </c>
+      <c r="AK28">
+        <v>1.82</v>
+      </c>
+      <c r="AL28">
+        <v>1.62</v>
+      </c>
+      <c r="AM28">
+        <v>2.2</v>
+      </c>
+      <c r="AN28">
+        <v>1.35</v>
+      </c>
+      <c r="AO28">
+        <v>1.32</v>
+      </c>
+      <c r="AP28">
+        <v>1.65</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>0.5</v>
+      </c>
+      <c r="AS28">
+        <v>2</v>
+      </c>
+      <c r="AT28">
+        <v>0.33</v>
+      </c>
+      <c r="AU28">
+        <v>1.48</v>
+      </c>
+      <c r="AV28">
+        <v>1.09</v>
+      </c>
+      <c r="AW28">
+        <v>2.57</v>
+      </c>
+      <c r="AX28">
+        <v>1.64</v>
+      </c>
+      <c r="AY28">
+        <v>8.5</v>
+      </c>
+      <c r="AZ28">
+        <v>2.66</v>
+      </c>
+      <c r="BA28">
+        <v>1.2</v>
+      </c>
+      <c r="BB28">
+        <v>1.39</v>
+      </c>
+      <c r="BC28">
+        <v>1.67</v>
+      </c>
+      <c r="BD28">
+        <v>2.08</v>
+      </c>
+      <c r="BE28">
+        <v>2.68</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>2</v>
+      </c>
+      <c r="BH28">
+        <v>4</v>
+      </c>
+      <c r="BI28">
+        <v>4</v>
+      </c>
+      <c r="BJ28">
+        <v>8</v>
+      </c>
+      <c r="BK28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6454084</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45158.54166666666</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>2.3</v>
+      </c>
+      <c r="V29">
+        <v>3.6</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>3.25</v>
+      </c>
+      <c r="Y29">
+        <v>2.63</v>
+      </c>
+      <c r="Z29">
+        <v>1.44</v>
+      </c>
+      <c r="AA29">
+        <v>6.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.11</v>
+      </c>
+      <c r="AC29">
+        <v>1.83</v>
+      </c>
+      <c r="AD29">
+        <v>3.32</v>
+      </c>
+      <c r="AE29">
+        <v>3.53</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>8.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.2</v>
+      </c>
+      <c r="AI29">
+        <v>3.9</v>
+      </c>
+      <c r="AJ29">
+        <v>1.74</v>
+      </c>
+      <c r="AK29">
+        <v>1.86</v>
+      </c>
+      <c r="AL29">
+        <v>1.62</v>
+      </c>
+      <c r="AM29">
+        <v>2.2</v>
+      </c>
+      <c r="AN29">
+        <v>1.29</v>
+      </c>
+      <c r="AO29">
+        <v>1.29</v>
+      </c>
+      <c r="AP29">
+        <v>1.6</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>1.5</v>
+      </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>1.91</v>
+      </c>
+      <c r="AV29">
+        <v>1.07</v>
+      </c>
+      <c r="AW29">
+        <v>2.98</v>
+      </c>
+      <c r="AX29">
+        <v>1.69</v>
+      </c>
+      <c r="AY29">
+        <v>8.5</v>
+      </c>
+      <c r="AZ29">
+        <v>2.62</v>
+      </c>
+      <c r="BA29">
+        <v>1.2</v>
+      </c>
+      <c r="BB29">
+        <v>1.52</v>
+      </c>
+      <c r="BC29">
+        <v>1.86</v>
+      </c>
+      <c r="BD29">
+        <v>2.38</v>
+      </c>
+      <c r="BE29">
+        <v>3</v>
+      </c>
+      <c r="BF29">
+        <v>2</v>
+      </c>
+      <c r="BG29">
+        <v>3</v>
+      </c>
+      <c r="BH29">
+        <v>5</v>
+      </c>
+      <c r="BI29">
+        <v>6</v>
+      </c>
+      <c r="BJ29">
+        <v>7</v>
+      </c>
+      <c r="BK29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6454085</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45158.625</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>3.5</v>
+      </c>
+      <c r="U30">
+        <v>2.2</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>1.4</v>
+      </c>
+      <c r="X30">
+        <v>2.75</v>
+      </c>
+      <c r="Y30">
+        <v>2.75</v>
+      </c>
+      <c r="Z30">
+        <v>1.4</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <v>1.08</v>
+      </c>
+      <c r="AC30">
+        <v>2.56</v>
+      </c>
+      <c r="AD30">
+        <v>3.08</v>
+      </c>
+      <c r="AE30">
+        <v>2.41</v>
+      </c>
+      <c r="AF30">
+        <v>1.04</v>
+      </c>
+      <c r="AG30">
+        <v>10.5</v>
+      </c>
+      <c r="AH30">
+        <v>1.29</v>
+      </c>
+      <c r="AI30">
+        <v>3.55</v>
+      </c>
+      <c r="AJ30">
+        <v>1.83</v>
+      </c>
+      <c r="AK30">
+        <v>1.8</v>
+      </c>
+      <c r="AL30">
+        <v>1.75</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>1.63</v>
+      </c>
+      <c r="AO30">
+        <v>1.31</v>
+      </c>
+      <c r="AP30">
+        <v>1.39</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>0.67</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
+      </c>
+      <c r="AU30">
+        <v>1.51</v>
+      </c>
+      <c r="AV30">
+        <v>1.22</v>
+      </c>
+      <c r="AW30">
+        <v>2.73</v>
+      </c>
+      <c r="AX30">
+        <v>2.3</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>1.89</v>
+      </c>
+      <c r="BA30">
+        <v>1.21</v>
+      </c>
+      <c r="BB30">
+        <v>1.46</v>
+      </c>
+      <c r="BC30">
+        <v>1.75</v>
+      </c>
+      <c r="BD30">
+        <v>2.2</v>
+      </c>
+      <c r="BE30">
+        <v>3</v>
+      </c>
+      <c r="BF30">
+        <v>6</v>
+      </c>
+      <c r="BG30">
+        <v>5</v>
+      </c>
+      <c r="BH30">
+        <v>2</v>
+      </c>
+      <c r="BI30">
+        <v>6</v>
+      </c>
+      <c r="BJ30">
+        <v>8</v>
+      </c>
+      <c r="BK30">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['51', '86']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -383,6 +386,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1561,7 +1567,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1752,7 +1758,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1943,7 +1949,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2134,7 +2140,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2221,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2325,7 +2331,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2707,7 +2713,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2898,7 +2904,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3089,7 +3095,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3280,7 +3286,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3662,7 +3668,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3853,7 +3859,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4044,7 +4050,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4235,7 +4241,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4426,7 +4432,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4617,7 +4623,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4808,7 +4814,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5190,7 +5196,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5468,7 +5474,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -5572,7 +5578,7 @@
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6145,7 +6151,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6274,19 +6280,19 @@
         <v>2</v>
       </c>
       <c r="BG29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI29">
         <v>6</v>
       </c>
       <c r="BJ29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK29">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6336,7 +6342,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6478,6 +6484,197 @@
       </c>
       <c r="BK30">
         <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6454086</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45159.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>2.38</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>4.75</v>
+      </c>
+      <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2.63</v>
+      </c>
+      <c r="Z31">
+        <v>1.44</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>1.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.7</v>
+      </c>
+      <c r="AD31">
+        <v>3.6</v>
+      </c>
+      <c r="AE31">
+        <v>4.75</v>
+      </c>
+      <c r="AF31">
+        <v>1.01</v>
+      </c>
+      <c r="AG31">
+        <v>10.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.22</v>
+      </c>
+      <c r="AI31">
+        <v>3.7</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.83</v>
+      </c>
+      <c r="AL31">
+        <v>1.8</v>
+      </c>
+      <c r="AM31">
+        <v>1.95</v>
+      </c>
+      <c r="AN31">
+        <v>1.16</v>
+      </c>
+      <c r="AO31">
+        <v>1.25</v>
+      </c>
+      <c r="AP31">
+        <v>1.94</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.67</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>1.84</v>
+      </c>
+      <c r="AV31">
+        <v>1.07</v>
+      </c>
+      <c r="AW31">
+        <v>2.91</v>
+      </c>
+      <c r="AX31">
+        <v>1.37</v>
+      </c>
+      <c r="AY31">
+        <v>9</v>
+      </c>
+      <c r="AZ31">
+        <v>3.83</v>
+      </c>
+      <c r="BA31">
+        <v>1.33</v>
+      </c>
+      <c r="BB31">
+        <v>1.6</v>
+      </c>
+      <c r="BC31">
+        <v>2.04</v>
+      </c>
+      <c r="BD31">
+        <v>2.75</v>
+      </c>
+      <c r="BE31">
+        <v>3.85</v>
+      </c>
+      <c r="BF31">
+        <v>8</v>
+      </c>
+      <c r="BG31">
+        <v>3</v>
+      </c>
+      <c r="BH31">
+        <v>5</v>
+      </c>
+      <c r="BI31">
+        <v>7</v>
+      </c>
+      <c r="BJ31">
+        <v>13</v>
+      </c>
+      <c r="BK31">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,21 @@
     <t>['51', '86']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['7', '53', '90']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -389,6 +404,12 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['45+2', '57', '72']</t>
+  </si>
+  <si>
+    <t>['2', '51', '60', '85', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,7 +1206,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1463,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1567,7 +1588,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1758,7 +1779,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1949,7 +1970,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2039,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2140,7 +2161,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2230,7 +2251,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2331,7 +2352,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2612,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>1.97</v>
@@ -2713,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2800,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -2904,7 +2925,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -2994,7 +3015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3095,7 +3116,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3182,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3286,7 +3307,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3564,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0.33</v>
@@ -3668,7 +3689,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3859,7 +3880,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3949,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>1.42</v>
@@ -4050,7 +4071,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4241,7 +4262,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4331,7 +4352,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.78</v>
@@ -4432,7 +4453,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4519,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>1.52</v>
@@ -4623,7 +4644,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4710,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>2</v>
@@ -4814,7 +4835,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -4904,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.44</v>
@@ -5095,7 +5116,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU23">
         <v>1.63</v>
@@ -5196,7 +5217,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5283,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
+        <v>1.75</v>
+      </c>
+      <c r="AT24">
         <v>1.33</v>
-      </c>
-      <c r="AT24">
-        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>2.02</v>
@@ -5578,7 +5599,7 @@
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6151,7 +6172,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6342,7 +6363,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6533,7 +6554,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6675,6 +6696,961 @@
       </c>
       <c r="BK31">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6454087</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45163.5625</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>3.22</v>
+      </c>
+      <c r="U32">
+        <v>2.22</v>
+      </c>
+      <c r="V32">
+        <v>3.06</v>
+      </c>
+      <c r="W32">
+        <v>1.38</v>
+      </c>
+      <c r="X32">
+        <v>2.9</v>
+      </c>
+      <c r="Y32">
+        <v>2.65</v>
+      </c>
+      <c r="Z32">
+        <v>1.42</v>
+      </c>
+      <c r="AA32">
+        <v>7</v>
+      </c>
+      <c r="AB32">
+        <v>1.09</v>
+      </c>
+      <c r="AC32">
+        <v>2.43</v>
+      </c>
+      <c r="AD32">
+        <v>3.3</v>
+      </c>
+      <c r="AE32">
+        <v>2.53</v>
+      </c>
+      <c r="AF32">
+        <v>1.05</v>
+      </c>
+      <c r="AG32">
+        <v>12.75</v>
+      </c>
+      <c r="AH32">
+        <v>1.27</v>
+      </c>
+      <c r="AI32">
+        <v>3.78</v>
+      </c>
+      <c r="AJ32">
+        <v>1.8</v>
+      </c>
+      <c r="AK32">
+        <v>1.8</v>
+      </c>
+      <c r="AL32">
+        <v>1.68</v>
+      </c>
+      <c r="AM32">
+        <v>2.15</v>
+      </c>
+      <c r="AN32">
+        <v>1.48</v>
+      </c>
+      <c r="AO32">
+        <v>1.32</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.5</v>
+      </c>
+      <c r="AS32">
+        <v>1.33</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>1.17</v>
+      </c>
+      <c r="AV32">
+        <v>1.44</v>
+      </c>
+      <c r="AW32">
+        <v>2.61</v>
+      </c>
+      <c r="AX32">
+        <v>2.33</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>1.82</v>
+      </c>
+      <c r="BA32">
+        <v>1.2</v>
+      </c>
+      <c r="BB32">
+        <v>1.53</v>
+      </c>
+      <c r="BC32">
+        <v>1.86</v>
+      </c>
+      <c r="BD32">
+        <v>2.33</v>
+      </c>
+      <c r="BE32">
+        <v>3</v>
+      </c>
+      <c r="BF32">
+        <v>4</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BH32">
+        <v>6</v>
+      </c>
+      <c r="BI32">
+        <v>6</v>
+      </c>
+      <c r="BJ32">
+        <v>10</v>
+      </c>
+      <c r="BK32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6454088</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>2.1</v>
+      </c>
+      <c r="U33">
+        <v>2.4</v>
+      </c>
+      <c r="V33">
+        <v>5.5</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>3.4</v>
+      </c>
+      <c r="Y33">
+        <v>2.5</v>
+      </c>
+      <c r="Z33">
+        <v>1.5</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>1.13</v>
+      </c>
+      <c r="AC33">
+        <v>1.45</v>
+      </c>
+      <c r="AD33">
+        <v>4.1</v>
+      </c>
+      <c r="AE33">
+        <v>5.4</v>
+      </c>
+      <c r="AF33">
+        <v>1.02</v>
+      </c>
+      <c r="AG33">
+        <v>14.5</v>
+      </c>
+      <c r="AH33">
+        <v>1.2</v>
+      </c>
+      <c r="AI33">
+        <v>4</v>
+      </c>
+      <c r="AJ33">
+        <v>1.68</v>
+      </c>
+      <c r="AK33">
+        <v>2.2</v>
+      </c>
+      <c r="AL33">
+        <v>1.8</v>
+      </c>
+      <c r="AM33">
+        <v>1.95</v>
+      </c>
+      <c r="AN33">
+        <v>1.13</v>
+      </c>
+      <c r="AO33">
+        <v>1.18</v>
+      </c>
+      <c r="AP33">
+        <v>2.55</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>0.5</v>
+      </c>
+      <c r="AS33">
+        <v>2</v>
+      </c>
+      <c r="AT33">
+        <v>1.33</v>
+      </c>
+      <c r="AU33">
+        <v>1.92</v>
+      </c>
+      <c r="AV33">
+        <v>1.13</v>
+      </c>
+      <c r="AW33">
+        <v>3.05</v>
+      </c>
+      <c r="AX33">
+        <v>1.55</v>
+      </c>
+      <c r="AY33">
+        <v>8.5</v>
+      </c>
+      <c r="AZ33">
+        <v>3.01</v>
+      </c>
+      <c r="BA33">
+        <v>1.23</v>
+      </c>
+      <c r="BB33">
+        <v>1.44</v>
+      </c>
+      <c r="BC33">
+        <v>1.93</v>
+      </c>
+      <c r="BD33">
+        <v>2.35</v>
+      </c>
+      <c r="BE33">
+        <v>3.25</v>
+      </c>
+      <c r="BF33">
+        <v>7</v>
+      </c>
+      <c r="BG33">
+        <v>7</v>
+      </c>
+      <c r="BH33">
+        <v>8</v>
+      </c>
+      <c r="BI33">
+        <v>1</v>
+      </c>
+      <c r="BJ33">
+        <v>15</v>
+      </c>
+      <c r="BK33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6454089</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45165.375</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>2.38</v>
+      </c>
+      <c r="U34">
+        <v>2.2</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>2.75</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
+      <c r="AB34">
+        <v>1.08</v>
+      </c>
+      <c r="AC34">
+        <v>1.85</v>
+      </c>
+      <c r="AD34">
+        <v>3.4</v>
+      </c>
+      <c r="AE34">
+        <v>4.33</v>
+      </c>
+      <c r="AF34">
+        <v>1.03</v>
+      </c>
+      <c r="AG34">
+        <v>8.5</v>
+      </c>
+      <c r="AH34">
+        <v>1.31</v>
+      </c>
+      <c r="AI34">
+        <v>3.48</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>1.75</v>
+      </c>
+      <c r="AL34">
+        <v>1.91</v>
+      </c>
+      <c r="AM34">
+        <v>1.91</v>
+      </c>
+      <c r="AN34">
+        <v>1.15</v>
+      </c>
+      <c r="AO34">
+        <v>1.18</v>
+      </c>
+      <c r="AP34">
+        <v>1.95</v>
+      </c>
+      <c r="AQ34">
+        <v>1.33</v>
+      </c>
+      <c r="AR34">
+        <v>0.5</v>
+      </c>
+      <c r="AS34">
+        <v>1.75</v>
+      </c>
+      <c r="AT34">
+        <v>0.33</v>
+      </c>
+      <c r="AU34">
+        <v>2.06</v>
+      </c>
+      <c r="AV34">
+        <v>1.11</v>
+      </c>
+      <c r="AW34">
+        <v>3.17</v>
+      </c>
+      <c r="AX34">
+        <v>1.38</v>
+      </c>
+      <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
+        <v>4</v>
+      </c>
+      <c r="BA34">
+        <v>1.21</v>
+      </c>
+      <c r="BB34">
+        <v>1.48</v>
+      </c>
+      <c r="BC34">
+        <v>1.81</v>
+      </c>
+      <c r="BD34">
+        <v>2.28</v>
+      </c>
+      <c r="BE34">
+        <v>3</v>
+      </c>
+      <c r="BF34">
+        <v>4</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>6</v>
+      </c>
+      <c r="BI34">
+        <v>6</v>
+      </c>
+      <c r="BJ34">
+        <v>10</v>
+      </c>
+      <c r="BK34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6454090</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45165.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>3.5</v>
+      </c>
+      <c r="U35">
+        <v>2.3</v>
+      </c>
+      <c r="V35">
+        <v>2.75</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>3.25</v>
+      </c>
+      <c r="Y35">
+        <v>2.5</v>
+      </c>
+      <c r="Z35">
+        <v>1.5</v>
+      </c>
+      <c r="AA35">
+        <v>6.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.11</v>
+      </c>
+      <c r="AC35">
+        <v>2.8</v>
+      </c>
+      <c r="AD35">
+        <v>3.4</v>
+      </c>
+      <c r="AE35">
+        <v>2.3</v>
+      </c>
+      <c r="AF35">
+        <v>1.02</v>
+      </c>
+      <c r="AG35">
+        <v>14.5</v>
+      </c>
+      <c r="AH35">
+        <v>1.22</v>
+      </c>
+      <c r="AI35">
+        <v>4.3</v>
+      </c>
+      <c r="AJ35">
+        <v>1.65</v>
+      </c>
+      <c r="AK35">
+        <v>2.15</v>
+      </c>
+      <c r="AL35">
+        <v>1.57</v>
+      </c>
+      <c r="AM35">
+        <v>2.25</v>
+      </c>
+      <c r="AN35">
+        <v>1.62</v>
+      </c>
+      <c r="AO35">
+        <v>1.24</v>
+      </c>
+      <c r="AP35">
+        <v>1.36</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>1.5</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>2</v>
+      </c>
+      <c r="AU35">
+        <v>1.18</v>
+      </c>
+      <c r="AV35">
+        <v>1.17</v>
+      </c>
+      <c r="AW35">
+        <v>2.35</v>
+      </c>
+      <c r="AX35">
+        <v>1.97</v>
+      </c>
+      <c r="AY35">
+        <v>7.5</v>
+      </c>
+      <c r="AZ35">
+        <v>2.18</v>
+      </c>
+      <c r="BA35">
+        <v>1.18</v>
+      </c>
+      <c r="BB35">
+        <v>1.48</v>
+      </c>
+      <c r="BC35">
+        <v>1.77</v>
+      </c>
+      <c r="BD35">
+        <v>2.25</v>
+      </c>
+      <c r="BE35">
+        <v>2.6</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>5</v>
+      </c>
+      <c r="BI35">
+        <v>2</v>
+      </c>
+      <c r="BJ35">
+        <v>5</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6454091</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45165.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
+        <v>2.3</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>3.25</v>
+      </c>
+      <c r="Y36">
+        <v>2.63</v>
+      </c>
+      <c r="Z36">
+        <v>1.44</v>
+      </c>
+      <c r="AA36">
+        <v>6.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.11</v>
+      </c>
+      <c r="AC36">
+        <v>2.13</v>
+      </c>
+      <c r="AD36">
+        <v>3.85</v>
+      </c>
+      <c r="AE36">
+        <v>3.49</v>
+      </c>
+      <c r="AF36">
+        <v>1.01</v>
+      </c>
+      <c r="AG36">
+        <v>10.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.25</v>
+      </c>
+      <c r="AI36">
+        <v>3.95</v>
+      </c>
+      <c r="AJ36">
+        <v>1.76</v>
+      </c>
+      <c r="AK36">
+        <v>1.85</v>
+      </c>
+      <c r="AL36">
+        <v>1.67</v>
+      </c>
+      <c r="AM36">
+        <v>2.1</v>
+      </c>
+      <c r="AN36">
+        <v>1.29</v>
+      </c>
+      <c r="AO36">
+        <v>1.24</v>
+      </c>
+      <c r="AP36">
+        <v>1.83</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1.5</v>
+      </c>
+      <c r="AS36">
+        <v>3</v>
+      </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>1.72</v>
+      </c>
+      <c r="AV36">
+        <v>0.86</v>
+      </c>
+      <c r="AW36">
+        <v>2.58</v>
+      </c>
+      <c r="AX36">
+        <v>1.5</v>
+      </c>
+      <c r="AY36">
+        <v>7.5</v>
+      </c>
+      <c r="AZ36">
+        <v>3.3</v>
+      </c>
+      <c r="BA36">
+        <v>1.48</v>
+      </c>
+      <c r="BB36">
+        <v>1.68</v>
+      </c>
+      <c r="BC36">
+        <v>2.1</v>
+      </c>
+      <c r="BD36">
+        <v>2.7</v>
+      </c>
+      <c r="BE36">
+        <v>3.5</v>
+      </c>
+      <c r="BF36">
+        <v>2</v>
+      </c>
+      <c r="BG36">
+        <v>7</v>
+      </c>
+      <c r="BH36">
+        <v>5</v>
+      </c>
+      <c r="BI36">
+        <v>6</v>
+      </c>
+      <c r="BJ36">
+        <v>7</v>
+      </c>
+      <c r="BK36">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>['2', '51', '60', '85', '90+5']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1869,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -4161,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU18">
         <v>1.95</v>
@@ -6262,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU29">
         <v>1.91</v>
@@ -7444,22 +7447,22 @@
         <v>2.6</v>
       </c>
       <c r="BF35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH35">
         <v>5</v>
       </c>
       <c r="BI35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK35">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7635,10 +7638,10 @@
         <v>3.5</v>
       </c>
       <c r="BF36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH36">
         <v>5</v>
@@ -7647,10 +7650,201 @@
         <v>6</v>
       </c>
       <c r="BJ36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK36">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6454092</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45166.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>2.25</v>
+      </c>
+      <c r="V37">
+        <v>2.6</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>3.25</v>
+      </c>
+      <c r="Y37">
+        <v>2.63</v>
+      </c>
+      <c r="Z37">
+        <v>1.44</v>
+      </c>
+      <c r="AA37">
+        <v>6.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.11</v>
+      </c>
+      <c r="AC37">
+        <v>3.25</v>
+      </c>
+      <c r="AD37">
+        <v>3.6</v>
+      </c>
+      <c r="AE37">
+        <v>2.02</v>
+      </c>
+      <c r="AF37">
+        <v>1.03</v>
+      </c>
+      <c r="AG37">
+        <v>12.5</v>
+      </c>
+      <c r="AH37">
+        <v>1.25</v>
+      </c>
+      <c r="AI37">
+        <v>3.95</v>
+      </c>
+      <c r="AJ37">
+        <v>1.87</v>
+      </c>
+      <c r="AK37">
+        <v>1.99</v>
+      </c>
+      <c r="AL37">
+        <v>1.67</v>
+      </c>
+      <c r="AM37">
+        <v>2.1</v>
+      </c>
+      <c r="AN37">
+        <v>1.83</v>
+      </c>
+      <c r="AO37">
+        <v>1.24</v>
+      </c>
+      <c r="AP37">
+        <v>1.3</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>2.25</v>
+      </c>
+      <c r="AU37">
+        <v>1.19</v>
+      </c>
+      <c r="AV37">
+        <v>1.11</v>
+      </c>
+      <c r="AW37">
+        <v>2.3</v>
+      </c>
+      <c r="AX37">
+        <v>2.66</v>
+      </c>
+      <c r="AY37">
+        <v>8.5</v>
+      </c>
+      <c r="AZ37">
+        <v>1.64</v>
+      </c>
+      <c r="BA37">
+        <v>1.21</v>
+      </c>
+      <c r="BB37">
+        <v>1.58</v>
+      </c>
+      <c r="BC37">
+        <v>1.9</v>
+      </c>
+      <c r="BD37">
+        <v>2.5</v>
+      </c>
+      <c r="BE37">
+        <v>3</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>4</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>6</v>
+      </c>
+      <c r="BJ37">
+        <v>9</v>
+      </c>
+      <c r="BK37">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,21 @@
     <t>['7', '53', '90']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['9', '22', '35']</t>
+  </si>
+  <si>
+    <t>['8', '48']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -413,6 +428,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['20', '82']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1209,7 +1230,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1296,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -1490,7 +1511,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1591,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1678,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1782,7 +1803,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1869,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT6">
         <v>2.25</v>
@@ -1973,7 +1994,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2063,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2164,7 +2185,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2355,7 +2376,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2737,7 +2758,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2827,7 +2848,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2928,7 +2949,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3015,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -3119,7 +3140,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3209,7 +3230,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU13">
         <v>1.62</v>
@@ -3310,7 +3331,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3397,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3588,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3692,7 +3713,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3883,7 +3904,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3970,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4074,7 +4095,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4265,7 +4286,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4352,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>1.78</v>
@@ -4456,7 +4477,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4543,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4647,7 +4668,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4737,7 +4758,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>1.62</v>
@@ -4838,7 +4859,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5116,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>0.33</v>
@@ -5220,7 +5241,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5501,7 +5522,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>1.76</v>
@@ -5602,7 +5623,7 @@
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5880,10 +5901,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU27">
         <v>1.97</v>
@@ -6071,10 +6092,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU28">
         <v>1.48</v>
@@ -6175,7 +6196,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6366,7 +6387,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6453,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6557,7 +6578,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6647,7 +6668,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.84</v>
@@ -6838,7 +6859,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.17</v>
@@ -6939,7 +6960,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7026,7 +7047,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7321,7 +7342,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7703,7 +7724,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -7845,6 +7866,961 @@
       </c>
       <c r="BK37">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6454093</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45170.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>2.45</v>
+      </c>
+      <c r="U38">
+        <v>2.3</v>
+      </c>
+      <c r="V38">
+        <v>4.33</v>
+      </c>
+      <c r="W38">
+        <v>1.3</v>
+      </c>
+      <c r="X38">
+        <v>3.15</v>
+      </c>
+      <c r="Y38">
+        <v>2.55</v>
+      </c>
+      <c r="Z38">
+        <v>1.45</v>
+      </c>
+      <c r="AA38">
+        <v>6.3</v>
+      </c>
+      <c r="AB38">
+        <v>1.08</v>
+      </c>
+      <c r="AC38">
+        <v>1.8</v>
+      </c>
+      <c r="AD38">
+        <v>3.68</v>
+      </c>
+      <c r="AE38">
+        <v>4.47</v>
+      </c>
+      <c r="AF38">
+        <v>1.03</v>
+      </c>
+      <c r="AG38">
+        <v>12.5</v>
+      </c>
+      <c r="AH38">
+        <v>1.25</v>
+      </c>
+      <c r="AI38">
+        <v>3.95</v>
+      </c>
+      <c r="AJ38">
+        <v>1.85</v>
+      </c>
+      <c r="AK38">
+        <v>1.85</v>
+      </c>
+      <c r="AL38">
+        <v>1.67</v>
+      </c>
+      <c r="AM38">
+        <v>2.14</v>
+      </c>
+      <c r="AN38">
+        <v>1.24</v>
+      </c>
+      <c r="AO38">
+        <v>1.22</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>0.67</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0.5</v>
+      </c>
+      <c r="AT38">
+        <v>0.75</v>
+      </c>
+      <c r="AU38">
+        <v>1.4</v>
+      </c>
+      <c r="AV38">
+        <v>1.1</v>
+      </c>
+      <c r="AW38">
+        <v>2.5</v>
+      </c>
+      <c r="AX38">
+        <v>1.55</v>
+      </c>
+      <c r="AY38">
+        <v>8.5</v>
+      </c>
+      <c r="AZ38">
+        <v>2.91</v>
+      </c>
+      <c r="BA38">
+        <v>1.25</v>
+      </c>
+      <c r="BB38">
+        <v>1.46</v>
+      </c>
+      <c r="BC38">
+        <v>1.73</v>
+      </c>
+      <c r="BD38">
+        <v>2.13</v>
+      </c>
+      <c r="BE38">
+        <v>3.3</v>
+      </c>
+      <c r="BF38">
+        <v>4</v>
+      </c>
+      <c r="BG38">
+        <v>5</v>
+      </c>
+      <c r="BH38">
+        <v>3</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>7</v>
+      </c>
+      <c r="BK38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6454095</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45172.375</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>4.5</v>
+      </c>
+      <c r="U39">
+        <v>2.3</v>
+      </c>
+      <c r="V39">
+        <v>2.4</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>3.25</v>
+      </c>
+      <c r="Y39">
+        <v>2.63</v>
+      </c>
+      <c r="Z39">
+        <v>1.44</v>
+      </c>
+      <c r="AA39">
+        <v>6.5</v>
+      </c>
+      <c r="AB39">
+        <v>1.11</v>
+      </c>
+      <c r="AC39">
+        <v>3.5</v>
+      </c>
+      <c r="AD39">
+        <v>3.45</v>
+      </c>
+      <c r="AE39">
+        <v>1.75</v>
+      </c>
+      <c r="AF39">
+        <v>1.05</v>
+      </c>
+      <c r="AG39">
+        <v>9</v>
+      </c>
+      <c r="AH39">
+        <v>1.25</v>
+      </c>
+      <c r="AI39">
+        <v>3.75</v>
+      </c>
+      <c r="AJ39">
+        <v>1.85</v>
+      </c>
+      <c r="AK39">
+        <v>1.95</v>
+      </c>
+      <c r="AL39">
+        <v>1.67</v>
+      </c>
+      <c r="AM39">
+        <v>2.1</v>
+      </c>
+      <c r="AN39">
+        <v>1.85</v>
+      </c>
+      <c r="AO39">
+        <v>1.29</v>
+      </c>
+      <c r="AP39">
+        <v>1.22</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>2</v>
+      </c>
+      <c r="AS39">
+        <v>1.75</v>
+      </c>
+      <c r="AT39">
+        <v>1.75</v>
+      </c>
+      <c r="AU39">
+        <v>1.37</v>
+      </c>
+      <c r="AV39">
+        <v>1.55</v>
+      </c>
+      <c r="AW39">
+        <v>2.92</v>
+      </c>
+      <c r="AX39">
+        <v>2.8</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>1.59</v>
+      </c>
+      <c r="BA39">
+        <v>1.25</v>
+      </c>
+      <c r="BB39">
+        <v>1.55</v>
+      </c>
+      <c r="BC39">
+        <v>1.85</v>
+      </c>
+      <c r="BD39">
+        <v>2.35</v>
+      </c>
+      <c r="BE39">
+        <v>3.4</v>
+      </c>
+      <c r="BF39">
+        <v>4</v>
+      </c>
+      <c r="BG39">
+        <v>4</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>9</v>
+      </c>
+      <c r="BJ39">
+        <v>4</v>
+      </c>
+      <c r="BK39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6454094</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45172.375</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2.4</v>
+      </c>
+      <c r="V40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>1.3</v>
+      </c>
+      <c r="X40">
+        <v>3.4</v>
+      </c>
+      <c r="Y40">
+        <v>2.5</v>
+      </c>
+      <c r="Z40">
+        <v>1.5</v>
+      </c>
+      <c r="AA40">
+        <v>6</v>
+      </c>
+      <c r="AB40">
+        <v>1.13</v>
+      </c>
+      <c r="AC40">
+        <v>1.67</v>
+      </c>
+      <c r="AD40">
+        <v>3.65</v>
+      </c>
+      <c r="AE40">
+        <v>4</v>
+      </c>
+      <c r="AF40">
+        <v>1.02</v>
+      </c>
+      <c r="AG40">
+        <v>14.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.2</v>
+      </c>
+      <c r="AI40">
+        <v>4.5</v>
+      </c>
+      <c r="AJ40">
+        <v>1.94</v>
+      </c>
+      <c r="AK40">
+        <v>1.92</v>
+      </c>
+      <c r="AL40">
+        <v>1.8</v>
+      </c>
+      <c r="AM40">
+        <v>1.95</v>
+      </c>
+      <c r="AN40">
+        <v>1.12</v>
+      </c>
+      <c r="AO40">
+        <v>1.17</v>
+      </c>
+      <c r="AP40">
+        <v>2.65</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>0.67</v>
+      </c>
+      <c r="AS40">
+        <v>2.25</v>
+      </c>
+      <c r="AT40">
+        <v>0.5</v>
+      </c>
+      <c r="AU40">
+        <v>1.65</v>
+      </c>
+      <c r="AV40">
+        <v>1.01</v>
+      </c>
+      <c r="AW40">
+        <v>2.66</v>
+      </c>
+      <c r="AX40">
+        <v>1.45</v>
+      </c>
+      <c r="AY40">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40">
+        <v>3.29</v>
+      </c>
+      <c r="BA40">
+        <v>1.25</v>
+      </c>
+      <c r="BB40">
+        <v>1.47</v>
+      </c>
+      <c r="BC40">
+        <v>1.85</v>
+      </c>
+      <c r="BD40">
+        <v>2.4</v>
+      </c>
+      <c r="BE40">
+        <v>2.9</v>
+      </c>
+      <c r="BF40">
+        <v>8</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>3</v>
+      </c>
+      <c r="BJ40">
+        <v>12</v>
+      </c>
+      <c r="BK40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6454096</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>14</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>2.38</v>
+      </c>
+      <c r="V41">
+        <v>4.75</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>3.25</v>
+      </c>
+      <c r="Y41">
+        <v>2.5</v>
+      </c>
+      <c r="Z41">
+        <v>1.5</v>
+      </c>
+      <c r="AA41">
+        <v>6.5</v>
+      </c>
+      <c r="AB41">
+        <v>1.11</v>
+      </c>
+      <c r="AC41">
+        <v>1.72</v>
+      </c>
+      <c r="AD41">
+        <v>3.59</v>
+      </c>
+      <c r="AE41">
+        <v>3.5</v>
+      </c>
+      <c r="AF41">
+        <v>1.01</v>
+      </c>
+      <c r="AG41">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH41">
+        <v>1.19</v>
+      </c>
+      <c r="AI41">
+        <v>4.05</v>
+      </c>
+      <c r="AJ41">
+        <v>1.91</v>
+      </c>
+      <c r="AK41">
+        <v>1.9</v>
+      </c>
+      <c r="AL41">
+        <v>1.7</v>
+      </c>
+      <c r="AM41">
+        <v>2.05</v>
+      </c>
+      <c r="AN41">
+        <v>1.2</v>
+      </c>
+      <c r="AO41">
+        <v>1.25</v>
+      </c>
+      <c r="AP41">
+        <v>2.16</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>0.33</v>
+      </c>
+      <c r="AS41">
+        <v>2</v>
+      </c>
+      <c r="AT41">
+        <v>0.25</v>
+      </c>
+      <c r="AU41">
+        <v>2.07</v>
+      </c>
+      <c r="AV41">
+        <v>1.01</v>
+      </c>
+      <c r="AW41">
+        <v>3.08</v>
+      </c>
+      <c r="AX41">
+        <v>1.45</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>3.32</v>
+      </c>
+      <c r="BA41">
+        <v>1.22</v>
+      </c>
+      <c r="BB41">
+        <v>1.45</v>
+      </c>
+      <c r="BC41">
+        <v>1.71</v>
+      </c>
+      <c r="BD41">
+        <v>2.15</v>
+      </c>
+      <c r="BE41">
+        <v>3.1</v>
+      </c>
+      <c r="BF41">
+        <v>3</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>12</v>
+      </c>
+      <c r="BJ41">
+        <v>7</v>
+      </c>
+      <c r="BK41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6454097</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45172.54166666666</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>2.1</v>
+      </c>
+      <c r="U42">
+        <v>2.38</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>3.4</v>
+      </c>
+      <c r="Y42">
+        <v>2.5</v>
+      </c>
+      <c r="Z42">
+        <v>1.5</v>
+      </c>
+      <c r="AA42">
+        <v>6</v>
+      </c>
+      <c r="AB42">
+        <v>1.13</v>
+      </c>
+      <c r="AC42">
+        <v>1.53</v>
+      </c>
+      <c r="AD42">
+        <v>4.2</v>
+      </c>
+      <c r="AE42">
+        <v>5.25</v>
+      </c>
+      <c r="AF42">
+        <v>1.04</v>
+      </c>
+      <c r="AG42">
+        <v>10</v>
+      </c>
+      <c r="AH42">
+        <v>1.22</v>
+      </c>
+      <c r="AI42">
+        <v>4</v>
+      </c>
+      <c r="AJ42">
+        <v>1.62</v>
+      </c>
+      <c r="AK42">
+        <v>2.15</v>
+      </c>
+      <c r="AL42">
+        <v>1.75</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>1.15</v>
+      </c>
+      <c r="AO42">
+        <v>1.18</v>
+      </c>
+      <c r="AP42">
+        <v>2.45</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>2.25</v>
+      </c>
+      <c r="AT42">
+        <v>0.75</v>
+      </c>
+      <c r="AU42">
+        <v>1.97</v>
+      </c>
+      <c r="AV42">
+        <v>1.36</v>
+      </c>
+      <c r="AW42">
+        <v>3.33</v>
+      </c>
+      <c r="AX42">
+        <v>1.64</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>2.77</v>
+      </c>
+      <c r="BA42">
+        <v>1.26</v>
+      </c>
+      <c r="BB42">
+        <v>1.66</v>
+      </c>
+      <c r="BC42">
+        <v>2.05</v>
+      </c>
+      <c r="BD42">
+        <v>2.7</v>
+      </c>
+      <c r="BE42">
+        <v>3.5</v>
+      </c>
+      <c r="BF42">
+        <v>6</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>5</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>11</v>
+      </c>
+      <c r="BK42">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>['8', '48']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -795,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT2">
         <v>0.5</v>
@@ -1230,7 +1233,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1612,7 +1615,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1803,7 +1806,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -1994,7 +1997,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2185,7 +2188,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2376,7 +2379,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
         <v>1.33</v>
@@ -2758,7 +2761,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2949,7 +2952,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3140,7 +3143,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3331,7 +3334,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3713,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3803,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3904,7 +3907,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4095,7 +4098,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4286,7 +4289,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4477,7 +4480,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4668,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4859,7 +4862,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5241,7 +5244,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5623,7 +5626,7 @@
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6196,7 +6199,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6283,7 +6286,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>2.25</v>
@@ -6387,7 +6390,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6477,7 +6480,7 @@
         <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>1.51</v>
@@ -6578,7 +6581,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6960,7 +6963,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7342,7 +7345,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7724,7 +7727,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -7915,7 +7918,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8106,16 +8109,16 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="S39">
         <v>10</v>
-      </c>
-      <c r="S39">
-        <v>11</v>
       </c>
       <c r="T39">
         <v>4.5</v>
@@ -8614,22 +8617,22 @@
         <v>3.1</v>
       </c>
       <c r="BF41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG41">
         <v>3</v>
       </c>
       <c r="BH41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI41">
+        <v>9</v>
+      </c>
+      <c r="BJ41">
+        <v>11</v>
+      </c>
+      <c r="BK41">
         <v>12</v>
-      </c>
-      <c r="BJ41">
-        <v>7</v>
-      </c>
-      <c r="BK41">
-        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:63">
@@ -8682,13 +8685,13 @@
         <v>91</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T42">
         <v>2.1</v>
@@ -8805,22 +8808,213 @@
         <v>3.5</v>
       </c>
       <c r="BF42">
+        <v>9</v>
+      </c>
+      <c r="BG42">
+        <v>3</v>
+      </c>
+      <c r="BH42">
+        <v>7</v>
+      </c>
+      <c r="BI42">
+        <v>2</v>
+      </c>
+      <c r="BJ42">
+        <v>16</v>
+      </c>
+      <c r="BK42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6454098</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45172.625</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>3.1</v>
+      </c>
+      <c r="U43">
+        <v>2.1</v>
+      </c>
+      <c r="V43">
+        <v>3.5</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>2.75</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>1.36</v>
+      </c>
+      <c r="AA43">
+        <v>9</v>
+      </c>
+      <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>2.15</v>
+      </c>
+      <c r="AD43">
+        <v>3.3</v>
+      </c>
+      <c r="AE43">
+        <v>3.2</v>
+      </c>
+      <c r="AF43">
+        <v>1.06</v>
+      </c>
+      <c r="AG43">
+        <v>10.75</v>
+      </c>
+      <c r="AH43">
+        <v>1.32</v>
+      </c>
+      <c r="AI43">
+        <v>3.4</v>
+      </c>
+      <c r="AJ43">
+        <v>1.85</v>
+      </c>
+      <c r="AK43">
+        <v>1.85</v>
+      </c>
+      <c r="AL43">
+        <v>1.8</v>
+      </c>
+      <c r="AM43">
+        <v>1.95</v>
+      </c>
+      <c r="AN43">
+        <v>1.42</v>
+      </c>
+      <c r="AO43">
+        <v>1.32</v>
+      </c>
+      <c r="AP43">
+        <v>1.55</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>1.75</v>
+      </c>
+      <c r="AT43">
+        <v>1.67</v>
+      </c>
+      <c r="AU43">
+        <v>1.58</v>
+      </c>
+      <c r="AV43">
+        <v>1.32</v>
+      </c>
+      <c r="AW43">
+        <v>2.9</v>
+      </c>
+      <c r="AX43">
+        <v>1.91</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>2.2</v>
+      </c>
+      <c r="BA43">
+        <v>1.24</v>
+      </c>
+      <c r="BB43">
+        <v>1.5</v>
+      </c>
+      <c r="BC43">
+        <v>1.82</v>
+      </c>
+      <c r="BD43">
+        <v>2.3</v>
+      </c>
+      <c r="BE43">
+        <v>3.3</v>
+      </c>
+      <c r="BF43">
+        <v>3</v>
+      </c>
+      <c r="BG43">
+        <v>4</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
         <v>6</v>
       </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>5</v>
-      </c>
-      <c r="BI42">
-        <v>4</v>
-      </c>
-      <c r="BJ42">
-        <v>11</v>
-      </c>
-      <c r="BK42">
-        <v>4</v>
+      <c r="BK43">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
         <v>0.75</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU10" t="n">
         <v>1.97</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
         <v>1.75</v>
@@ -3542,7 +3542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU18" t="n">
         <v>1.95</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.63</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT24" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>2.02</v>
@@ -6181,7 +6181,7 @@
         <v>1.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>1.48</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1.67</v>
@@ -7196,7 +7196,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.92</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>2.06</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU41" t="n">
         <v>2.07</v>
@@ -9465,10 +9465,10 @@
         <v>3.75</v>
       </c>
       <c r="BF44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH44" t="n">
         <v>8</v>
@@ -9477,10 +9477,10 @@
         <v>4</v>
       </c>
       <c r="BJ44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -9671,19 +9671,831 @@
         <v>5</v>
       </c>
       <c r="BG45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI45" t="n">
         <v>4</v>
       </c>
       <c r="BJ45" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6454104</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45186.375</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['47', '84']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6</v>
+      </c>
+      <c r="S46" t="n">
+        <v>7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6454100</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45186.45833333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK47" t="n">
         <v>14</v>
       </c>
-      <c r="BK45" t="n">
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6454099</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45186.54166666666</v>
+      </c>
+      <c r="F48" t="n">
         <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['25', '40', '52']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6454101</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45187.58333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['13', '60', '73']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1309,7 +1309,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>2.35</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU31" t="n">
         <v>1.84</v>
@@ -8211,7 +8211,7 @@
         <v>0.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT39" t="n">
         <v>1.75</v>
@@ -10496,6 +10496,209 @@
       </c>
       <c r="BK49" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6454107</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45191.58333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT6" t="n">
         <v>2.4</v>
@@ -1918,7 +1918,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.75</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT14" t="n">
         <v>0.8</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU19" t="n">
         <v>1.78</v>
@@ -4557,7 +4557,7 @@
         <v>2.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.52</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>1.75</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU26" t="n">
         <v>0.75</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT27" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>2.4</v>
@@ -6587,7 +6587,7 @@
         <v>0.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6990,10 +6990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.17</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.18</v>
@@ -8614,7 +8614,7 @@
         <v>0.67</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -8817,7 +8817,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.8</v>
@@ -9023,7 +9023,7 @@
         <v>2.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.58</v>
@@ -9632,7 +9632,7 @@
         <v>2.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.58</v>
@@ -10686,19 +10686,831 @@
         <v>4</v>
       </c>
       <c r="BG50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI50" t="n">
         <v>6</v>
       </c>
       <c r="BJ50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6454105</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45193.375</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['25', '69']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['54', '84', '89']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6454108</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.375</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['33', '48']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>9</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF52" t="n">
         <v>7</v>
       </c>
-      <c r="BK50" t="n">
-        <v>11</v>
+      <c r="BG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6454109</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>7</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6454106</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['51', '90+4']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT18" t="n">
         <v>2.4</v>
@@ -5572,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.65</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT45" t="n">
         <v>2.6</v>
@@ -11495,22 +11495,225 @@
         <v>3.2</v>
       </c>
       <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6454110</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45194.58333333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>8</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK55" t="n">
         <v>5</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,7 +1519,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.6</v>
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.6</v>
@@ -2709,7 +2709,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -3559,7 +3559,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -3896,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.5</v>
@@ -4066,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -4579,7 +4579,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -4746,7 +4746,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.6</v>
@@ -5089,7 +5089,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -5599,7 +5599,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.8</v>
@@ -5936,7 +5936,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.6</v>
@@ -6106,10 +6106,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -6619,7 +6619,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -6786,10 +6786,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -7129,7 +7129,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.6</v>
@@ -7809,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -7976,10 +7976,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -8316,7 +8316,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.8</v>
@@ -8659,7 +8659,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -8829,7 +8829,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -9506,10 +9506,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -9877,6 +9877,856 @@
       </c>
       <c r="AZ55" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6454111</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['63', '71']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6454112</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45200.375</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6454115</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45200.375</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6454114</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['10', '50', '86']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X59" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6454113</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['35', '72']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X60" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ60"/>
+  <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.8</v>
@@ -1859,7 +1859,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.6</v>
@@ -4409,7 +4409,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.2</v>
@@ -6279,7 +6279,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.8</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -8826,7 +8826,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.4</v>
@@ -10374,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="AV58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW58" t="n">
         <v>4</v>
@@ -10386,7 +10386,7 @@
         <v>6</v>
       </c>
       <c r="AZ58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -10547,16 +10547,16 @@
         <v>8</v>
       </c>
       <c r="AW59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY59" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -10711,22 +10711,192 @@
         <v>3.18</v>
       </c>
       <c r="AU60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6454116</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
         <v>3</v>
       </c>
-      <c r="AX60" t="n">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['35', '50']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU61" t="n">
         <v>7</v>
       </c>
-      <c r="AY60" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>9</v>
+      <c r="AV61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ61"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -867,6 +947,54 @@
       </c>
       <c r="AZ2" t="n">
         <v>7</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="3">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>12</v>
       </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>6</v>
       </c>
+      <c r="BA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>13</v>
       </c>
+      <c r="BA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
+      <c r="BA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>5</v>
       </c>
+      <c r="BA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>10</v>
       </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>11</v>
       </c>
+      <c r="BA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
+      <c r="BA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>9</v>
       </c>
+      <c r="BA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
+      <c r="BA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>11</v>
       </c>
+      <c r="BA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>10</v>
       </c>
+      <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>4</v>
       </c>
+      <c r="BA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
+      <c r="BA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>4</v>
       </c>
+      <c r="BA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>6</v>
       </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>17</v>
       </c>
+      <c r="BA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
+      <c r="BA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>11</v>
       </c>
+      <c r="BA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>7</v>
       </c>
+      <c r="BA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>6</v>
       </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>10</v>
       </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
+      <c r="BA25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>9</v>
       </c>
+      <c r="BA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>10</v>
       </c>
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>6</v>
       </c>
+      <c r="BA28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>10</v>
       </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>11</v>
       </c>
+      <c r="BA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
+      <c r="BA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>9</v>
       </c>
+      <c r="BA32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>12</v>
       </c>
+      <c r="BA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>13</v>
       </c>
+      <c r="BA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>8</v>
       </c>
+      <c r="BA36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>10</v>
       </c>
+      <c r="BA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>9</v>
       </c>
+      <c r="BA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>13</v>
       </c>
+      <c r="BA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>6</v>
       </c>
+      <c r="BA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>12</v>
       </c>
+      <c r="BA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>5</v>
       </c>
+      <c r="BA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>7</v>
       </c>
+      <c r="BA43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>10</v>
       </c>
+      <c r="BA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>10</v>
       </c>
+      <c r="BA45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>8</v>
       </c>
+      <c r="BA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>14</v>
       </c>
+      <c r="BA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>14</v>
       </c>
+      <c r="BA48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>5</v>
       </c>
+      <c r="BA49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>12</v>
       </c>
+      <c r="BA50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>12</v>
       </c>
+      <c r="BA51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>5</v>
       </c>
+      <c r="BA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>12</v>
       </c>
+      <c r="BA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>3</v>
       </c>
+      <c r="BA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>5</v>
       </c>
+      <c r="BA55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>11</v>
       </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>5</v>
       </c>
+      <c r="BA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>15</v>
       </c>
+      <c r="BA58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>15</v>
       </c>
+      <c r="BA59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>14</v>
       </c>
+      <c r="BA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10881,22 +13793,70 @@
         <v>2.56</v>
       </c>
       <c r="AU61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA61" t="n">
         <v>7</v>
       </c>
-      <c r="AV61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW61" t="n">
+      <c r="BB61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC61" t="n">
         <v>12</v>
       </c>
-      <c r="AX61" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>6</v>
+      <c r="BD61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.8</v>
@@ -1573,7 +1573,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.5</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.4</v>
@@ -2881,7 +2881,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.6</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.8</v>
@@ -3753,7 +3753,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.5</v>
@@ -4625,7 +4625,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4843,7 +4843,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.4</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.4</v>
@@ -5933,7 +5933,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR26" t="n">
         <v>0.75</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.6</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR28" t="n">
         <v>1.48</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>2.5</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.4</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.5</v>
@@ -9200,10 +9200,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9418,10 +9418,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR41" t="n">
         <v>2.07</v>
@@ -9639,7 +9639,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.2</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.58</v>
@@ -10508,10 +10508,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR46" t="n">
         <v>1.17</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -10944,7 +10944,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.5</v>
@@ -11598,10 +11598,10 @@
         <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.84</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12252,10 +12252,10 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -13124,7 +13124,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.6</v>
@@ -13781,7 +13781,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13857,6 +13857,1314 @@
       </c>
       <c r="BP61" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6454122</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45205.58333333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['15', '21', '23', '36', '82']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6454120</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45207.375</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S63" t="n">
+        <v>6</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6454121</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45207.375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['43', '45+4', '71']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X64" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6454118</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45207.45833333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6454119</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['62', '67']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['9', '71']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6454117</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X67" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14232,19 +14232,19 @@
         <v>5</v>
       </c>
       <c r="AV63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX63" t="n">
         <v>2</v>
       </c>
       <c r="AY63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA63" t="n">
         <v>10</v>
@@ -14447,22 +14447,22 @@
         <v>1.99</v>
       </c>
       <c r="AU64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX64" t="n">
         <v>6</v>
       </c>
-      <c r="AV64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>5</v>
-      </c>
       <c r="AY64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA64" t="n">
         <v>5</v>
@@ -14665,22 +14665,22 @@
         <v>2.89</v>
       </c>
       <c r="AU65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX65" t="n">
         <v>6</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>5</v>
       </c>
       <c r="AY65" t="n">
         <v>10</v>
       </c>
       <c r="AZ65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA65" t="n">
         <v>6</v>
@@ -14883,22 +14883,22 @@
         <v>2.58</v>
       </c>
       <c r="AU66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX66" t="n">
         <v>4</v>
       </c>
-      <c r="AW66" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>3</v>
-      </c>
       <c r="AY66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ66" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA66" t="n">
         <v>6</v>
@@ -15101,31 +15101,31 @@
         <v>3.17</v>
       </c>
       <c r="AU67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ67" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA67" t="n">
         <v>4</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD67" t="n">
         <v>1.82</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -5715,7 +5715,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -7677,7 +7677,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -11165,7 +11165,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -12909,7 +12909,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.05</v>
@@ -15165,6 +15165,224 @@
       </c>
       <c r="BP67" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6454124</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['19', '74']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>2.33</v>
@@ -1355,7 +1355,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.17</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.5</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3535,7 +3535,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.83</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.4</v>
@@ -4407,7 +4407,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.8</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5930,7 +5930,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.5</v>
@@ -6369,7 +6369,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.83</v>
@@ -6805,7 +6805,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7023,7 +7023,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>1.84</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.5</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.67</v>
@@ -8549,7 +8549,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8767,7 +8767,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.5</v>
@@ -9857,7 +9857,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.4</v>
@@ -10947,7 +10947,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.22</v>
@@ -12034,10 +12034,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.4</v>
@@ -12906,7 +12906,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.67</v>
@@ -13127,7 +13127,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13560,10 +13560,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -15319,31 +15319,31 @@
         <v>2.25</v>
       </c>
       <c r="AU68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA68" t="n">
         <v>7</v>
       </c>
       <c r="BB68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD68" t="n">
         <v>2.91</v>
@@ -15382,6 +15382,878 @@
         <v>3</v>
       </c>
       <c r="BP68" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6454123</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['70', '82']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X69" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6454125</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45221.375</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['36', '51']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6454128</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45221.45833333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['65', '83']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6454126</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['34', '59']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['31', '81']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X72" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP72" t="n">
         <v>1.35</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.83</v>
@@ -4189,7 +4189,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -5279,7 +5279,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.5</v>
@@ -8331,7 +8331,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.67</v>
@@ -10075,7 +10075,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -11162,7 +11162,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.67</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.98</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.17</v>
@@ -15537,7 +15537,7 @@
         <v>3</v>
       </c>
       <c r="AU69" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV69" t="n">
         <v>3</v>
@@ -15546,13 +15546,13 @@
         <v>9</v>
       </c>
       <c r="AX69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY69" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA69" t="n">
         <v>12</v>
@@ -15973,19 +15973,19 @@
         <v>3.34</v>
       </c>
       <c r="AU71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW71" t="n">
         <v>4</v>
       </c>
       <c r="AX71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ71" t="n">
         <v>10</v>
@@ -16191,31 +16191,31 @@
         <v>2.5</v>
       </c>
       <c r="AU72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ72" t="n">
         <v>8</v>
       </c>
       <c r="BA72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB72" t="n">
         <v>5</v>
       </c>
       <c r="BC72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD72" t="n">
         <v>2.44</v>
@@ -16255,6 +16255,224 @@
       </c>
       <c r="BP72" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6454127</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45222.58333333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['24', '84']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5</v>
@@ -2227,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.67</v>
@@ -5497,7 +5497,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>2.29</v>
@@ -7895,7 +7895,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.5</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.8</v>
@@ -13781,7 +13781,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.65</v>
@@ -14868,7 +14868,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.83</v>
@@ -16473,6 +16473,224 @@
       </c>
       <c r="BP73" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6454133</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['10', '47']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.29</v>
@@ -2009,7 +2009,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.33</v>
@@ -2881,7 +2881,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.67</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.83</v>
@@ -4625,7 +4625,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5061,7 +5061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.67</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.67</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.29</v>
@@ -8985,7 +8985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9200,10 +9200,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.83</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.83</v>
@@ -11598,7 +11598,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.33</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12255,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12473,7 +12473,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.67</v>
@@ -13124,10 +13124,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14217,7 +14217,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.68</v>
@@ -14432,10 +14432,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR64" t="n">
         <v>1.09</v>
@@ -14650,10 +14650,10 @@
         <v>0.6</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15522,7 +15522,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.67</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16690,6 +16690,878 @@
         <v>3.25</v>
       </c>
       <c r="BP74" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6454132</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['1', '12', '69', '88']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6454131</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45228.41666666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6454134</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6454130</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['16', '64']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X78" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP78" t="n">
         <v>1.28</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.67</v>
@@ -1573,7 +1573,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.57</v>
@@ -3753,7 +3753,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.67</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR28" t="n">
         <v>1.48</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR41" t="n">
         <v>2.07</v>
@@ -10511,7 +10511,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR46" t="n">
         <v>1.17</v>
@@ -10944,7 +10944,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.29</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR66" t="n">
         <v>1.45</v>
@@ -15086,7 +15086,7 @@
         <v>2.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.33</v>
@@ -17063,22 +17063,22 @@
         <v>2.37</v>
       </c>
       <c r="AU76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW76" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY76" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA76" t="n">
         <v>7</v>
@@ -17284,28 +17284,28 @@
         <v>4</v>
       </c>
       <c r="AV77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW77" t="n">
         <v>5</v>
       </c>
       <c r="AX77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY77" t="n">
         <v>9</v>
       </c>
       <c r="AZ77" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB77" t="n">
         <v>7</v>
       </c>
       <c r="BC77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD77" t="n">
         <v>1.51</v>
@@ -17499,31 +17499,31 @@
         <v>3.23</v>
       </c>
       <c r="AU78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB78" t="n">
         <v>3</v>
       </c>
-      <c r="AV78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>2</v>
-      </c>
       <c r="BC78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD78" t="n">
         <v>2.1</v>
@@ -17563,6 +17563,224 @@
       </c>
       <c r="BP78" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6454129</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45229.625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['27', '85']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X79" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -2872,16 +2872,16 @@
         <v>1.92</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>1.71</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>3</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3744,16 +3744,16 @@
         <v>3.2</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3962,16 +3962,16 @@
         <v>1.25</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>1.27</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -4401,13 +4401,13 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4616,16 +4616,16 @@
         <v>1.65</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4837,13 +4837,13 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5052,16 +5052,16 @@
         <v>1.18</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21" t="n">
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5273,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -5488,16 +5488,16 @@
         <v>2.12</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5706,16 +5706,16 @@
         <v>2.1</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -5924,16 +5924,16 @@
         <v>2.55</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6142,16 +6142,16 @@
         <v>1.13</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO26" t="n">
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR26" t="n">
         <v>0.75</v>
@@ -6360,16 +6360,16 @@
         <v>1.4</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO27" t="n">
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6578,16 +6578,16 @@
         <v>1.65</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR28" t="n">
         <v>1.48</v>
@@ -6796,16 +6796,16 @@
         <v>1.6</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO29" t="n">
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7014,16 +7014,16 @@
         <v>1.39</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7232,16 +7232,16 @@
         <v>1.94</v>
       </c>
       <c r="AN31" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31" t="n">
         <v>1.84</v>
@@ -7450,16 +7450,16 @@
         <v>1.5</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7671,13 +7671,13 @@
         <v>3</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -7886,16 +7886,16 @@
         <v>1.95</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -8104,16 +8104,16 @@
         <v>1.36</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -8322,16 +8322,16 @@
         <v>1.83</v>
       </c>
       <c r="AN36" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8758,16 +8758,16 @@
         <v>2</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8976,16 +8976,16 @@
         <v>1.22</v>
       </c>
       <c r="AN39" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO39" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9194,16 +9194,16 @@
         <v>2.65</v>
       </c>
       <c r="AN40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9412,16 +9412,16 @@
         <v>2.16</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR41" t="n">
         <v>2.07</v>
@@ -9630,16 +9630,16 @@
         <v>2.45</v>
       </c>
       <c r="AN42" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -9848,16 +9848,16 @@
         <v>1.55</v>
       </c>
       <c r="AN43" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10066,16 +10066,16 @@
         <v>1.42</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AO44" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -10284,16 +10284,16 @@
         <v>1.65</v>
       </c>
       <c r="AN45" t="n">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AO45" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR45" t="n">
         <v>1.58</v>
@@ -10502,16 +10502,16 @@
         <v>1.65</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR46" t="n">
         <v>1.17</v>
@@ -10720,16 +10720,16 @@
         <v>1.32</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -10938,16 +10938,16 @@
         <v>1.65</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11156,16 +11156,16 @@
         <v>1.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO49" t="n">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11374,16 +11374,16 @@
         <v>1.83</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR50" t="n">
         <v>1.22</v>
@@ -11592,16 +11592,16 @@
         <v>1.45</v>
       </c>
       <c r="AN51" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO51" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR51" t="n">
         <v>1.84</v>
@@ -11810,16 +11810,16 @@
         <v>1.61</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12028,16 +12028,16 @@
         <v>1.32</v>
       </c>
       <c r="AN53" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO53" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12246,16 +12246,16 @@
         <v>2.1</v>
       </c>
       <c r="AN54" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12464,16 +12464,16 @@
         <v>4.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -12682,16 +12682,16 @@
         <v>2</v>
       </c>
       <c r="AN56" t="n">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AO56" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR56" t="n">
         <v>1.98</v>
@@ -12900,16 +12900,16 @@
         <v>1.35</v>
       </c>
       <c r="AN57" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO57" t="n">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.05</v>
@@ -13118,16 +13118,16 @@
         <v>1.25</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13336,16 +13336,16 @@
         <v>1.18</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO59" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13554,16 +13554,16 @@
         <v>1.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -13772,16 +13772,16 @@
         <v>1.68</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AO61" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13990,16 +13990,16 @@
         <v>2.05</v>
       </c>
       <c r="AN62" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO62" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR62" t="n">
         <v>1.65</v>
@@ -14208,16 +14208,16 @@
         <v>2.8</v>
       </c>
       <c r="AN63" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AO63" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR63" t="n">
         <v>1.68</v>
@@ -14426,16 +14426,16 @@
         <v>1.92</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR64" t="n">
         <v>1.09</v>
@@ -14644,16 +14644,16 @@
         <v>2</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14862,16 +14862,16 @@
         <v>2.4</v>
       </c>
       <c r="AN66" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR66" t="n">
         <v>1.45</v>
@@ -15080,16 +15080,16 @@
         <v>1.36</v>
       </c>
       <c r="AN67" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AR67" t="n">
         <v>1.62</v>
@@ -15298,16 +15298,16 @@
         <v>1.15</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO68" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.18</v>
@@ -15516,16 +15516,16 @@
         <v>3.3</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -15734,16 +15734,16 @@
         <v>1.36</v>
       </c>
       <c r="AN70" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15952,16 +15952,16 @@
         <v>1.29</v>
       </c>
       <c r="AN71" t="n">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16170,16 +16170,16 @@
         <v>1.28</v>
       </c>
       <c r="AN72" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AO72" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AR72" t="n">
         <v>1.12</v>
@@ -16388,16 +16388,16 @@
         <v>1.35</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO73" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16606,16 +16606,16 @@
         <v>2.45</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -16824,16 +16824,16 @@
         <v>4.2</v>
       </c>
       <c r="AN75" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17045,13 +17045,13 @@
         <v>0.67</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17260,16 +17260,16 @@
         <v>2.25</v>
       </c>
       <c r="AN77" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AO77" t="n">
-        <v>1.8</v>
+        <v>0.92</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR77" t="n">
         <v>1.66</v>
@@ -17478,16 +17478,16 @@
         <v>1.63</v>
       </c>
       <c r="AN78" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AO78" t="n">
         <v>1.83</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AR78" t="n">
         <v>1.6</v>
@@ -17696,16 +17696,16 @@
         <v>2</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="AR79" t="n">
         <v>1.49</v>
@@ -17781,6 +17781,224 @@
       </c>
       <c r="BP79" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6454137</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45234.52083333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['47', '52']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['14', '87']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -2872,16 +2872,16 @@
         <v>1.92</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>1.71</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>3</v>
       </c>
       <c r="AO13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3744,16 +3744,16 @@
         <v>3.2</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3962,16 +3962,16 @@
         <v>1.25</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>1.27</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -4401,13 +4401,13 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4616,16 +4616,16 @@
         <v>1.65</v>
       </c>
       <c r="AN19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4837,13 +4837,13 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5052,16 +5052,16 @@
         <v>1.18</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5273,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -5488,16 +5488,16 @@
         <v>2.12</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5706,16 +5706,16 @@
         <v>2.1</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -5924,16 +5924,16 @@
         <v>2.55</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6142,16 +6142,16 @@
         <v>1.13</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR26" t="n">
         <v>0.75</v>
@@ -6360,16 +6360,16 @@
         <v>1.4</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO27" t="n">
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6578,16 +6578,16 @@
         <v>1.65</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO28" t="n">
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR28" t="n">
         <v>1.48</v>
@@ -6796,16 +6796,16 @@
         <v>1.6</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO29" t="n">
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7014,16 +7014,16 @@
         <v>1.39</v>
       </c>
       <c r="AN30" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7232,16 +7232,16 @@
         <v>1.94</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR31" t="n">
         <v>1.84</v>
@@ -7450,16 +7450,16 @@
         <v>1.5</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7671,13 +7671,13 @@
         <v>3</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -7886,16 +7886,16 @@
         <v>1.95</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -8104,16 +8104,16 @@
         <v>1.36</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -8322,16 +8322,16 @@
         <v>1.83</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8758,16 +8758,16 @@
         <v>2</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8976,16 +8976,16 @@
         <v>1.22</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO39" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9194,16 +9194,16 @@
         <v>2.65</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9412,16 +9412,16 @@
         <v>2.16</v>
       </c>
       <c r="AN41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR41" t="n">
         <v>2.07</v>
@@ -9630,16 +9630,16 @@
         <v>2.45</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -9848,16 +9848,16 @@
         <v>1.55</v>
       </c>
       <c r="AN43" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10066,16 +10066,16 @@
         <v>1.42</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -10284,16 +10284,16 @@
         <v>1.65</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="AO45" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR45" t="n">
         <v>1.58</v>
@@ -10502,16 +10502,16 @@
         <v>1.65</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP46" t="n">
         <v>0.71</v>
       </c>
-      <c r="AP46" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AQ46" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR46" t="n">
         <v>1.17</v>
@@ -10720,16 +10720,16 @@
         <v>1.32</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -10938,16 +10938,16 @@
         <v>1.65</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11156,16 +11156,16 @@
         <v>1.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11374,16 +11374,16 @@
         <v>1.83</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR50" t="n">
         <v>1.22</v>
@@ -11592,16 +11592,16 @@
         <v>1.45</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR51" t="n">
         <v>1.84</v>
@@ -11810,16 +11810,16 @@
         <v>1.61</v>
       </c>
       <c r="AN52" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12028,16 +12028,16 @@
         <v>1.32</v>
       </c>
       <c r="AN53" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO53" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12246,16 +12246,16 @@
         <v>2.1</v>
       </c>
       <c r="AN54" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12464,16 +12464,16 @@
         <v>4.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -12682,16 +12682,16 @@
         <v>2</v>
       </c>
       <c r="AN56" t="n">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO56" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.98</v>
@@ -12900,16 +12900,16 @@
         <v>1.35</v>
       </c>
       <c r="AN57" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO57" t="n">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR57" t="n">
         <v>1.05</v>
@@ -13118,16 +13118,16 @@
         <v>1.25</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO58" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13336,16 +13336,16 @@
         <v>1.18</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13554,16 +13554,16 @@
         <v>1.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -13772,16 +13772,16 @@
         <v>1.68</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AO61" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13990,16 +13990,16 @@
         <v>2.05</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.65</v>
@@ -14208,16 +14208,16 @@
         <v>2.8</v>
       </c>
       <c r="AN63" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO63" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR63" t="n">
         <v>1.68</v>
@@ -14426,16 +14426,16 @@
         <v>1.92</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR64" t="n">
         <v>1.09</v>
@@ -14644,16 +14644,16 @@
         <v>2</v>
       </c>
       <c r="AN65" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14862,16 +14862,16 @@
         <v>2.4</v>
       </c>
       <c r="AN66" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO66" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR66" t="n">
         <v>1.45</v>
@@ -15080,16 +15080,16 @@
         <v>1.36</v>
       </c>
       <c r="AN67" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AR67" t="n">
         <v>1.62</v>
@@ -15298,16 +15298,16 @@
         <v>1.15</v>
       </c>
       <c r="AN68" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR68" t="n">
         <v>1.18</v>
@@ -15516,16 +15516,16 @@
         <v>3.3</v>
       </c>
       <c r="AN69" t="n">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -15734,16 +15734,16 @@
         <v>1.36</v>
       </c>
       <c r="AN70" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15952,16 +15952,16 @@
         <v>1.29</v>
       </c>
       <c r="AN71" t="n">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16170,16 +16170,16 @@
         <v>1.28</v>
       </c>
       <c r="AN72" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AO72" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AR72" t="n">
         <v>1.12</v>
@@ -16388,16 +16388,16 @@
         <v>1.35</v>
       </c>
       <c r="AN73" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO73" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16606,16 +16606,16 @@
         <v>2.45</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -16824,16 +16824,16 @@
         <v>4.2</v>
       </c>
       <c r="AN75" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17045,13 +17045,13 @@
         <v>0.67</v>
       </c>
       <c r="AO76" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17260,16 +17260,16 @@
         <v>2.25</v>
       </c>
       <c r="AN77" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR77" t="n">
         <v>1.66</v>
@@ -17478,16 +17478,16 @@
         <v>1.63</v>
       </c>
       <c r="AN78" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO78" t="n">
         <v>1.83</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR78" t="n">
         <v>1.6</v>
@@ -17696,16 +17696,16 @@
         <v>2</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO79" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.49</v>
@@ -17914,16 +17914,16 @@
         <v>1.62</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AR80" t="n">
         <v>1.17</v>
@@ -17935,10 +17935,10 @@
         <v>2.29</v>
       </c>
       <c r="AU80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW80" t="n">
         <v>6</v>
@@ -17947,19 +17947,19 @@
         <v>5</v>
       </c>
       <c r="AY80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA80" t="n">
         <v>10</v>
       </c>
       <c r="BB80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD80" t="n">
         <v>1.83</v>
@@ -17999,6 +17999,1096 @@
       </c>
       <c r="BP80" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6454135</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45235.41666666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6454140</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45235.41666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['15', '21']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6454139</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['4', '60']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['7', '66', '72', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6454136</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['19', '28', '43', '90']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6454138</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45236.625</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.29</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.57</v>
@@ -3753,7 +3753,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.57</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR28" t="n">
         <v>1.48</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.43</v>
@@ -9421,7 +9421,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR41" t="n">
         <v>2.07</v>
@@ -10511,7 +10511,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR46" t="n">
         <v>1.17</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.57</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR66" t="n">
         <v>1.45</v>
@@ -17266,7 +17266,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.57</v>
@@ -17705,7 +17705,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR79" t="n">
         <v>1.49</v>
@@ -19088,6 +19088,224 @@
         <v>2.93</v>
       </c>
       <c r="BP85" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6454146</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45240.625</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP86" t="n">
         <v>1.33</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.57</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.75</v>
@@ -1791,7 +1791,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.43</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.43</v>
@@ -2881,7 +2881,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.75</v>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.57</v>
@@ -5061,7 +5061,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.86</v>
@@ -5497,7 +5497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.43</v>
@@ -5933,7 +5933,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6369,7 +6369,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.43</v>
@@ -7459,7 +7459,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.43</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.57</v>
@@ -8985,7 +8985,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9203,7 +9203,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.43</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.75</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -10944,10 +10944,10 @@
         <v>2.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11162,7 +11162,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.43</v>
@@ -11819,7 +11819,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.57</v>
@@ -12473,7 +12473,7 @@
         <v>2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.86</v>
@@ -13124,10 +13124,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13999,7 +13999,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR62" t="n">
         <v>1.65</v>
@@ -14432,10 +14432,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR64" t="n">
         <v>1.09</v>
@@ -14653,7 +14653,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,7 +14868,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.75</v>
@@ -15086,7 +15086,7 @@
         <v>2.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.43</v>
@@ -15522,7 +15522,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.57</v>
@@ -15961,7 +15961,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16179,7 +16179,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR72" t="n">
         <v>1.12</v>
@@ -16394,7 +16394,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.86</v>
@@ -16612,10 +16612,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -16830,10 +16830,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17048,10 +17048,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17487,7 +17487,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR78" t="n">
         <v>1.6</v>
@@ -17702,7 +17702,7 @@
         <v>0.83</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.75</v>
@@ -19307,6 +19307,1096 @@
       </c>
       <c r="BP86" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6454143</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45242.33333333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6454145</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45242.41666666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X88" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6454142</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['55', '90+4']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6454144</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['57', '62']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6454141</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['46', '77']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X91" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.43</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.43</v>
@@ -7241,7 +7241,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR31" t="n">
         <v>1.84</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.57</v>
@@ -8767,7 +8767,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR50" t="n">
         <v>1.22</v>
@@ -13342,7 +13342,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.13</v>
@@ -15304,7 +15304,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.43</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR81" t="n">
         <v>1.7</v>
@@ -18792,7 +18792,7 @@
         <v>1.67</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.86</v>
@@ -20397,6 +20397,224 @@
       </c>
       <c r="BP91" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6454147</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45254.625</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -20551,22 +20551,22 @@
         <v>2.17</v>
       </c>
       <c r="AU92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX92" t="n">
         <v>3</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>5</v>
       </c>
       <c r="AY92" t="n">
         <v>8</v>
       </c>
       <c r="AZ92" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA92" t="n">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.88</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.75</v>
@@ -3099,7 +3099,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.86</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.38</v>
@@ -5930,7 +5930,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.75</v>
@@ -6151,7 +6151,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR26" t="n">
         <v>0.75</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -6805,7 +6805,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7023,7 +7023,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.5</v>
@@ -8113,7 +8113,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.86</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.38</v>
@@ -9857,7 +9857,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.86</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR45" t="n">
         <v>1.58</v>
@@ -10947,7 +10947,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11380,7 +11380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.63</v>
@@ -11601,7 +11601,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR51" t="n">
         <v>1.84</v>
@@ -12034,10 +12034,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12255,7 +12255,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -12906,7 +12906,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.43</v>
@@ -13345,7 +13345,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13560,10 +13560,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -14214,10 +14214,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.68</v>
@@ -15089,7 +15089,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR67" t="n">
         <v>1.62</v>
@@ -15740,10 +15740,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15958,7 +15958,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.38</v>
@@ -16176,10 +16176,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR72" t="n">
         <v>1.12</v>
@@ -17269,7 +17269,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR77" t="n">
         <v>1.66</v>
@@ -17920,10 +17920,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.17</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.63</v>
@@ -18356,7 +18356,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.43</v>
@@ -18574,10 +18574,10 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR83" t="n">
         <v>1.14</v>
@@ -19013,7 +19013,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR85" t="n">
         <v>1.55</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR87" t="n">
         <v>2.08</v>
@@ -20551,22 +20551,22 @@
         <v>2.17</v>
       </c>
       <c r="AU92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY92" t="n">
         <v>8</v>
       </c>
       <c r="AZ92" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA92" t="n">
         <v>2</v>
@@ -20615,6 +20615,878 @@
       </c>
       <c r="BP92" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6454150</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['51', '90+2']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6454148</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45256.41666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X94" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6454152</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X95" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6454149</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['67', '84', '90+5']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['6', '43', '89']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -20987,13 +20987,13 @@
         <v>3.1</v>
       </c>
       <c r="AU94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW94" t="n">
         <v>3</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>4</v>
       </c>
       <c r="AX94" t="n">
         <v>3</v>
@@ -21002,7 +21002,7 @@
         <v>11</v>
       </c>
       <c r="AZ94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA94" t="n">
         <v>4</v>
@@ -21205,19 +21205,19 @@
         <v>2.31</v>
       </c>
       <c r="AU95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX95" t="n">
         <v>4</v>
       </c>
-      <c r="AW95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>5</v>
-      </c>
       <c r="AY95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
         <v>9</v>
@@ -21426,19 +21426,19 @@
         <v>9</v>
       </c>
       <c r="AV96" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW96" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AX96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY96" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ96" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA96" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.63</v>
@@ -4189,7 +4189,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.38</v>
@@ -8331,7 +8331,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.75</v>
@@ -10075,7 +10075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.5</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.98</v>
@@ -13996,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.88</v>
@@ -16397,7 +16397,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -17266,7 +17266,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.75</v>
@@ -18795,7 +18795,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.13</v>
@@ -19228,7 +19228,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.75</v>
@@ -20987,13 +20987,13 @@
         <v>3.1</v>
       </c>
       <c r="AU94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX94" t="n">
         <v>3</v>
@@ -21002,7 +21002,7 @@
         <v>11</v>
       </c>
       <c r="AZ94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA94" t="n">
         <v>4</v>
@@ -21205,19 +21205,19 @@
         <v>2.31</v>
       </c>
       <c r="AU95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX95" t="n">
         <v>5</v>
       </c>
-      <c r="AV95" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>4</v>
-      </c>
       <c r="AY95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ95" t="n">
         <v>9</v>
@@ -21426,19 +21426,19 @@
         <v>9</v>
       </c>
       <c r="AV96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW96" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AX96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY96" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ96" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA96" t="n">
         <v>10</v>
@@ -21487,6 +21487,224 @@
       </c>
       <c r="BP96" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6454151</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45257.625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['19', '51', '65', '73']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3" t="n">
         <v>2.13</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.75</v>
@@ -2663,7 +2663,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.75</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3535,7 +3535,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.75</v>
@@ -3971,7 +3971,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.75</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.88</v>
@@ -5715,7 +5715,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -5933,7 +5933,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR25" t="n">
         <v>1.76</v>
@@ -6369,7 +6369,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7241,7 +7241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>1.84</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.5</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>1.4</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9203,7 +9203,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR40" t="n">
         <v>1.65</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.75</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.5</v>
@@ -9857,7 +9857,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -11162,10 +11162,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.22</v>
@@ -11598,7 +11598,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.13</v>
@@ -12034,10 +12034,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12473,7 +12473,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.62</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ56" t="n">
         <v>2</v>
@@ -12906,10 +12906,10 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR57" t="n">
         <v>1.05</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13563,7 +13563,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.88</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.09</v>
@@ -14650,7 +14650,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.5</v>
@@ -15307,7 +15307,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR68" t="n">
         <v>1.18</v>
@@ -15522,10 +15522,10 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -15740,10 +15740,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15961,7 +15961,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16176,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72" t="n">
         <v>2</v>
@@ -16394,7 +16394,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ73" t="n">
         <v>2</v>
@@ -16830,10 +16830,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17484,10 +17484,10 @@
         <v>1.83</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.6</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.75</v>
@@ -18141,7 +18141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.7</v>
@@ -18359,7 +18359,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.63</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.13</v>
@@ -19010,10 +19010,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR85" t="n">
         <v>1.55</v>
@@ -19446,7 +19446,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87" t="n">
         <v>2</v>
@@ -19885,7 +19885,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR89" t="n">
         <v>1.62</v>
@@ -20100,10 +20100,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR90" t="n">
         <v>1.3</v>
@@ -20539,7 +20539,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR92" t="n">
         <v>1.07</v>
@@ -20975,7 +20975,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR94" t="n">
         <v>1.76</v>
@@ -21190,7 +21190,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.75</v>
@@ -21408,7 +21408,7 @@
         <v>2.13</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -21705,6 +21705,1096 @@
       </c>
       <c r="BP97" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6454156</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45261.625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X98" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6454158</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45263.41666666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X99" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6454155</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45263.41666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['4', '74']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6454153</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['9', '40', '45+3', '88']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6454157</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['8', '34']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.67</v>
@@ -2009,7 +2009,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.25</v>
@@ -4625,7 +4625,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -7459,7 +7459,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -9639,7 +9639,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.56</v>
@@ -11819,7 +11819,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.75</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,7 +14868,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.75</v>
@@ -16612,7 +16612,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.88</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -19882,7 +19882,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -20321,7 +20321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR91" t="n">
         <v>1.44</v>
@@ -22731,22 +22731,22 @@
         <v>3.32</v>
       </c>
       <c r="AU102" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX102" t="n">
         <v>2</v>
       </c>
       <c r="AY102" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA102" t="n">
         <v>6</v>
@@ -22795,6 +22795,224 @@
       </c>
       <c r="BP102" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6454154</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45264.625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>6</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['45+4', '45+9', '54', '66', '84']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.88</v>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5930,7 +5930,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.67</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.67</v>
@@ -8113,7 +8113,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR35" t="n">
         <v>1.18</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
         <v>2</v>
@@ -12255,7 +12255,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -13560,7 +13560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.56</v>
@@ -14217,7 +14217,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR63" t="n">
         <v>1.68</v>
@@ -15958,7 +15958,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.33</v>
@@ -17269,7 +17269,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR77" t="n">
         <v>1.66</v>
@@ -17923,7 +17923,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR80" t="n">
         <v>1.17</v>
@@ -18356,7 +18356,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.25</v>
@@ -20754,7 +20754,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>2.13</v>
@@ -21193,7 +21193,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR95" t="n">
         <v>1.21</v>
@@ -23013,6 +23013,224 @@
       </c>
       <c r="BP103" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6454164</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45338.625</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['11', '34']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X104" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.67</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.22</v>
@@ -2663,7 +2663,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR10" t="n">
         <v>1.97</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.67</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>1.62</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.5</v>
@@ -4189,7 +4189,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR17" t="n">
         <v>1.42</v>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.95</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.78</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.89</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR21" t="n">
         <v>1.62</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR22" t="n">
         <v>1.44</v>
@@ -5497,7 +5497,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR23" t="n">
         <v>1.63</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24" t="n">
         <v>2.02</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.22</v>
@@ -6369,7 +6369,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR27" t="n">
         <v>1.97</v>
@@ -6805,7 +6805,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.91</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.5</v>
@@ -7456,10 +7456,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR33" t="n">
         <v>1.92</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR34" t="n">
         <v>2.06</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.89</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR36" t="n">
         <v>1.72</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.67</v>
@@ -8985,7 +8985,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.37</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.97</v>
@@ -10075,7 +10075,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.82</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10726,10 +10726,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR47" t="n">
         <v>1.18</v>
@@ -10944,10 +10944,10 @@
         <v>2.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11162,10 +11162,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11819,7 +11819,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR52" t="n">
         <v>1.66</v>
@@ -12034,7 +12034,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.5</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR56" t="n">
         <v>1.98</v>
@@ -12906,10 +12906,10 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>1.11</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1.25</v>
       </c>
       <c r="AR57" t="n">
         <v>1.05</v>
@@ -13124,10 +13124,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.18</v>
@@ -13342,10 +13342,10 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.17</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR61" t="n">
         <v>1.21</v>
@@ -13999,7 +13999,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR62" t="n">
         <v>1.65</v>
@@ -14432,7 +14432,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.67</v>
@@ -14653,7 +14653,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15086,7 +15086,7 @@
         <v>2.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.22</v>
@@ -15304,10 +15304,10 @@
         <v>1.4</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR68" t="n">
         <v>1.18</v>
@@ -15522,7 +15522,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.67</v>
@@ -15961,7 +15961,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.69</v>
@@ -16176,10 +16176,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.12</v>
@@ -16394,10 +16394,10 @@
         <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -16830,7 +16830,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.67</v>
@@ -17048,10 +17048,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17487,7 +17487,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.6</v>
@@ -17702,7 +17702,7 @@
         <v>0.83</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR82" t="n">
         <v>1.63</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.22</v>
@@ -18792,10 +18792,10 @@
         <v>1.67</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR84" t="n">
         <v>1.13</v>
@@ -19446,10 +19446,10 @@
         <v>2.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR87" t="n">
         <v>2.08</v>
@@ -19664,10 +19664,10 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88" t="n">
         <v>1.2</v>
@@ -19885,7 +19885,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.62</v>
@@ -20100,7 +20100,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.67</v>
@@ -20318,10 +20318,10 @@
         <v>0.57</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR91" t="n">
         <v>1.44</v>
@@ -20536,7 +20536,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.67</v>
@@ -21190,7 +21190,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.89</v>
@@ -21411,7 +21411,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.24</v>
@@ -21629,7 +21629,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR97" t="n">
         <v>1.58</v>
@@ -21844,7 +21844,7 @@
         <v>0.63</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.67</v>
@@ -22062,10 +22062,10 @@
         <v>1.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.38</v>
@@ -22283,7 +22283,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR100" t="n">
         <v>1.44</v>
@@ -22716,7 +22716,7 @@
         <v>1.38</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.5</v>
@@ -22937,7 +22937,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR103" t="n">
         <v>1.56</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR106" t="n">
         <v>1.73</v>
@@ -24027,7 +24027,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR108" t="n">
         <v>1.57</v>
@@ -24242,7 +24242,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.5</v>
@@ -24321,6 +24321,1314 @@
       </c>
       <c r="BP109" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6454169</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45345.625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6454170</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['43', '80']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X111" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6454167</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['68', '83']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['75', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X112" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6454168</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45347.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['7', '11', '77']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6454165</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>5</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['9', '76']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['45+4', '48', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X114" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6454166</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45348.625</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['30', '59']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['2', '25', '78']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -731,6 +734,9 @@
   </si>
   <si>
     <t>['55', '67', '80', '83']</t>
+  </si>
+  <si>
+    <t>['18', '69']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1563,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1969,7 +1975,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2381,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2587,7 +2593,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2793,7 +2799,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3205,7 +3211,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3411,7 +3417,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3617,7 +3623,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3698,7 +3704,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -3823,7 +3829,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4235,7 +4241,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4313,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4441,7 +4447,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4647,7 +4653,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4853,7 +4859,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5059,7 +5065,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5265,7 +5271,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>4.3</v>
@@ -5346,7 +5352,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
         <v>1.62</v>
@@ -5471,7 +5477,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3.8</v>
@@ -5883,7 +5889,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6295,7 +6301,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6373,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6582,7 +6588,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6913,7 +6919,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7119,7 +7125,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7737,7 +7743,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8149,7 +8155,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8227,7 +8233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8561,7 +8567,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8767,7 +8773,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8973,7 +8979,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>4.5</v>
@@ -9054,7 +9060,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
         <v>1.37</v>
@@ -10003,7 +10009,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10209,7 +10215,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10415,7 +10421,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10621,7 +10627,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10699,7 +10705,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ47">
         <v>0.7</v>
@@ -10827,7 +10833,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11033,7 +11039,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11445,7 +11451,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11857,7 +11863,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12063,7 +12069,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12475,7 +12481,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12968,7 +12974,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13093,7 +13099,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13171,7 +13177,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ59">
         <v>2.1</v>
@@ -13299,7 +13305,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13505,7 +13511,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13917,7 +13923,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14123,7 +14129,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14535,7 +14541,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14741,7 +14747,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14947,7 +14953,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15025,7 +15031,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15359,7 +15365,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15565,7 +15571,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15646,7 +15652,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -15771,7 +15777,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15977,7 +15983,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16595,7 +16601,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17088,7 +17094,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17419,7 +17425,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17831,7 +17837,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>3.25</v>
@@ -18037,7 +18043,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18243,7 +18249,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18321,7 +18327,7 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ84">
         <v>1.9</v>
@@ -18449,7 +18455,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19354,7 +19360,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ89">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -19479,7 +19485,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19891,7 +19897,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -19969,7 +19975,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ92">
         <v>0.7</v>
@@ -20097,7 +20103,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20715,7 +20721,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20921,7 +20927,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21333,7 +21339,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21414,7 +21420,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ99">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR99">
         <v>1.38</v>
@@ -21951,7 +21957,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22157,7 +22163,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22363,7 +22369,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22569,7 +22575,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22647,7 +22653,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ105">
         <v>0.9</v>
@@ -22775,7 +22781,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22981,7 +22987,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -24011,7 +24017,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>4.33</v>
@@ -24089,7 +24095,7 @@
         <v>0.44</v>
       </c>
       <c r="AP112">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ112">
         <v>0.5</v>
@@ -24217,7 +24223,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24423,7 +24429,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24710,7 +24716,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25247,7 +25253,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -25659,7 +25665,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26022,6 +26028,212 @@
       </c>
       <c r="BP121">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>6454178</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>173</v>
+      </c>
+      <c r="P122" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q122">
+        <v>7</v>
+      </c>
+      <c r="R122">
+        <v>2.6</v>
+      </c>
+      <c r="S122">
+        <v>1.83</v>
+      </c>
+      <c r="T122">
+        <v>1.29</v>
+      </c>
+      <c r="U122">
+        <v>3.5</v>
+      </c>
+      <c r="V122">
+        <v>2.25</v>
+      </c>
+      <c r="W122">
+        <v>1.57</v>
+      </c>
+      <c r="X122">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.14</v>
+      </c>
+      <c r="Z122">
+        <v>6.5</v>
+      </c>
+      <c r="AA122">
+        <v>4.6</v>
+      </c>
+      <c r="AB122">
+        <v>1.36</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>19.25</v>
+      </c>
+      <c r="AE122">
+        <v>1.19</v>
+      </c>
+      <c r="AF122">
+        <v>4.83</v>
+      </c>
+      <c r="AG122">
+        <v>1.6</v>
+      </c>
+      <c r="AH122">
+        <v>2.2</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.95</v>
+      </c>
+      <c r="AK122">
+        <v>3</v>
+      </c>
+      <c r="AL122">
+        <v>1.17</v>
+      </c>
+      <c r="AM122">
+        <v>1.11</v>
+      </c>
+      <c r="AN122">
+        <v>0.2</v>
+      </c>
+      <c r="AO122">
+        <v>1.2</v>
+      </c>
+      <c r="AP122">
+        <v>0.18</v>
+      </c>
+      <c r="AQ122">
+        <v>1.36</v>
+      </c>
+      <c r="AR122">
+        <v>1.09</v>
+      </c>
+      <c r="AS122">
+        <v>1.51</v>
+      </c>
+      <c r="AT122">
+        <v>2.6</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>6</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>4.56</v>
+      </c>
+      <c r="BE122">
+        <v>10</v>
+      </c>
+      <c r="BF122">
+        <v>1.3</v>
+      </c>
+      <c r="BG122">
+        <v>1.25</v>
+      </c>
+      <c r="BH122">
+        <v>3.5</v>
+      </c>
+      <c r="BI122">
+        <v>1.46</v>
+      </c>
+      <c r="BJ122">
+        <v>2.55</v>
+      </c>
+      <c r="BK122">
+        <v>1.85</v>
+      </c>
+      <c r="BL122">
+        <v>1.95</v>
+      </c>
+      <c r="BM122">
+        <v>2.25</v>
+      </c>
+      <c r="BN122">
+        <v>1.59</v>
+      </c>
+      <c r="BO122">
+        <v>3.05</v>
+      </c>
+      <c r="BP122">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['39', '41', '45+2', '67']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -679,9 +685,6 @@
     <t>['14', '87']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['7', '66', '72', '90+6']</t>
   </si>
   <si>
@@ -737,6 +740,15 @@
   </si>
   <si>
     <t>['18', '69']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['34', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1575,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1975,7 +1987,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2259,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2387,7 +2399,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2593,7 +2605,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2671,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,7 +2811,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2877,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3211,7 +3223,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3417,7 +3429,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3498,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3623,7 +3635,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3829,7 +3841,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3907,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14">
         <v>0.7</v>
@@ -4113,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.9</v>
@@ -4241,7 +4253,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4322,7 +4334,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4447,7 +4459,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4653,7 +4665,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4734,7 +4746,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -4859,7 +4871,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5065,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5143,10 +5155,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -5271,7 +5283,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>4.3</v>
@@ -5477,7 +5489,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>3.8</v>
@@ -5555,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ22">
         <v>1.9</v>
@@ -5764,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -5889,7 +5901,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6173,7 +6185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
         <v>0.9</v>
@@ -6301,7 +6313,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6585,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6919,7 +6931,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7000,7 +7012,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ29">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7125,7 +7137,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7206,7 +7218,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7409,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
         <v>0.7</v>
@@ -7743,7 +7755,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7821,7 +7833,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8030,7 +8042,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8155,7 +8167,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8236,7 +8248,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8567,7 +8579,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8645,10 +8657,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ37">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8773,7 +8785,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8979,7 +8991,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>4.5</v>
@@ -9263,7 +9275,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>0.9</v>
@@ -9675,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9884,7 +9896,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10009,7 +10021,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10087,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ44">
         <v>1.9</v>
@@ -10215,7 +10227,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10421,7 +10433,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10499,7 +10511,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ46">
         <v>0.9</v>
@@ -10627,7 +10639,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10708,7 +10720,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ47">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10833,7 +10845,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10914,7 +10926,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11039,7 +11051,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11451,7 +11463,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11735,7 +11747,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11863,7 +11875,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11944,7 +11956,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12069,7 +12081,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12150,7 +12162,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12481,7 +12493,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12559,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.9</v>
@@ -12971,7 +12983,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ58">
         <v>1.36</v>
@@ -13099,7 +13111,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13180,7 +13192,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ59">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13305,7 +13317,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13383,10 +13395,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13511,7 +13523,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13592,7 +13604,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ61">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -13795,10 +13807,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -13923,7 +13935,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14004,7 +14016,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14129,7 +14141,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14207,7 +14219,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ64">
         <v>0.9</v>
@@ -14541,7 +14553,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14747,7 +14759,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14953,7 +14965,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15237,7 +15249,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.7</v>
@@ -15365,7 +15377,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15446,7 +15458,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15571,7 +15583,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15649,7 +15661,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
         <v>1.36</v>
@@ -15777,7 +15789,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15858,7 +15870,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ72">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -15983,7 +15995,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16270,7 +16282,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ74">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16473,7 +16485,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -16601,7 +16613,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16679,7 +16691,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16885,10 +16897,10 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ77">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17425,7 +17437,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17506,7 +17518,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -17837,7 +17849,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="Q82">
         <v>3.25</v>
@@ -17915,7 +17927,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18043,7 +18055,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18249,7 +18261,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18455,7 +18467,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18536,7 +18548,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -18739,7 +18751,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86">
         <v>0.9</v>
@@ -18945,10 +18957,10 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19151,10 +19163,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19485,7 +19497,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19897,7 +19909,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20103,7 +20115,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20181,7 +20193,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20390,7 +20402,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20596,7 +20608,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ95">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20721,7 +20733,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20802,7 +20814,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -20927,7 +20939,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21005,7 +21017,7 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ97">
         <v>1.9</v>
@@ -21339,7 +21351,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21957,7 +21969,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22035,10 +22047,10 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22163,7 +22175,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22369,7 +22381,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22447,10 +22459,10 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22575,7 +22587,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22781,7 +22793,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22862,7 +22874,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ106">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -22987,7 +22999,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23065,7 +23077,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ107">
         <v>2</v>
@@ -23477,10 +23489,10 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -23686,7 +23698,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ110">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -23889,7 +23901,7 @@
         <v>1.25</v>
       </c>
       <c r="AP111">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24017,7 +24029,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>4.33</v>
@@ -24223,7 +24235,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24304,7 +24316,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ113">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24429,7 +24441,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24713,7 +24725,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.36</v>
@@ -25125,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
         <v>0.9</v>
@@ -25253,7 +25265,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -25665,7 +25677,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25746,7 +25758,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26077,7 +26089,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26234,6 +26246,830 @@
       </c>
       <c r="BP122">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>6454179</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>96</v>
+      </c>
+      <c r="P123" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q123">
+        <v>3.25</v>
+      </c>
+      <c r="R123">
+        <v>2.1</v>
+      </c>
+      <c r="S123">
+        <v>3.25</v>
+      </c>
+      <c r="T123">
+        <v>1.44</v>
+      </c>
+      <c r="U123">
+        <v>2.63</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>1.07</v>
+      </c>
+      <c r="Z123">
+        <v>2.5</v>
+      </c>
+      <c r="AA123">
+        <v>3.35</v>
+      </c>
+      <c r="AB123">
+        <v>2.7</v>
+      </c>
+      <c r="AC123">
+        <v>1.06</v>
+      </c>
+      <c r="AD123">
+        <v>8</v>
+      </c>
+      <c r="AE123">
+        <v>1.3</v>
+      </c>
+      <c r="AF123">
+        <v>3.4</v>
+      </c>
+      <c r="AG123">
+        <v>2.05</v>
+      </c>
+      <c r="AH123">
+        <v>1.81</v>
+      </c>
+      <c r="AI123">
+        <v>1.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.44</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.5</v>
+      </c>
+      <c r="AN123">
+        <v>1.7</v>
+      </c>
+      <c r="AO123">
+        <v>1.5</v>
+      </c>
+      <c r="AP123">
+        <v>1.55</v>
+      </c>
+      <c r="AQ123">
+        <v>1.64</v>
+      </c>
+      <c r="AR123">
+        <v>1.46</v>
+      </c>
+      <c r="AS123">
+        <v>1.23</v>
+      </c>
+      <c r="AT123">
+        <v>2.69</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>2</v>
+      </c>
+      <c r="BA123">
+        <v>1</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>6</v>
+      </c>
+      <c r="BD123">
+        <v>2.05</v>
+      </c>
+      <c r="BE123">
+        <v>7.5</v>
+      </c>
+      <c r="BF123">
+        <v>2</v>
+      </c>
+      <c r="BG123">
+        <v>1.24</v>
+      </c>
+      <c r="BH123">
+        <v>3.55</v>
+      </c>
+      <c r="BI123">
+        <v>1.82</v>
+      </c>
+      <c r="BJ123">
+        <v>1.98</v>
+      </c>
+      <c r="BK123">
+        <v>1.77</v>
+      </c>
+      <c r="BL123">
+        <v>1.91</v>
+      </c>
+      <c r="BM123">
+        <v>2.28</v>
+      </c>
+      <c r="BN123">
+        <v>1.55</v>
+      </c>
+      <c r="BO123">
+        <v>3</v>
+      </c>
+      <c r="BP123">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>6454182</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>96</v>
+      </c>
+      <c r="P124" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q124">
+        <v>3.25</v>
+      </c>
+      <c r="R124">
+        <v>2.1</v>
+      </c>
+      <c r="S124">
+        <v>3.4</v>
+      </c>
+      <c r="T124">
+        <v>1.44</v>
+      </c>
+      <c r="U124">
+        <v>2.63</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>9</v>
+      </c>
+      <c r="Y124">
+        <v>1.07</v>
+      </c>
+      <c r="Z124">
+        <v>2.6</v>
+      </c>
+      <c r="AA124">
+        <v>3.2</v>
+      </c>
+      <c r="AB124">
+        <v>2.7</v>
+      </c>
+      <c r="AC124">
+        <v>1.06</v>
+      </c>
+      <c r="AD124">
+        <v>8.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.35</v>
+      </c>
+      <c r="AF124">
+        <v>3.1</v>
+      </c>
+      <c r="AG124">
+        <v>2.06</v>
+      </c>
+      <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
+        <v>1.8</v>
+      </c>
+      <c r="AJ124">
+        <v>1.95</v>
+      </c>
+      <c r="AK124">
+        <v>1.47</v>
+      </c>
+      <c r="AL124">
+        <v>1.37</v>
+      </c>
+      <c r="AM124">
+        <v>1.49</v>
+      </c>
+      <c r="AN124">
+        <v>1.2</v>
+      </c>
+      <c r="AO124">
+        <v>1.8</v>
+      </c>
+      <c r="AP124">
+        <v>1.09</v>
+      </c>
+      <c r="AQ124">
+        <v>1.91</v>
+      </c>
+      <c r="AR124">
+        <v>1.27</v>
+      </c>
+      <c r="AS124">
+        <v>1.16</v>
+      </c>
+      <c r="AT124">
+        <v>2.43</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>1</v>
+      </c>
+      <c r="AX124">
+        <v>6</v>
+      </c>
+      <c r="AY124">
+        <v>5</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
+        <v>2</v>
+      </c>
+      <c r="BB124">
+        <v>11</v>
+      </c>
+      <c r="BC124">
+        <v>13</v>
+      </c>
+      <c r="BD124">
+        <v>2.2</v>
+      </c>
+      <c r="BE124">
+        <v>8</v>
+      </c>
+      <c r="BF124">
+        <v>1.91</v>
+      </c>
+      <c r="BG124">
+        <v>1.22</v>
+      </c>
+      <c r="BH124">
+        <v>3.75</v>
+      </c>
+      <c r="BI124">
+        <v>1.42</v>
+      </c>
+      <c r="BJ124">
+        <v>2.63</v>
+      </c>
+      <c r="BK124">
+        <v>1.72</v>
+      </c>
+      <c r="BL124">
+        <v>1.98</v>
+      </c>
+      <c r="BM124">
+        <v>2.18</v>
+      </c>
+      <c r="BN124">
+        <v>1.6</v>
+      </c>
+      <c r="BO124">
+        <v>2.88</v>
+      </c>
+      <c r="BP124">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>6454177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>80</v>
+      </c>
+      <c r="H125" t="s">
+        <v>71</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>174</v>
+      </c>
+      <c r="P125" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q125">
+        <v>1.73</v>
+      </c>
+      <c r="R125">
+        <v>2.63</v>
+      </c>
+      <c r="S125">
+        <v>8</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
+        <v>2.25</v>
+      </c>
+      <c r="W125">
+        <v>1.57</v>
+      </c>
+      <c r="X125">
+        <v>5.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>1.27</v>
+      </c>
+      <c r="AA125">
+        <v>5.6</v>
+      </c>
+      <c r="AB125">
+        <v>9.6</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>12</v>
+      </c>
+      <c r="AE125">
+        <v>1.17</v>
+      </c>
+      <c r="AF125">
+        <v>4.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.55</v>
+      </c>
+      <c r="AH125">
+        <v>2.15</v>
+      </c>
+      <c r="AI125">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.03</v>
+      </c>
+      <c r="AL125">
+        <v>1.14</v>
+      </c>
+      <c r="AM125">
+        <v>3.6</v>
+      </c>
+      <c r="AN125">
+        <v>1.9</v>
+      </c>
+      <c r="AO125">
+        <v>0.7</v>
+      </c>
+      <c r="AP125">
+        <v>2</v>
+      </c>
+      <c r="AQ125">
+        <v>0.64</v>
+      </c>
+      <c r="AR125">
+        <v>2.05</v>
+      </c>
+      <c r="AS125">
+        <v>1.19</v>
+      </c>
+      <c r="AT125">
+        <v>3.24</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>17</v>
+      </c>
+      <c r="AZ125">
+        <v>4</v>
+      </c>
+      <c r="BA125">
+        <v>11</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>13</v>
+      </c>
+      <c r="BD125">
+        <v>1.23</v>
+      </c>
+      <c r="BE125">
+        <v>11</v>
+      </c>
+      <c r="BF125">
+        <v>4.89</v>
+      </c>
+      <c r="BG125">
+        <v>1.11</v>
+      </c>
+      <c r="BH125">
+        <v>5.15</v>
+      </c>
+      <c r="BI125">
+        <v>1.27</v>
+      </c>
+      <c r="BJ125">
+        <v>3.35</v>
+      </c>
+      <c r="BK125">
+        <v>1.48</v>
+      </c>
+      <c r="BL125">
+        <v>2.45</v>
+      </c>
+      <c r="BM125">
+        <v>1.85</v>
+      </c>
+      <c r="BN125">
+        <v>1.95</v>
+      </c>
+      <c r="BO125">
+        <v>2.28</v>
+      </c>
+      <c r="BP125">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>6454180</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>175</v>
+      </c>
+      <c r="P126" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>2.2</v>
+      </c>
+      <c r="S126">
+        <v>2.63</v>
+      </c>
+      <c r="T126">
+        <v>1.4</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>8</v>
+      </c>
+      <c r="Y126">
+        <v>1.08</v>
+      </c>
+      <c r="Z126">
+        <v>3.66</v>
+      </c>
+      <c r="AA126">
+        <v>3.55</v>
+      </c>
+      <c r="AB126">
+        <v>2</v>
+      </c>
+      <c r="AC126">
+        <v>1.06</v>
+      </c>
+      <c r="AD126">
+        <v>8</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.4</v>
+      </c>
+      <c r="AG126">
+        <v>1.85</v>
+      </c>
+      <c r="AH126">
+        <v>1.89</v>
+      </c>
+      <c r="AI126">
+        <v>1.75</v>
+      </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
+      <c r="AK126">
+        <v>1.77</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.2</v>
+      </c>
+      <c r="AN126">
+        <v>1.8</v>
+      </c>
+      <c r="AO126">
+        <v>2.1</v>
+      </c>
+      <c r="AP126">
+        <v>1.64</v>
+      </c>
+      <c r="AQ126">
+        <v>2.18</v>
+      </c>
+      <c r="AR126">
+        <v>1.5</v>
+      </c>
+      <c r="AS126">
+        <v>1.35</v>
+      </c>
+      <c r="AT126">
+        <v>2.85</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>7</v>
+      </c>
+      <c r="AZ126">
+        <v>6</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>7</v>
+      </c>
+      <c r="BC126">
+        <v>13</v>
+      </c>
+      <c r="BD126">
+        <v>2.2</v>
+      </c>
+      <c r="BE126">
+        <v>7.5</v>
+      </c>
+      <c r="BF126">
+        <v>1.91</v>
+      </c>
+      <c r="BG126">
+        <v>1.36</v>
+      </c>
+      <c r="BH126">
+        <v>2.85</v>
+      </c>
+      <c r="BI126">
+        <v>1.64</v>
+      </c>
+      <c r="BJ126">
+        <v>2.1</v>
+      </c>
+      <c r="BK126">
+        <v>2.08</v>
+      </c>
+      <c r="BL126">
+        <v>1.65</v>
+      </c>
+      <c r="BM126">
+        <v>2.75</v>
+      </c>
+      <c r="BN126">
+        <v>1.38</v>
+      </c>
+      <c r="BO126">
+        <v>3.85</v>
+      </c>
+      <c r="BP126">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1110,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
         <v>0.9</v>
@@ -4540,7 +4540,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5570,7 +5570,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -7627,7 +7627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -8454,7 +8454,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -10102,7 +10102,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -11953,7 +11953,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ53">
         <v>1.64</v>
@@ -12574,7 +12574,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -12777,7 +12777,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -15867,7 +15867,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ72">
         <v>2.18</v>
@@ -16076,7 +16076,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -18133,7 +18133,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ83">
         <v>2</v>
@@ -18342,7 +18342,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -20605,7 +20605,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
         <v>1.91</v>
@@ -21020,7 +21020,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21223,7 +21223,7 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>0.7</v>
@@ -23286,7 +23286,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23695,7 +23695,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ110">
         <v>0.64</v>
@@ -24522,7 +24522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -27069,6 +27069,212 @@
         <v>3.85</v>
       </c>
       <c r="BP126">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>6454181</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>96</v>
+      </c>
+      <c r="P127" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>2.63</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>3.75</v>
+      </c>
+      <c r="AA127">
+        <v>3.4</v>
+      </c>
+      <c r="AB127">
+        <v>1.91</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>12</v>
+      </c>
+      <c r="AE127">
+        <v>1.29</v>
+      </c>
+      <c r="AF127">
+        <v>3.65</v>
+      </c>
+      <c r="AG127">
+        <v>1.8</v>
+      </c>
+      <c r="AH127">
+        <v>1.91</v>
+      </c>
+      <c r="AI127">
+        <v>1.75</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1.78</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.3</v>
+      </c>
+      <c r="AN127">
+        <v>1.3</v>
+      </c>
+      <c r="AO127">
+        <v>1.9</v>
+      </c>
+      <c r="AP127">
+        <v>1.18</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>1.28</v>
+      </c>
+      <c r="AS127">
+        <v>1.52</v>
+      </c>
+      <c r="AT127">
+        <v>2.8</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>9</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>9</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>1</v>
+      </c>
+      <c r="BC127">
+        <v>6</v>
+      </c>
+      <c r="BD127">
+        <v>2.62</v>
+      </c>
+      <c r="BE127">
+        <v>8</v>
+      </c>
+      <c r="BF127">
+        <v>1.69</v>
+      </c>
+      <c r="BG127">
+        <v>1.36</v>
+      </c>
+      <c r="BH127">
+        <v>2.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.65</v>
+      </c>
+      <c r="BJ127">
+        <v>2.08</v>
+      </c>
+      <c r="BK127">
+        <v>1.92</v>
+      </c>
+      <c r="BL127">
+        <v>1.88</v>
+      </c>
+      <c r="BM127">
+        <v>2.8</v>
+      </c>
+      <c r="BN127">
+        <v>1.37</v>
+      </c>
+      <c r="BO127">
+        <v>3.85</v>
+      </c>
+      <c r="BP127">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,18 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['43', '50']</t>
+  </si>
+  <si>
+    <t>['33', '41', '58', '71']</t>
+  </si>
+  <si>
+    <t>['67', '76', '90+6']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -749,6 +761,9 @@
   </si>
   <si>
     <t>['34', '90+3']</t>
+  </si>
+  <si>
+    <t>['23', '65']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1575,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1653,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1859,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1987,7 +2002,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2065,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ5">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2399,7 +2414,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2477,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2605,7 +2620,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2811,7 +2826,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2892,7 +2907,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3095,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3223,7 +3238,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3304,7 +3319,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3429,7 +3444,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3507,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ12">
         <v>1.91</v>
@@ -3635,7 +3650,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3713,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13">
         <v>1.36</v>
@@ -3841,7 +3856,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3922,7 +3937,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ14">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR14">
         <v>2.35</v>
@@ -4128,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4253,7 +4268,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4459,7 +4474,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4537,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4665,7 +4680,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4743,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2.18</v>
@@ -4871,7 +4886,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -4949,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -5077,7 +5092,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5283,7 +5298,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>4.3</v>
@@ -5489,7 +5504,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3.8</v>
@@ -5773,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ23">
         <v>0.64</v>
@@ -5901,7 +5916,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -5979,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6188,7 +6203,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6313,7 +6328,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6394,7 +6409,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -6803,10 +6818,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -6931,7 +6946,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7009,7 +7024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ29">
         <v>2.18</v>
@@ -7137,7 +7152,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7215,7 +7230,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ30">
         <v>1.64</v>
@@ -7424,7 +7439,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7630,7 +7645,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7755,7 +7770,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7836,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8039,7 +8054,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ34">
         <v>0.64</v>
@@ -8167,7 +8182,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8451,7 +8466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8579,7 +8594,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8785,7 +8800,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8863,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ38">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR38">
         <v>1.4</v>
@@ -8991,7 +9006,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>4.5</v>
@@ -9069,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
         <v>1.36</v>
@@ -9278,7 +9293,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR40">
         <v>1.65</v>
@@ -9481,10 +9496,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ41">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -9690,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -9893,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ43">
         <v>1.64</v>
@@ -10021,7 +10036,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10227,7 +10242,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10305,10 +10320,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10433,7 +10448,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10514,7 +10529,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ46">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10639,7 +10654,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10845,7 +10860,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10923,7 +10938,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ48">
         <v>2.18</v>
@@ -11051,7 +11066,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11129,10 +11144,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11335,10 +11350,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR50">
         <v>1.22</v>
@@ -11463,7 +11478,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11541,10 +11556,10 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -11750,7 +11765,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -11875,7 +11890,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12081,7 +12096,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12159,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ54">
         <v>1.91</v>
@@ -12365,10 +12380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12493,7 +12508,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12780,7 +12795,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13111,7 +13126,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13317,7 +13332,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13523,7 +13538,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13601,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ61">
         <v>0.64</v>
@@ -13935,7 +13950,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14013,7 +14028,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.91</v>
@@ -14141,7 +14156,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14222,7 +14237,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.09</v>
@@ -14425,10 +14440,10 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14553,7 +14568,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14631,10 +14646,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ66">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14759,7 +14774,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14837,10 +14852,10 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -14965,7 +14980,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15046,7 +15061,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15252,7 +15267,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15377,7 +15392,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15455,7 +15470,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15583,7 +15598,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15789,7 +15804,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15995,7 +16010,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16073,7 +16088,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16279,7 +16294,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ74">
         <v>0.64</v>
@@ -16488,7 +16503,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16613,7 +16628,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16694,7 +16709,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17103,7 +17118,7 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ78">
         <v>1.36</v>
@@ -17309,10 +17324,10 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17437,7 +17452,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17515,7 +17530,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80">
         <v>1.91</v>
@@ -17721,10 +17736,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -17930,7 +17945,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18055,7 +18070,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18136,7 +18151,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18261,7 +18276,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18467,7 +18482,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18545,7 +18560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ85">
         <v>1.64</v>
@@ -18754,7 +18769,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19369,7 +19384,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ89">
         <v>1.36</v>
@@ -19497,7 +19512,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19575,10 +19590,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19781,10 +19796,10 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -19909,7 +19924,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -19990,7 +20005,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ92">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20115,7 +20130,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20196,7 +20211,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20399,7 +20414,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.64</v>
@@ -20733,7 +20748,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20811,7 +20826,7 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
         <v>2.18</v>
@@ -20939,7 +20954,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21226,7 +21241,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21351,7 +21366,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21429,7 +21444,7 @@
         <v>1.38</v>
       </c>
       <c r="AP99">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ99">
         <v>1.36</v>
@@ -21635,10 +21650,10 @@
         <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR100">
         <v>1.44</v>
@@ -21841,10 +21856,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -21969,7 +21984,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22175,7 +22190,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22253,10 +22268,10 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22381,7 +22396,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22587,7 +22602,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22668,7 +22683,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ105">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -22793,7 +22808,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22871,7 +22886,7 @@
         <v>0.88</v>
       </c>
       <c r="AP106">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.64</v>
@@ -22999,7 +23014,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23080,7 +23095,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23283,7 +23298,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ108">
         <v>2</v>
@@ -23904,7 +23919,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24029,7 +24044,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>4.33</v>
@@ -24110,7 +24125,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR112">
         <v>1.09</v>
@@ -24235,7 +24250,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24313,7 +24328,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ113">
         <v>2.18</v>
@@ -24441,7 +24456,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24519,7 +24534,7 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ114">
         <v>2</v>
@@ -24931,10 +24946,10 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25140,7 +25155,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ117">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
         <v>1.53</v>
@@ -25265,7 +25280,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -25343,10 +25358,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ118">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR118">
         <v>1.44</v>
@@ -25549,10 +25564,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25677,7 +25692,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25755,7 +25770,7 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ120">
         <v>1.91</v>
@@ -25961,10 +25976,10 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26089,7 +26104,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26295,7 +26310,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26501,7 +26516,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26913,7 +26928,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27276,6 +27291,1242 @@
       </c>
       <c r="BP127">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6454187</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>176</v>
+      </c>
+      <c r="P128" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q128">
+        <v>3.25</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.2</v>
+      </c>
+      <c r="T128">
+        <v>1.36</v>
+      </c>
+      <c r="U128">
+        <v>3</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>7</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>2.5</v>
+      </c>
+      <c r="AA128">
+        <v>3.5</v>
+      </c>
+      <c r="AB128">
+        <v>2.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>13</v>
+      </c>
+      <c r="AE128">
+        <v>1.26</v>
+      </c>
+      <c r="AF128">
+        <v>3.9</v>
+      </c>
+      <c r="AG128">
+        <v>1.85</v>
+      </c>
+      <c r="AH128">
+        <v>2</v>
+      </c>
+      <c r="AI128">
+        <v>1.7</v>
+      </c>
+      <c r="AJ128">
+        <v>2.05</v>
+      </c>
+      <c r="AK128">
+        <v>1.53</v>
+      </c>
+      <c r="AL128">
+        <v>1.29</v>
+      </c>
+      <c r="AM128">
+        <v>1.53</v>
+      </c>
+      <c r="AN128">
+        <v>1.3</v>
+      </c>
+      <c r="AO128">
+        <v>0.5</v>
+      </c>
+      <c r="AP128">
+        <v>1.45</v>
+      </c>
+      <c r="AQ128">
+        <v>0.45</v>
+      </c>
+      <c r="AR128">
+        <v>1.39</v>
+      </c>
+      <c r="AS128">
+        <v>1.29</v>
+      </c>
+      <c r="AT128">
+        <v>2.68</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>9</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>12</v>
+      </c>
+      <c r="BD128">
+        <v>2.11</v>
+      </c>
+      <c r="BE128">
+        <v>9.1</v>
+      </c>
+      <c r="BF128">
+        <v>1.96</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.3</v>
+      </c>
+      <c r="BI128">
+        <v>1.33</v>
+      </c>
+      <c r="BJ128">
+        <v>2.93</v>
+      </c>
+      <c r="BK128">
+        <v>1.62</v>
+      </c>
+      <c r="BL128">
+        <v>2.24</v>
+      </c>
+      <c r="BM128">
+        <v>2.25</v>
+      </c>
+      <c r="BN128">
+        <v>1.59</v>
+      </c>
+      <c r="BO128">
+        <v>2.9</v>
+      </c>
+      <c r="BP128">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6454183</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>83</v>
+      </c>
+      <c r="P129" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q129">
+        <v>1.8</v>
+      </c>
+      <c r="R129">
+        <v>2.5</v>
+      </c>
+      <c r="S129">
+        <v>8.5</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3.25</v>
+      </c>
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>6.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.11</v>
+      </c>
+      <c r="Z129">
+        <v>1.36</v>
+      </c>
+      <c r="AA129">
+        <v>4.75</v>
+      </c>
+      <c r="AB129">
+        <v>7.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>10.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.22</v>
+      </c>
+      <c r="AF129">
+        <v>3.66</v>
+      </c>
+      <c r="AG129">
+        <v>1.88</v>
+      </c>
+      <c r="AH129">
+        <v>1.98</v>
+      </c>
+      <c r="AI129">
+        <v>2.2</v>
+      </c>
+      <c r="AJ129">
+        <v>1.62</v>
+      </c>
+      <c r="AK129">
+        <v>1.06</v>
+      </c>
+      <c r="AL129">
+        <v>1.12</v>
+      </c>
+      <c r="AM129">
+        <v>3.2</v>
+      </c>
+      <c r="AN129">
+        <v>1.5</v>
+      </c>
+      <c r="AO129">
+        <v>0.9</v>
+      </c>
+      <c r="AP129">
+        <v>1.64</v>
+      </c>
+      <c r="AQ129">
+        <v>0.82</v>
+      </c>
+      <c r="AR129">
+        <v>1.54</v>
+      </c>
+      <c r="AS129">
+        <v>1.04</v>
+      </c>
+      <c r="AT129">
+        <v>2.58</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.29</v>
+      </c>
+      <c r="BE129">
+        <v>10.75</v>
+      </c>
+      <c r="BF129">
+        <v>4.45</v>
+      </c>
+      <c r="BG129">
+        <v>1.25</v>
+      </c>
+      <c r="BH129">
+        <v>3.42</v>
+      </c>
+      <c r="BI129">
+        <v>1.52</v>
+      </c>
+      <c r="BJ129">
+        <v>2.49</v>
+      </c>
+      <c r="BK129">
+        <v>1.68</v>
+      </c>
+      <c r="BL129">
+        <v>2.05</v>
+      </c>
+      <c r="BM129">
+        <v>2.1</v>
+      </c>
+      <c r="BN129">
+        <v>1.67</v>
+      </c>
+      <c r="BO129">
+        <v>2.7</v>
+      </c>
+      <c r="BP129">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>6454184</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>177</v>
+      </c>
+      <c r="P130" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q130">
+        <v>2.1</v>
+      </c>
+      <c r="R130">
+        <v>2.38</v>
+      </c>
+      <c r="S130">
+        <v>5.5</v>
+      </c>
+      <c r="T130">
+        <v>1.33</v>
+      </c>
+      <c r="U130">
+        <v>3.25</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>6.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.11</v>
+      </c>
+      <c r="Z130">
+        <v>1.62</v>
+      </c>
+      <c r="AA130">
+        <v>3.8</v>
+      </c>
+      <c r="AB130">
+        <v>5.25</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.18</v>
+      </c>
+      <c r="AF130">
+        <v>4.2</v>
+      </c>
+      <c r="AG130">
+        <v>1.7</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.2</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>2.46</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>2.09</v>
+      </c>
+      <c r="AQ130">
+        <v>0.91</v>
+      </c>
+      <c r="AR130">
+        <v>1.57</v>
+      </c>
+      <c r="AS130">
+        <v>1.2</v>
+      </c>
+      <c r="AT130">
+        <v>2.77</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>3</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>1.49</v>
+      </c>
+      <c r="BE130">
+        <v>9.6</v>
+      </c>
+      <c r="BF130">
+        <v>3.14</v>
+      </c>
+      <c r="BG130">
+        <v>1.2</v>
+      </c>
+      <c r="BH130">
+        <v>3.84</v>
+      </c>
+      <c r="BI130">
+        <v>1.41</v>
+      </c>
+      <c r="BJ130">
+        <v>2.69</v>
+      </c>
+      <c r="BK130">
+        <v>1.75</v>
+      </c>
+      <c r="BL130">
+        <v>1.98</v>
+      </c>
+      <c r="BM130">
+        <v>2.2</v>
+      </c>
+      <c r="BN130">
+        <v>1.61</v>
+      </c>
+      <c r="BO130">
+        <v>2.85</v>
+      </c>
+      <c r="BP130">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>6454185</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>178</v>
+      </c>
+      <c r="P131" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>2.38</v>
+      </c>
+      <c r="S131">
+        <v>6.5</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>1.36</v>
+      </c>
+      <c r="AA131">
+        <v>4.75</v>
+      </c>
+      <c r="AB131">
+        <v>7.5</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>10.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.2</v>
+      </c>
+      <c r="AF131">
+        <v>3.9</v>
+      </c>
+      <c r="AG131">
+        <v>1.65</v>
+      </c>
+      <c r="AH131">
+        <v>2.1</v>
+      </c>
+      <c r="AI131">
+        <v>1.95</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.05</v>
+      </c>
+      <c r="AL131">
+        <v>1.13</v>
+      </c>
+      <c r="AM131">
+        <v>2.65</v>
+      </c>
+      <c r="AN131">
+        <v>2.3</v>
+      </c>
+      <c r="AO131">
+        <v>0.7</v>
+      </c>
+      <c r="AP131">
+        <v>2.36</v>
+      </c>
+      <c r="AQ131">
+        <v>0.64</v>
+      </c>
+      <c r="AR131">
+        <v>1.61</v>
+      </c>
+      <c r="AS131">
+        <v>1.14</v>
+      </c>
+      <c r="AT131">
+        <v>2.75</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>15</v>
+      </c>
+      <c r="AZ131">
+        <v>5</v>
+      </c>
+      <c r="BA131">
+        <v>9</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
+        <v>11</v>
+      </c>
+      <c r="BD131">
+        <v>1.3</v>
+      </c>
+      <c r="BE131">
+        <v>10.75</v>
+      </c>
+      <c r="BF131">
+        <v>4.33</v>
+      </c>
+      <c r="BG131">
+        <v>1.25</v>
+      </c>
+      <c r="BH131">
+        <v>3.42</v>
+      </c>
+      <c r="BI131">
+        <v>1.57</v>
+      </c>
+      <c r="BJ131">
+        <v>2.28</v>
+      </c>
+      <c r="BK131">
+        <v>1.95</v>
+      </c>
+      <c r="BL131">
+        <v>1.78</v>
+      </c>
+      <c r="BM131">
+        <v>2.5</v>
+      </c>
+      <c r="BN131">
+        <v>1.48</v>
+      </c>
+      <c r="BO131">
+        <v>3.2</v>
+      </c>
+      <c r="BP131">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>6454186</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>179</v>
+      </c>
+      <c r="P132" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q132">
+        <v>2.05</v>
+      </c>
+      <c r="R132">
+        <v>2.4</v>
+      </c>
+      <c r="S132">
+        <v>5.5</v>
+      </c>
+      <c r="T132">
+        <v>1.3</v>
+      </c>
+      <c r="U132">
+        <v>3.4</v>
+      </c>
+      <c r="V132">
+        <v>2.5</v>
+      </c>
+      <c r="W132">
+        <v>1.5</v>
+      </c>
+      <c r="X132">
+        <v>6</v>
+      </c>
+      <c r="Y132">
+        <v>1.13</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>4.2</v>
+      </c>
+      <c r="AB132">
+        <v>6</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>12</v>
+      </c>
+      <c r="AE132">
+        <v>1.17</v>
+      </c>
+      <c r="AF132">
+        <v>4.3</v>
+      </c>
+      <c r="AG132">
+        <v>1.65</v>
+      </c>
+      <c r="AH132">
+        <v>2.1</v>
+      </c>
+      <c r="AI132">
+        <v>1.75</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AK132">
+        <v>1.06</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.65</v>
+      </c>
+      <c r="AN132">
+        <v>2.1</v>
+      </c>
+      <c r="AO132">
+        <v>0.9</v>
+      </c>
+      <c r="AP132">
+        <v>2</v>
+      </c>
+      <c r="AQ132">
+        <v>0.91</v>
+      </c>
+      <c r="AR132">
+        <v>1.84</v>
+      </c>
+      <c r="AS132">
+        <v>1.25</v>
+      </c>
+      <c r="AT132">
+        <v>3.09</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>8</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>8</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>16</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>10</v>
+      </c>
+      <c r="BC132">
+        <v>18</v>
+      </c>
+      <c r="BD132">
+        <v>1.38</v>
+      </c>
+      <c r="BE132">
+        <v>10.5</v>
+      </c>
+      <c r="BF132">
+        <v>3.66</v>
+      </c>
+      <c r="BG132">
+        <v>1.17</v>
+      </c>
+      <c r="BH132">
+        <v>4.2</v>
+      </c>
+      <c r="BI132">
+        <v>1.35</v>
+      </c>
+      <c r="BJ132">
+        <v>2.84</v>
+      </c>
+      <c r="BK132">
+        <v>1.75</v>
+      </c>
+      <c r="BL132">
+        <v>1.98</v>
+      </c>
+      <c r="BM132">
+        <v>2.2</v>
+      </c>
+      <c r="BN132">
+        <v>1.61</v>
+      </c>
+      <c r="BO132">
+        <v>2.85</v>
+      </c>
+      <c r="BP132">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>6454188</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>96</v>
+      </c>
+      <c r="P133" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q133">
+        <v>5.5</v>
+      </c>
+      <c r="R133">
+        <v>2.38</v>
+      </c>
+      <c r="S133">
+        <v>2.1</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.5</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>5.75</v>
+      </c>
+      <c r="AA133">
+        <v>4</v>
+      </c>
+      <c r="AB133">
+        <v>1.57</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>15</v>
+      </c>
+      <c r="AE133">
+        <v>1.21</v>
+      </c>
+      <c r="AF133">
+        <v>4.4</v>
+      </c>
+      <c r="AG133">
+        <v>1.75</v>
+      </c>
+      <c r="AH133">
+        <v>1.95</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>2.43</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.15</v>
+      </c>
+      <c r="AN133">
+        <v>0.3</v>
+      </c>
+      <c r="AO133">
+        <v>2</v>
+      </c>
+      <c r="AP133">
+        <v>0.27</v>
+      </c>
+      <c r="AQ133">
+        <v>2.09</v>
+      </c>
+      <c r="AR133">
+        <v>1.37</v>
+      </c>
+      <c r="AS133">
+        <v>1.62</v>
+      </c>
+      <c r="AT133">
+        <v>2.99</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>7</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>11</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>18</v>
+      </c>
+      <c r="BD133">
+        <v>2.98</v>
+      </c>
+      <c r="BE133">
+        <v>10</v>
+      </c>
+      <c r="BF133">
+        <v>1.52</v>
+      </c>
+      <c r="BG133">
+        <v>1.14</v>
+      </c>
+      <c r="BH133">
+        <v>4.7</v>
+      </c>
+      <c r="BI133">
+        <v>1.28</v>
+      </c>
+      <c r="BJ133">
+        <v>3.18</v>
+      </c>
+      <c r="BK133">
+        <v>1.62</v>
+      </c>
+      <c r="BL133">
+        <v>2.26</v>
+      </c>
+      <c r="BM133">
+        <v>2.1</v>
+      </c>
+      <c r="BN133">
+        <v>1.67</v>
+      </c>
+      <c r="BO133">
+        <v>2.65</v>
+      </c>
+      <c r="BP133">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -358,10 +358,10 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['9', '22', '35']</t>
@@ -484,10 +484,10 @@
     <t>['45+5']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['4', '74']</t>
   </si>
   <si>
-    <t>['4', '74']</t>
+    <t>['64']</t>
   </si>
   <si>
     <t>['9', '40', '45+3', '88']</t>
@@ -496,19 +496,19 @@
     <t>['45+4', '45+9', '54', '66', '84']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['45+2', '60', '86']</t>
   </si>
   <si>
-    <t>['45+2', '60', '86']</t>
+    <t>['25']</t>
   </si>
   <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['43', '80']</t>
+    <t>['68', '83']</t>
   </si>
   <si>
-    <t>['68', '83']</t>
+    <t>['43', '80']</t>
   </si>
   <si>
     <t>['9', '76']</t>
@@ -520,10 +520,10 @@
     <t>['34', '90+4']</t>
   </si>
   <si>
-    <t>['20', '34', '47']</t>
+    <t>['23', '45+6']</t>
   </si>
   <si>
-    <t>['23', '45+6']</t>
+    <t>['20', '34', '47']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -547,13 +547,13 @@
     <t>['43', '50']</t>
   </si>
   <si>
-    <t>['33', '41', '58', '71']</t>
+    <t>['68']</t>
   </si>
   <si>
     <t>['67', '76', '90+6']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['33', '41', '58', '71']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -598,10 +598,10 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['13', '65', '72', '81', '89']</t>
+    <t>['51', '59']</t>
   </si>
   <si>
-    <t>['51', '59']</t>
+    <t>['13', '65', '72', '81', '89']</t>
   </si>
   <si>
     <t>['90+1', '90+4']</t>
@@ -730,10 +730,10 @@
     <t>['11', '34']</t>
   </si>
   <si>
-    <t>['50', '51', '58']</t>
+    <t>['44', '90+2']</t>
   </si>
   <si>
-    <t>['44', '90+2']</t>
+    <t>['50', '51', '58']</t>
   </si>
   <si>
     <t>['54', '63', '87']</t>
@@ -5256,7 +5256,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6454075</v>
+        <v>6454076</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5271,61 +5271,61 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
         <v>194</v>
       </c>
       <c r="Q21">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="R21">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="S21">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="T21">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U21">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V21">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="W21">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X21">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y21">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z21">
         <v>3.3</v>
@@ -5337,16 +5337,16 @@
         <v>1.86</v>
       </c>
       <c r="AC21">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE21">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF21">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AG21">
         <v>1.6</v>
@@ -5358,43 +5358,43 @@
         <v>1.57</v>
       </c>
       <c r="AJ21">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="AK21">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AL21">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM21">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.09</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>1.44</v>
+      </c>
+      <c r="AS21">
+        <v>0.65</v>
+      </c>
+      <c r="AT21">
+        <v>2.09</v>
+      </c>
+      <c r="AU21">
         <v>3</v>
       </c>
-      <c r="AP21">
-        <v>1.18</v>
-      </c>
-      <c r="AQ21">
-        <v>1.36</v>
-      </c>
-      <c r="AR21">
-        <v>1.62</v>
-      </c>
-      <c r="AS21">
-        <v>1.37</v>
-      </c>
-      <c r="AT21">
-        <v>2.99</v>
-      </c>
-      <c r="AU21">
-        <v>2</v>
-      </c>
       <c r="AV21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW21">
         <v>4</v>
@@ -5403,58 +5403,58 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="BE21">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="BF21">
+        <v>1.56</v>
+      </c>
+      <c r="BG21">
+        <v>1.34</v>
+      </c>
+      <c r="BH21">
+        <v>2.87</v>
+      </c>
+      <c r="BI21">
         <v>1.57</v>
       </c>
-      <c r="BG21">
-        <v>1.32</v>
-      </c>
-      <c r="BH21">
-        <v>3</v>
-      </c>
-      <c r="BI21">
-        <v>1.5</v>
-      </c>
       <c r="BJ21">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="BK21">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="BL21">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="BM21">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BN21">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="BO21">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BP21">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5462,7 +5462,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6454076</v>
+        <v>6454075</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5477,61 +5477,61 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s">
         <v>195</v>
       </c>
       <c r="Q22">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="R22">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="S22">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="T22">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="W22">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="X22">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y22">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z22">
         <v>3.3</v>
@@ -5543,16 +5543,16 @@
         <v>1.86</v>
       </c>
       <c r="AC22">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE22">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AF22">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG22">
         <v>1.6</v>
@@ -5564,43 +5564,43 @@
         <v>1.57</v>
       </c>
       <c r="AJ22">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="AK22">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AL22">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM22">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AR22">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AS22">
-        <v>0.65</v>
+        <v>1.37</v>
       </c>
       <c r="AT22">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW22">
         <v>4</v>
@@ -5609,58 +5609,58 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>6</v>
+      </c>
+      <c r="BD22">
+        <v>2.85</v>
+      </c>
+      <c r="BE22">
+        <v>6</v>
+      </c>
+      <c r="BF22">
+        <v>1.57</v>
+      </c>
+      <c r="BG22">
+        <v>1.32</v>
+      </c>
+      <c r="BH22">
+        <v>3</v>
+      </c>
+      <c r="BI22">
+        <v>1.5</v>
+      </c>
+      <c r="BJ22">
+        <v>2.45</v>
+      </c>
+      <c r="BK22">
+        <v>1.86</v>
+      </c>
+      <c r="BL22">
+        <v>1.86</v>
+      </c>
+      <c r="BM22">
+        <v>2.3</v>
+      </c>
+      <c r="BN22">
+        <v>1.55</v>
+      </c>
+      <c r="BO22">
         <v>4</v>
       </c>
-      <c r="BB22">
-        <v>3</v>
-      </c>
-      <c r="BC22">
-        <v>7</v>
-      </c>
-      <c r="BD22">
-        <v>3.05</v>
-      </c>
-      <c r="BE22">
-        <v>7.5</v>
-      </c>
-      <c r="BF22">
-        <v>1.56</v>
-      </c>
-      <c r="BG22">
-        <v>1.34</v>
-      </c>
-      <c r="BH22">
-        <v>2.87</v>
-      </c>
-      <c r="BI22">
-        <v>1.57</v>
-      </c>
-      <c r="BJ22">
-        <v>2.28</v>
-      </c>
-      <c r="BK22">
-        <v>1.95</v>
-      </c>
-      <c r="BL22">
-        <v>1.78</v>
-      </c>
-      <c r="BM22">
-        <v>2.5</v>
-      </c>
-      <c r="BN22">
-        <v>1.48</v>
-      </c>
-      <c r="BO22">
-        <v>4.1</v>
-      </c>
       <c r="BP22">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -7358,7 +7358,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.38</v>
@@ -8964,7 +8964,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6454095</v>
+        <v>6454094</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8979,160 +8979,160 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>2.4</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>1.3</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>1.67</v>
+      </c>
+      <c r="AA39">
+        <v>3.65</v>
+      </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>14.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.2</v>
+      </c>
+      <c r="AF39">
         <v>4.5</v>
       </c>
-      <c r="R39">
-        <v>2.3</v>
-      </c>
-      <c r="S39">
-        <v>2.4</v>
-      </c>
-      <c r="T39">
-        <v>1.33</v>
-      </c>
-      <c r="U39">
-        <v>3.25</v>
-      </c>
-      <c r="V39">
-        <v>2.63</v>
-      </c>
-      <c r="W39">
-        <v>1.44</v>
-      </c>
-      <c r="X39">
-        <v>6.5</v>
-      </c>
-      <c r="Y39">
-        <v>1.11</v>
-      </c>
-      <c r="Z39">
-        <v>3.5</v>
-      </c>
-      <c r="AA39">
-        <v>3.45</v>
-      </c>
-      <c r="AB39">
-        <v>1.75</v>
-      </c>
-      <c r="AC39">
-        <v>1.05</v>
-      </c>
-      <c r="AD39">
-        <v>9</v>
-      </c>
-      <c r="AE39">
-        <v>1.25</v>
-      </c>
-      <c r="AF39">
-        <v>3.75</v>
-      </c>
       <c r="AG39">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AH39">
+        <v>1.92</v>
+      </c>
+      <c r="AI39">
+        <v>1.8</v>
+      </c>
+      <c r="AJ39">
         <v>1.95</v>
       </c>
-      <c r="AI39">
-        <v>1.67</v>
-      </c>
-      <c r="AJ39">
-        <v>2.1</v>
-      </c>
       <c r="AK39">
-        <v>1.85</v>
+        <v>1.12</v>
       </c>
       <c r="AL39">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AM39">
-        <v>1.22</v>
+        <v>2.65</v>
       </c>
       <c r="AN39">
         <v>2</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AP39">
+        <v>1.55</v>
+      </c>
+      <c r="AQ39">
+        <v>0.82</v>
+      </c>
+      <c r="AR39">
+        <v>1.65</v>
+      </c>
+      <c r="AS39">
+        <v>1.01</v>
+      </c>
+      <c r="AT39">
+        <v>2.66</v>
+      </c>
+      <c r="AU39">
+        <v>8</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>12</v>
+      </c>
+      <c r="AZ39">
+        <v>6</v>
+      </c>
+      <c r="BA39">
+        <v>8</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>12</v>
+      </c>
+      <c r="BD39">
         <v>1.45</v>
       </c>
-      <c r="AQ39">
-        <v>1.36</v>
-      </c>
-      <c r="AR39">
-        <v>1.37</v>
-      </c>
-      <c r="AS39">
-        <v>1.55</v>
-      </c>
-      <c r="AT39">
-        <v>2.92</v>
-      </c>
-      <c r="AU39">
-        <v>4</v>
-      </c>
-      <c r="AV39">
-        <v>4</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>9</v>
-      </c>
-      <c r="AY39">
-        <v>4</v>
-      </c>
-      <c r="AZ39">
-        <v>13</v>
-      </c>
-      <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BB39">
-        <v>9</v>
-      </c>
-      <c r="BC39">
-        <v>10</v>
-      </c>
-      <c r="BD39">
-        <v>2.8</v>
-      </c>
       <c r="BE39">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF39">
-        <v>1.59</v>
+        <v>3.29</v>
       </c>
       <c r="BG39">
         <v>1.25</v>
@@ -9141,28 +9141,28 @@
         <v>3.5</v>
       </c>
       <c r="BI39">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BJ39">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BK39">
         <v>1.85</v>
       </c>
       <c r="BL39">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="BM39">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BN39">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BO39">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BP39">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9170,7 +9170,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6454094</v>
+        <v>6454095</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9185,160 +9185,160 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
         <v>2.4</v>
       </c>
-      <c r="S40">
-        <v>6</v>
-      </c>
       <c r="T40">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W40">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X40">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y40">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z40">
+        <v>3.5</v>
+      </c>
+      <c r="AA40">
+        <v>3.45</v>
+      </c>
+      <c r="AB40">
+        <v>1.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>1.25</v>
+      </c>
+      <c r="AF40">
+        <v>3.75</v>
+      </c>
+      <c r="AG40">
+        <v>1.85</v>
+      </c>
+      <c r="AH40">
+        <v>1.95</v>
+      </c>
+      <c r="AI40">
         <v>1.67</v>
       </c>
-      <c r="AA40">
-        <v>3.65</v>
-      </c>
-      <c r="AB40">
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.85</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.22</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>1.45</v>
+      </c>
+      <c r="AQ40">
+        <v>1.36</v>
+      </c>
+      <c r="AR40">
+        <v>1.37</v>
+      </c>
+      <c r="AS40">
+        <v>1.55</v>
+      </c>
+      <c r="AT40">
+        <v>2.92</v>
+      </c>
+      <c r="AU40">
         <v>4</v>
       </c>
-      <c r="AC40">
-        <v>1.02</v>
-      </c>
-      <c r="AD40">
-        <v>14.5</v>
-      </c>
-      <c r="AE40">
-        <v>1.2</v>
-      </c>
-      <c r="AF40">
-        <v>4.5</v>
-      </c>
-      <c r="AG40">
-        <v>1.94</v>
-      </c>
-      <c r="AH40">
-        <v>1.92</v>
-      </c>
-      <c r="AI40">
-        <v>1.8</v>
-      </c>
-      <c r="AJ40">
-        <v>1.95</v>
-      </c>
-      <c r="AK40">
-        <v>1.12</v>
-      </c>
-      <c r="AL40">
-        <v>1.17</v>
-      </c>
-      <c r="AM40">
-        <v>2.65</v>
-      </c>
-      <c r="AN40">
-        <v>2</v>
-      </c>
-      <c r="AO40">
-        <v>0.67</v>
-      </c>
-      <c r="AP40">
-        <v>1.55</v>
-      </c>
-      <c r="AQ40">
-        <v>0.82</v>
-      </c>
-      <c r="AR40">
-        <v>1.65</v>
-      </c>
-      <c r="AS40">
-        <v>1.01</v>
-      </c>
-      <c r="AT40">
-        <v>2.66</v>
-      </c>
-      <c r="AU40">
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>9</v>
+      </c>
+      <c r="AY40">
+        <v>4</v>
+      </c>
+      <c r="AZ40">
+        <v>13</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>9</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>2.8</v>
+      </c>
+      <c r="BE40">
         <v>8</v>
       </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>4</v>
-      </c>
-      <c r="AX40">
-        <v>3</v>
-      </c>
-      <c r="AY40">
-        <v>12</v>
-      </c>
-      <c r="AZ40">
-        <v>6</v>
-      </c>
-      <c r="BA40">
-        <v>8</v>
-      </c>
-      <c r="BB40">
-        <v>4</v>
-      </c>
-      <c r="BC40">
-        <v>12</v>
-      </c>
-      <c r="BD40">
-        <v>1.45</v>
-      </c>
-      <c r="BE40">
-        <v>8.5</v>
-      </c>
       <c r="BF40">
-        <v>3.29</v>
+        <v>1.59</v>
       </c>
       <c r="BG40">
         <v>1.25</v>
@@ -9347,28 +9347,28 @@
         <v>3.5</v>
       </c>
       <c r="BI40">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BJ40">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK40">
         <v>1.85</v>
       </c>
       <c r="BL40">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="BM40">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BN40">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BO40">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP40">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -11272,7 +11272,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -21324,7 +21324,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6454158</v>
+        <v>6454155</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21339,25 +21339,25 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -21366,16 +21366,16 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="Q99">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="R99">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S99">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21384,43 +21384,43 @@
         <v>3.25</v>
       </c>
       <c r="V99">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X99">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z99">
-        <v>4.27</v>
+        <v>3.04</v>
       </c>
       <c r="AA99">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="AB99">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="AC99">
         <v>1.04</v>
       </c>
       <c r="AD99">
-        <v>13.25</v>
+        <v>12.25</v>
       </c>
       <c r="AE99">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AF99">
-        <v>4.35</v>
+        <v>4.13</v>
       </c>
       <c r="AG99">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AH99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI99">
         <v>1.62</v>
@@ -21429,100 +21429,100 @@
         <v>2.2</v>
       </c>
       <c r="AK99">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AL99">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM99">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AN99">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AO99">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>0.27</v>
+        <v>1.45</v>
       </c>
       <c r="AQ99">
+        <v>0.91</v>
+      </c>
+      <c r="AR99">
+        <v>1.44</v>
+      </c>
+      <c r="AS99">
+        <v>1.24</v>
+      </c>
+      <c r="AT99">
+        <v>2.68</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>10</v>
+      </c>
+      <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>8</v>
+      </c>
+      <c r="BC99">
+        <v>14</v>
+      </c>
+      <c r="BD99">
+        <v>2</v>
+      </c>
+      <c r="BE99">
+        <v>8</v>
+      </c>
+      <c r="BF99">
+        <v>2</v>
+      </c>
+      <c r="BG99">
+        <v>1.21</v>
+      </c>
+      <c r="BH99">
+        <v>3.74</v>
+      </c>
+      <c r="BI99">
+        <v>1.35</v>
+      </c>
+      <c r="BJ99">
+        <v>2.85</v>
+      </c>
+      <c r="BK99">
+        <v>1.8</v>
+      </c>
+      <c r="BL99">
+        <v>2</v>
+      </c>
+      <c r="BM99">
+        <v>2.05</v>
+      </c>
+      <c r="BN99">
+        <v>1.63</v>
+      </c>
+      <c r="BO99">
+        <v>2.8</v>
+      </c>
+      <c r="BP99">
         <v>1.36</v>
-      </c>
-      <c r="AR99">
-        <v>1.38</v>
-      </c>
-      <c r="AS99">
-        <v>1.52</v>
-      </c>
-      <c r="AT99">
-        <v>2.9</v>
-      </c>
-      <c r="AU99">
-        <v>2</v>
-      </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>7</v>
-      </c>
-      <c r="AX99">
-        <v>8</v>
-      </c>
-      <c r="AY99">
-        <v>9</v>
-      </c>
-      <c r="AZ99">
-        <v>13</v>
-      </c>
-      <c r="BA99">
-        <v>1</v>
-      </c>
-      <c r="BB99">
-        <v>5</v>
-      </c>
-      <c r="BC99">
-        <v>6</v>
-      </c>
-      <c r="BD99">
-        <v>3.07</v>
-      </c>
-      <c r="BE99">
-        <v>8.5</v>
-      </c>
-      <c r="BF99">
-        <v>1.51</v>
-      </c>
-      <c r="BG99">
-        <v>1.25</v>
-      </c>
-      <c r="BH99">
-        <v>3.5</v>
-      </c>
-      <c r="BI99">
-        <v>1.47</v>
-      </c>
-      <c r="BJ99">
-        <v>2.4</v>
-      </c>
-      <c r="BK99">
-        <v>1.85</v>
-      </c>
-      <c r="BL99">
-        <v>1.95</v>
-      </c>
-      <c r="BM99">
-        <v>2.4</v>
-      </c>
-      <c r="BN99">
-        <v>1.47</v>
-      </c>
-      <c r="BO99">
-        <v>3.3</v>
-      </c>
-      <c r="BP99">
-        <v>1.26</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21530,7 +21530,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6454155</v>
+        <v>6454158</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21545,25 +21545,25 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -21572,16 +21572,16 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="Q100">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="R100">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="T100">
         <v>1.33</v>
@@ -21590,43 +21590,43 @@
         <v>3.25</v>
       </c>
       <c r="V100">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W100">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y100">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z100">
-        <v>3.04</v>
+        <v>4.27</v>
       </c>
       <c r="AA100">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="AB100">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="AC100">
         <v>1.04</v>
       </c>
       <c r="AD100">
-        <v>12.25</v>
+        <v>13.25</v>
       </c>
       <c r="AE100">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF100">
-        <v>4.13</v>
+        <v>4.35</v>
       </c>
       <c r="AG100">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI100">
         <v>1.62</v>
@@ -21635,100 +21635,100 @@
         <v>2.2</v>
       </c>
       <c r="AK100">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AL100">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM100">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AN100">
+        <v>0.25</v>
+      </c>
+      <c r="AO100">
+        <v>1.38</v>
+      </c>
+      <c r="AP100">
+        <v>0.27</v>
+      </c>
+      <c r="AQ100">
+        <v>1.36</v>
+      </c>
+      <c r="AR100">
+        <v>1.38</v>
+      </c>
+      <c r="AS100">
+        <v>1.52</v>
+      </c>
+      <c r="AT100">
+        <v>2.9</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>8</v>
+      </c>
+      <c r="AY100">
+        <v>9</v>
+      </c>
+      <c r="AZ100">
+        <v>13</v>
+      </c>
+      <c r="BA100">
+        <v>1</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>6</v>
+      </c>
+      <c r="BD100">
+        <v>3.07</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>1.51</v>
+      </c>
+      <c r="BG100">
         <v>1.25</v>
       </c>
-      <c r="AO100">
-        <v>1.43</v>
-      </c>
-      <c r="AP100">
-        <v>1.45</v>
-      </c>
-      <c r="AQ100">
-        <v>0.91</v>
-      </c>
-      <c r="AR100">
-        <v>1.44</v>
-      </c>
-      <c r="AS100">
-        <v>1.24</v>
-      </c>
-      <c r="AT100">
-        <v>2.68</v>
-      </c>
-      <c r="AU100">
-        <v>7</v>
-      </c>
-      <c r="AV100">
-        <v>3</v>
-      </c>
-      <c r="AW100">
-        <v>3</v>
-      </c>
-      <c r="AX100">
-        <v>4</v>
-      </c>
-      <c r="AY100">
-        <v>10</v>
-      </c>
-      <c r="AZ100">
-        <v>7</v>
-      </c>
-      <c r="BA100">
-        <v>6</v>
-      </c>
-      <c r="BB100">
-        <v>8</v>
-      </c>
-      <c r="BC100">
-        <v>14</v>
-      </c>
-      <c r="BD100">
-        <v>2</v>
-      </c>
-      <c r="BE100">
-        <v>8</v>
-      </c>
-      <c r="BF100">
-        <v>2</v>
-      </c>
-      <c r="BG100">
-        <v>1.21</v>
-      </c>
       <c r="BH100">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="BI100">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="BJ100">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="BK100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BL100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BM100">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BN100">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BO100">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP100">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -22560,7 +22560,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>6454160</v>
+        <v>6454163</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22575,28 +22575,28 @@
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O105" t="s">
         <v>160</v>
@@ -22605,58 +22605,58 @@
         <v>238</v>
       </c>
       <c r="Q105">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="R105">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S105">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="T105">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U105">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V105">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W105">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y105">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z105">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="AA105">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="AB105">
-        <v>2.11</v>
+        <v>5.2</v>
       </c>
       <c r="AC105">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD105">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AE105">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AF105">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="AG105">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="AH105">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="AI105">
         <v>1.75</v>
@@ -22665,100 +22665,100 @@
         <v>2</v>
       </c>
       <c r="AK105">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AL105">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM105">
-        <v>1.21</v>
+        <v>2.34</v>
       </c>
       <c r="AN105">
-        <v>0.13</v>
+        <v>1.88</v>
       </c>
       <c r="AO105">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>0.18</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="AR105">
-        <v>1.09</v>
+        <v>1.73</v>
       </c>
       <c r="AS105">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT105">
-        <v>2.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU105">
+        <v>10</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
         <v>3</v>
       </c>
-      <c r="AV105">
-        <v>8</v>
-      </c>
-      <c r="AW105">
-        <v>5</v>
-      </c>
-      <c r="AX105">
+      <c r="AY105">
+        <v>14</v>
+      </c>
+      <c r="AZ105">
+        <v>9</v>
+      </c>
+      <c r="BA105">
+        <v>10</v>
+      </c>
+      <c r="BB105">
         <v>6</v>
       </c>
-      <c r="AY105">
-        <v>8</v>
-      </c>
-      <c r="AZ105">
-        <v>14</v>
-      </c>
-      <c r="BA105">
-        <v>5</v>
-      </c>
-      <c r="BB105">
-        <v>5</v>
-      </c>
       <c r="BC105">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD105">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="BE105">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF105">
-        <v>1.83</v>
+        <v>4.07</v>
       </c>
       <c r="BG105">
         <v>1.19</v>
       </c>
       <c r="BH105">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BI105">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="BJ105">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BK105">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="BL105">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="BM105">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="BN105">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="BO105">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP105">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22766,7 +22766,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>6454163</v>
+        <v>6454160</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22781,28 +22781,28 @@
         <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
       <c r="N106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O106" t="s">
         <v>161</v>
@@ -22811,58 +22811,58 @@
         <v>239</v>
       </c>
       <c r="Q106">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R106">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S106">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="T106">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U106">
+        <v>2.75</v>
+      </c>
+      <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>8</v>
+      </c>
+      <c r="Y106">
+        <v>1.08</v>
+      </c>
+      <c r="Z106">
+        <v>3.2</v>
+      </c>
+      <c r="AA106">
         <v>3.4</v>
       </c>
-      <c r="V106">
-        <v>2.38</v>
-      </c>
-      <c r="W106">
-        <v>1.53</v>
-      </c>
-      <c r="X106">
-        <v>6</v>
-      </c>
-      <c r="Y106">
-        <v>1.13</v>
-      </c>
-      <c r="Z106">
-        <v>1.53</v>
-      </c>
-      <c r="AA106">
-        <v>4.25</v>
-      </c>
       <c r="AB106">
-        <v>5.2</v>
+        <v>2.11</v>
       </c>
       <c r="AC106">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD106">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE106">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF106">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="AG106">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="AH106">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="AI106">
         <v>1.75</v>
@@ -22871,100 +22871,100 @@
         <v>2</v>
       </c>
       <c r="AK106">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL106">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM106">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="AN106">
-        <v>1.88</v>
+        <v>0.13</v>
       </c>
       <c r="AO106">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ106">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="AR106">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="AS106">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>2.91</v>
+        <v>2.24</v>
       </c>
       <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>8</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
+      <c r="AY106">
+        <v>8</v>
+      </c>
+      <c r="AZ106">
+        <v>14</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
         <v>10</v>
       </c>
-      <c r="AV106">
-        <v>6</v>
-      </c>
-      <c r="AW106">
-        <v>4</v>
-      </c>
-      <c r="AX106">
-        <v>3</v>
-      </c>
-      <c r="AY106">
-        <v>14</v>
-      </c>
-      <c r="AZ106">
-        <v>9</v>
-      </c>
-      <c r="BA106">
-        <v>10</v>
-      </c>
-      <c r="BB106">
-        <v>6</v>
-      </c>
-      <c r="BC106">
-        <v>16</v>
-      </c>
       <c r="BD106">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="BE106">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF106">
-        <v>4.07</v>
+        <v>1.83</v>
       </c>
       <c r="BG106">
         <v>1.19</v>
       </c>
       <c r="BH106">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BI106">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BJ106">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BK106">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BL106">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="BM106">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="BN106">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="BO106">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP106">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -23796,7 +23796,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>6454170</v>
+        <v>6454167</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23811,160 +23811,160 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O111" t="s">
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="Q111">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="R111">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S111">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T111">
+        <v>1.36</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>2.63</v>
+      </c>
+      <c r="W111">
         <v>1.44</v>
       </c>
-      <c r="U111">
-        <v>2.63</v>
-      </c>
-      <c r="V111">
-        <v>3</v>
-      </c>
-      <c r="W111">
-        <v>1.36</v>
-      </c>
       <c r="X111">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y111">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z111">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="AA111">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="AB111">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AC111">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD111">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE111">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF111">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AG111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH111">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AI111">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK111">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.22</v>
+      </c>
+      <c r="AN111">
+        <v>0.11</v>
+      </c>
+      <c r="AO111">
+        <v>0.44</v>
+      </c>
+      <c r="AP111">
+        <v>0.18</v>
+      </c>
+      <c r="AQ111">
+        <v>0.45</v>
+      </c>
+      <c r="AR111">
+        <v>1.09</v>
+      </c>
+      <c r="AS111">
         <v>1.25</v>
       </c>
-      <c r="AM111">
-        <v>1.38</v>
-      </c>
-      <c r="AN111">
-        <v>1</v>
-      </c>
-      <c r="AO111">
-        <v>1.25</v>
-      </c>
-      <c r="AP111">
-        <v>1.09</v>
-      </c>
-      <c r="AQ111">
-        <v>0.91</v>
-      </c>
-      <c r="AR111">
-        <v>1.22</v>
-      </c>
-      <c r="AS111">
-        <v>1.22</v>
-      </c>
       <c r="AT111">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="AU111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY111">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ111">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB111">
         <v>6</v>
       </c>
       <c r="BC111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD111">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="BE111">
         <v>8</v>
       </c>
       <c r="BF111">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BG111">
         <v>1.27</v>
@@ -24002,7 +24002,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>6454167</v>
+        <v>6454170</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24017,160 +24017,160 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>2</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O112" t="s">
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="Q112">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>3.1</v>
+      </c>
+      <c r="T112">
+        <v>1.44</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>2.8</v>
+      </c>
+      <c r="AA112">
+        <v>3.13</v>
+      </c>
+      <c r="AB112">
         <v>2.25</v>
       </c>
-      <c r="S112">
-        <v>2.5</v>
-      </c>
-      <c r="T112">
-        <v>1.36</v>
-      </c>
-      <c r="U112">
-        <v>3</v>
-      </c>
-      <c r="V112">
-        <v>2.63</v>
-      </c>
-      <c r="W112">
-        <v>1.44</v>
-      </c>
-      <c r="X112">
+      <c r="AC112">
+        <v>1.06</v>
+      </c>
+      <c r="AD112">
+        <v>8.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.35</v>
+      </c>
+      <c r="AF112">
+        <v>3.1</v>
+      </c>
+      <c r="AG112">
+        <v>2</v>
+      </c>
+      <c r="AH112">
+        <v>1.75</v>
+      </c>
+      <c r="AI112">
+        <v>1.8</v>
+      </c>
+      <c r="AJ112">
+        <v>1.95</v>
+      </c>
+      <c r="AK112">
+        <v>1.55</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.38</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.09</v>
+      </c>
+      <c r="AQ112">
+        <v>0.91</v>
+      </c>
+      <c r="AR112">
+        <v>1.22</v>
+      </c>
+      <c r="AS112">
+        <v>1.22</v>
+      </c>
+      <c r="AT112">
+        <v>2.44</v>
+      </c>
+      <c r="AU112">
+        <v>10</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
         <v>7</v>
       </c>
-      <c r="Y112">
-        <v>1.1</v>
-      </c>
-      <c r="Z112">
-        <v>3.75</v>
-      </c>
-      <c r="AA112">
-        <v>3.4</v>
-      </c>
-      <c r="AB112">
-        <v>1.8</v>
-      </c>
-      <c r="AC112">
-        <v>1.05</v>
-      </c>
-      <c r="AD112">
-        <v>9.5</v>
-      </c>
-      <c r="AE112">
-        <v>1.25</v>
-      </c>
-      <c r="AF112">
-        <v>3.75</v>
-      </c>
-      <c r="AG112">
-        <v>1.75</v>
-      </c>
-      <c r="AH112">
-        <v>2</v>
-      </c>
-      <c r="AI112">
-        <v>1.7</v>
-      </c>
-      <c r="AJ112">
-        <v>2.05</v>
-      </c>
-      <c r="AK112">
-        <v>1.93</v>
-      </c>
-      <c r="AL112">
-        <v>1.22</v>
-      </c>
-      <c r="AM112">
-        <v>1.22</v>
-      </c>
-      <c r="AN112">
-        <v>0.11</v>
-      </c>
-      <c r="AO112">
-        <v>0.44</v>
-      </c>
-      <c r="AP112">
-        <v>0.18</v>
-      </c>
-      <c r="AQ112">
-        <v>0.45</v>
-      </c>
-      <c r="AR112">
-        <v>1.09</v>
-      </c>
-      <c r="AS112">
-        <v>1.25</v>
-      </c>
-      <c r="AT112">
-        <v>2.34</v>
-      </c>
-      <c r="AU112">
-        <v>5</v>
-      </c>
-      <c r="AV112">
-        <v>6</v>
-      </c>
-      <c r="AW112">
-        <v>1</v>
-      </c>
-      <c r="AX112">
-        <v>8</v>
-      </c>
       <c r="AY112">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB112">
         <v>6</v>
       </c>
       <c r="BC112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD112">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="BE112">
         <v>8</v>
       </c>
       <c r="BF112">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BG112">
         <v>1.27</v>
@@ -25032,7 +25032,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>6454176</v>
+        <v>6454175</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25047,10 +25047,10 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H117" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -25062,175 +25062,175 @@
         <v>2</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O117" t="s">
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="Q117">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R117">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S117">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T117">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V117">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y117">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
+        <v>1.58</v>
+      </c>
+      <c r="AA117">
+        <v>4.1</v>
+      </c>
+      <c r="AB117">
+        <v>4.95</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.85</v>
+      </c>
+      <c r="AG117">
+        <v>1.75</v>
+      </c>
+      <c r="AH117">
+        <v>1.95</v>
+      </c>
+      <c r="AI117">
+        <v>1.91</v>
+      </c>
+      <c r="AJ117">
+        <v>1.91</v>
+      </c>
+      <c r="AK117">
+        <v>1.15</v>
+      </c>
+      <c r="AL117">
+        <v>1.18</v>
+      </c>
+      <c r="AM117">
+        <v>2.34</v>
+      </c>
+      <c r="AN117">
+        <v>1.44</v>
+      </c>
+      <c r="AO117">
+        <v>0.67</v>
+      </c>
+      <c r="AP117">
+        <v>1.45</v>
+      </c>
+      <c r="AQ117">
+        <v>0.82</v>
+      </c>
+      <c r="AR117">
+        <v>1.44</v>
+      </c>
+      <c r="AS117">
+        <v>0.95</v>
+      </c>
+      <c r="AT117">
         <v>2.39</v>
       </c>
-      <c r="AA117">
-        <v>3.5</v>
-      </c>
-      <c r="AB117">
-        <v>2.66</v>
-      </c>
-      <c r="AC117">
-        <v>1.05</v>
-      </c>
-      <c r="AD117">
-        <v>7.8</v>
-      </c>
-      <c r="AE117">
-        <v>1.29</v>
-      </c>
-      <c r="AF117">
-        <v>3.55</v>
-      </c>
-      <c r="AG117">
-        <v>1.95</v>
-      </c>
-      <c r="AH117">
-        <v>1.91</v>
-      </c>
-      <c r="AI117">
-        <v>1.7</v>
-      </c>
-      <c r="AJ117">
-        <v>2.05</v>
-      </c>
-      <c r="AK117">
+      <c r="AU117">
+        <v>3</v>
+      </c>
+      <c r="AV117">
+        <v>10</v>
+      </c>
+      <c r="AW117">
+        <v>3</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>6</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>10</v>
+      </c>
+      <c r="BD117">
+        <v>1.55</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.91</v>
+      </c>
+      <c r="BG117">
+        <v>1.14</v>
+      </c>
+      <c r="BH117">
+        <v>4.55</v>
+      </c>
+      <c r="BI117">
+        <v>1.3</v>
+      </c>
+      <c r="BJ117">
+        <v>3.08</v>
+      </c>
+      <c r="BK117">
+        <v>1.65</v>
+      </c>
+      <c r="BL117">
+        <v>2.13</v>
+      </c>
+      <c r="BM117">
+        <v>2.02</v>
+      </c>
+      <c r="BN117">
+        <v>1.72</v>
+      </c>
+      <c r="BO117">
+        <v>2.6</v>
+      </c>
+      <c r="BP117">
         <v>1.45</v>
-      </c>
-      <c r="AL117">
-        <v>1.32</v>
-      </c>
-      <c r="AM117">
-        <v>1.4</v>
-      </c>
-      <c r="AN117">
-        <v>1.67</v>
-      </c>
-      <c r="AO117">
-        <v>1</v>
-      </c>
-      <c r="AP117">
-        <v>1.64</v>
-      </c>
-      <c r="AQ117">
-        <v>0.91</v>
-      </c>
-      <c r="AR117">
-        <v>1.53</v>
-      </c>
-      <c r="AS117">
-        <v>1.22</v>
-      </c>
-      <c r="AT117">
-        <v>2.75</v>
-      </c>
-      <c r="AU117">
-        <v>7</v>
-      </c>
-      <c r="AV117">
-        <v>5</v>
-      </c>
-      <c r="AW117">
-        <v>2</v>
-      </c>
-      <c r="AX117">
-        <v>7</v>
-      </c>
-      <c r="AY117">
-        <v>9</v>
-      </c>
-      <c r="AZ117">
-        <v>12</v>
-      </c>
-      <c r="BA117">
-        <v>3</v>
-      </c>
-      <c r="BB117">
-        <v>11</v>
-      </c>
-      <c r="BC117">
-        <v>14</v>
-      </c>
-      <c r="BD117">
-        <v>1.91</v>
-      </c>
-      <c r="BE117">
-        <v>8</v>
-      </c>
-      <c r="BF117">
-        <v>2.2</v>
-      </c>
-      <c r="BG117">
-        <v>1.16</v>
-      </c>
-      <c r="BH117">
-        <v>4.3</v>
-      </c>
-      <c r="BI117">
-        <v>1.33</v>
-      </c>
-      <c r="BJ117">
-        <v>2.93</v>
-      </c>
-      <c r="BK117">
-        <v>1.88</v>
-      </c>
-      <c r="BL117">
-        <v>1.92</v>
-      </c>
-      <c r="BM117">
-        <v>2.15</v>
-      </c>
-      <c r="BN117">
-        <v>1.64</v>
-      </c>
-      <c r="BO117">
-        <v>2.7</v>
-      </c>
-      <c r="BP117">
-        <v>1.42</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25238,7 +25238,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>6454175</v>
+        <v>6454176</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25253,10 +25253,10 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -25268,175 +25268,175 @@
         <v>2</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O118" t="s">
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="Q118">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R118">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S118">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T118">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>2.39</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>2.66</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>7.8</v>
+      </c>
+      <c r="AE118">
+        <v>1.29</v>
+      </c>
+      <c r="AF118">
+        <v>3.55</v>
+      </c>
+      <c r="AG118">
+        <v>1.95</v>
+      </c>
+      <c r="AH118">
+        <v>1.91</v>
+      </c>
+      <c r="AI118">
+        <v>1.7</v>
+      </c>
+      <c r="AJ118">
+        <v>2.05</v>
+      </c>
+      <c r="AK118">
+        <v>1.45</v>
+      </c>
+      <c r="AL118">
+        <v>1.32</v>
+      </c>
+      <c r="AM118">
+        <v>1.4</v>
+      </c>
+      <c r="AN118">
+        <v>1.67</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>1.64</v>
+      </c>
+      <c r="AQ118">
+        <v>0.91</v>
+      </c>
+      <c r="AR118">
+        <v>1.53</v>
+      </c>
+      <c r="AS118">
+        <v>1.22</v>
+      </c>
+      <c r="AT118">
+        <v>2.75</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>12</v>
+      </c>
+      <c r="BA118">
         <v>3</v>
       </c>
-      <c r="V118">
-        <v>2.63</v>
-      </c>
-      <c r="W118">
-        <v>1.44</v>
-      </c>
-      <c r="X118">
-        <v>7</v>
-      </c>
-      <c r="Y118">
-        <v>1.1</v>
-      </c>
-      <c r="Z118">
-        <v>1.58</v>
-      </c>
-      <c r="AA118">
-        <v>4.1</v>
-      </c>
-      <c r="AB118">
-        <v>4.95</v>
-      </c>
-      <c r="AC118">
-        <v>1.04</v>
-      </c>
-      <c r="AD118">
-        <v>10</v>
-      </c>
-      <c r="AE118">
-        <v>1.25</v>
-      </c>
-      <c r="AF118">
-        <v>3.85</v>
-      </c>
-      <c r="AG118">
-        <v>1.75</v>
-      </c>
-      <c r="AH118">
-        <v>1.95</v>
-      </c>
-      <c r="AI118">
+      <c r="BB118">
+        <v>11</v>
+      </c>
+      <c r="BC118">
+        <v>14</v>
+      </c>
+      <c r="BD118">
         <v>1.91</v>
       </c>
-      <c r="AJ118">
-        <v>1.91</v>
-      </c>
-      <c r="AK118">
-        <v>1.15</v>
-      </c>
-      <c r="AL118">
-        <v>1.18</v>
-      </c>
-      <c r="AM118">
-        <v>2.34</v>
-      </c>
-      <c r="AN118">
-        <v>1.44</v>
-      </c>
-      <c r="AO118">
-        <v>0.67</v>
-      </c>
-      <c r="AP118">
-        <v>1.45</v>
-      </c>
-      <c r="AQ118">
-        <v>0.82</v>
-      </c>
-      <c r="AR118">
-        <v>1.44</v>
-      </c>
-      <c r="AS118">
-        <v>0.95</v>
-      </c>
-      <c r="AT118">
-        <v>2.39</v>
-      </c>
-      <c r="AU118">
-        <v>3</v>
-      </c>
-      <c r="AV118">
-        <v>10</v>
-      </c>
-      <c r="AW118">
-        <v>3</v>
-      </c>
-      <c r="AX118">
-        <v>3</v>
-      </c>
-      <c r="AY118">
-        <v>6</v>
-      </c>
-      <c r="AZ118">
-        <v>13</v>
-      </c>
-      <c r="BA118">
-        <v>5</v>
-      </c>
-      <c r="BB118">
-        <v>5</v>
-      </c>
-      <c r="BC118">
-        <v>10</v>
-      </c>
-      <c r="BD118">
-        <v>1.55</v>
-      </c>
       <c r="BE118">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF118">
-        <v>2.91</v>
+        <v>2.2</v>
       </c>
       <c r="BG118">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH118">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="BI118">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ118">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="BK118">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="BL118">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="BM118">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BN118">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="BO118">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BP118">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -27134,7 +27134,7 @@
         <v>96</v>
       </c>
       <c r="P127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27298,7 +27298,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>6454187</v>
+        <v>6454188</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27313,190 +27313,190 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H128" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N128">
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="Q128">
+        <v>5.5</v>
+      </c>
+      <c r="R128">
+        <v>2.38</v>
+      </c>
+      <c r="S128">
+        <v>2.1</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
         <v>3.25</v>
       </c>
-      <c r="R128">
-        <v>2.2</v>
-      </c>
-      <c r="S128">
-        <v>3.2</v>
-      </c>
-      <c r="T128">
-        <v>1.36</v>
-      </c>
-      <c r="U128">
-        <v>3</v>
-      </c>
       <c r="V128">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W128">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>5.75</v>
+      </c>
+      <c r="AA128">
+        <v>4</v>
+      </c>
+      <c r="AB128">
+        <v>1.57</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>15</v>
+      </c>
+      <c r="AE128">
+        <v>1.21</v>
+      </c>
+      <c r="AF128">
+        <v>4.4</v>
+      </c>
+      <c r="AG128">
+        <v>1.75</v>
+      </c>
+      <c r="AH128">
+        <v>1.95</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>2.43</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.15</v>
+      </c>
+      <c r="AN128">
+        <v>0.3</v>
+      </c>
+      <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>0.27</v>
+      </c>
+      <c r="AQ128">
+        <v>2.09</v>
+      </c>
+      <c r="AR128">
+        <v>1.37</v>
+      </c>
+      <c r="AS128">
+        <v>1.62</v>
+      </c>
+      <c r="AT128">
+        <v>2.99</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>11</v>
+      </c>
+      <c r="BB128">
         <v>7</v>
       </c>
-      <c r="Y128">
-        <v>1.1</v>
-      </c>
-      <c r="Z128">
-        <v>2.5</v>
-      </c>
-      <c r="AA128">
-        <v>3.5</v>
-      </c>
-      <c r="AB128">
-        <v>2.5</v>
-      </c>
-      <c r="AC128">
-        <v>1.05</v>
-      </c>
-      <c r="AD128">
-        <v>13</v>
-      </c>
-      <c r="AE128">
-        <v>1.26</v>
-      </c>
-      <c r="AF128">
-        <v>3.9</v>
-      </c>
-      <c r="AG128">
-        <v>1.85</v>
-      </c>
-      <c r="AH128">
-        <v>2</v>
-      </c>
-      <c r="AI128">
-        <v>1.7</v>
-      </c>
-      <c r="AJ128">
-        <v>2.05</v>
-      </c>
-      <c r="AK128">
-        <v>1.53</v>
-      </c>
-      <c r="AL128">
-        <v>1.29</v>
-      </c>
-      <c r="AM128">
-        <v>1.53</v>
-      </c>
-      <c r="AN128">
-        <v>1.3</v>
-      </c>
-      <c r="AO128">
-        <v>0.5</v>
-      </c>
-      <c r="AP128">
-        <v>1.45</v>
-      </c>
-      <c r="AQ128">
-        <v>0.45</v>
-      </c>
-      <c r="AR128">
-        <v>1.39</v>
-      </c>
-      <c r="AS128">
-        <v>1.29</v>
-      </c>
-      <c r="AT128">
-        <v>2.68</v>
-      </c>
-      <c r="AU128">
-        <v>6</v>
-      </c>
-      <c r="AV128">
-        <v>2</v>
-      </c>
-      <c r="AW128">
-        <v>4</v>
-      </c>
-      <c r="AX128">
-        <v>4</v>
-      </c>
-      <c r="AY128">
+      <c r="BC128">
+        <v>18</v>
+      </c>
+      <c r="BD128">
+        <v>2.98</v>
+      </c>
+      <c r="BE128">
         <v>10</v>
       </c>
-      <c r="AZ128">
-        <v>6</v>
-      </c>
-      <c r="BA128">
-        <v>9</v>
-      </c>
-      <c r="BB128">
-        <v>3</v>
-      </c>
-      <c r="BC128">
-        <v>12</v>
-      </c>
-      <c r="BD128">
-        <v>2.11</v>
-      </c>
-      <c r="BE128">
-        <v>9.1</v>
-      </c>
       <c r="BF128">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="BG128">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="BH128">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BI128">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ128">
-        <v>2.93</v>
+        <v>3.18</v>
       </c>
       <c r="BK128">
         <v>1.62</v>
       </c>
       <c r="BL128">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="BM128">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BN128">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BO128">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BP128">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27504,7 +27504,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>6454183</v>
+        <v>6454187</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27519,190 +27519,190 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="P129" t="s">
         <v>96</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>3.2</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
         <v>2.5</v>
       </c>
-      <c r="S129">
-        <v>8.5</v>
-      </c>
-      <c r="T129">
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>2.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <v>1.26</v>
+      </c>
+      <c r="AF129">
+        <v>3.9</v>
+      </c>
+      <c r="AG129">
+        <v>1.85</v>
+      </c>
+      <c r="AH129">
+        <v>2</v>
+      </c>
+      <c r="AI129">
+        <v>1.7</v>
+      </c>
+      <c r="AJ129">
+        <v>2.05</v>
+      </c>
+      <c r="AK129">
+        <v>1.53</v>
+      </c>
+      <c r="AL129">
+        <v>1.29</v>
+      </c>
+      <c r="AM129">
+        <v>1.53</v>
+      </c>
+      <c r="AN129">
+        <v>1.3</v>
+      </c>
+      <c r="AO129">
+        <v>0.5</v>
+      </c>
+      <c r="AP129">
+        <v>1.45</v>
+      </c>
+      <c r="AQ129">
+        <v>0.45</v>
+      </c>
+      <c r="AR129">
+        <v>1.39</v>
+      </c>
+      <c r="AS129">
+        <v>1.29</v>
+      </c>
+      <c r="AT129">
+        <v>2.68</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>10</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>9</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>2.11</v>
+      </c>
+      <c r="BE129">
+        <v>9.1</v>
+      </c>
+      <c r="BF129">
+        <v>1.96</v>
+      </c>
+      <c r="BG129">
+        <v>1.16</v>
+      </c>
+      <c r="BH129">
+        <v>4.3</v>
+      </c>
+      <c r="BI129">
         <v>1.33</v>
       </c>
-      <c r="U129">
-        <v>3.25</v>
-      </c>
-      <c r="V129">
-        <v>2.63</v>
-      </c>
-      <c r="W129">
-        <v>1.44</v>
-      </c>
-      <c r="X129">
-        <v>6.5</v>
-      </c>
-      <c r="Y129">
-        <v>1.11</v>
-      </c>
-      <c r="Z129">
-        <v>1.36</v>
-      </c>
-      <c r="AA129">
-        <v>4.75</v>
-      </c>
-      <c r="AB129">
-        <v>7.5</v>
-      </c>
-      <c r="AC129">
-        <v>1.01</v>
-      </c>
-      <c r="AD129">
-        <v>10.5</v>
-      </c>
-      <c r="AE129">
-        <v>1.22</v>
-      </c>
-      <c r="AF129">
-        <v>3.66</v>
-      </c>
-      <c r="AG129">
-        <v>1.88</v>
-      </c>
-      <c r="AH129">
-        <v>1.98</v>
-      </c>
-      <c r="AI129">
-        <v>2.2</v>
-      </c>
-      <c r="AJ129">
+      <c r="BJ129">
+        <v>2.93</v>
+      </c>
+      <c r="BK129">
         <v>1.62</v>
       </c>
-      <c r="AK129">
-        <v>1.06</v>
-      </c>
-      <c r="AL129">
-        <v>1.12</v>
-      </c>
-      <c r="AM129">
-        <v>3.2</v>
-      </c>
-      <c r="AN129">
-        <v>1.5</v>
-      </c>
-      <c r="AO129">
-        <v>0.9</v>
-      </c>
-      <c r="AP129">
-        <v>1.64</v>
-      </c>
-      <c r="AQ129">
-        <v>0.82</v>
-      </c>
-      <c r="AR129">
-        <v>1.54</v>
-      </c>
-      <c r="AS129">
-        <v>1.04</v>
-      </c>
-      <c r="AT129">
-        <v>2.58</v>
-      </c>
-      <c r="AU129">
-        <v>8</v>
-      </c>
-      <c r="AV129">
-        <v>5</v>
-      </c>
-      <c r="AW129">
-        <v>1</v>
-      </c>
-      <c r="AX129">
-        <v>5</v>
-      </c>
-      <c r="AY129">
-        <v>9</v>
-      </c>
-      <c r="AZ129">
-        <v>10</v>
-      </c>
-      <c r="BA129">
-        <v>7</v>
-      </c>
-      <c r="BB129">
-        <v>4</v>
-      </c>
-      <c r="BC129">
-        <v>11</v>
-      </c>
-      <c r="BD129">
-        <v>1.29</v>
-      </c>
-      <c r="BE129">
-        <v>10.75</v>
-      </c>
-      <c r="BF129">
-        <v>4.45</v>
-      </c>
-      <c r="BG129">
-        <v>1.25</v>
-      </c>
-      <c r="BH129">
-        <v>3.42</v>
-      </c>
-      <c r="BI129">
-        <v>1.52</v>
-      </c>
-      <c r="BJ129">
-        <v>2.49</v>
-      </c>
-      <c r="BK129">
-        <v>1.68</v>
-      </c>
       <c r="BL129">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="BM129">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BN129">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BO129">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP129">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27710,7 +27710,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>6454184</v>
+        <v>6454186</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27725,172 +27725,172 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="Q130">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R130">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S130">
         <v>5.5</v>
       </c>
       <c r="T130">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U130">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V130">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W130">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y130">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z130">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA130">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB130">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD130">
         <v>12</v>
       </c>
       <c r="AE130">
+        <v>1.17</v>
+      </c>
+      <c r="AF130">
+        <v>4.3</v>
+      </c>
+      <c r="AG130">
+        <v>1.65</v>
+      </c>
+      <c r="AH130">
+        <v>2.1</v>
+      </c>
+      <c r="AI130">
+        <v>1.75</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.06</v>
+      </c>
+      <c r="AL130">
         <v>1.18</v>
       </c>
-      <c r="AF130">
-        <v>4.2</v>
-      </c>
-      <c r="AG130">
-        <v>1.7</v>
-      </c>
-      <c r="AH130">
-        <v>2</v>
-      </c>
-      <c r="AI130">
-        <v>1.8</v>
-      </c>
-      <c r="AJ130">
-        <v>1.95</v>
-      </c>
-      <c r="AK130">
-        <v>1.2</v>
-      </c>
-      <c r="AL130">
-        <v>1.28</v>
-      </c>
       <c r="AM130">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="AN130">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO130">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.91</v>
       </c>
       <c r="AR130">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT130">
-        <v>2.77</v>
+        <v>3.09</v>
       </c>
       <c r="AU130">
+        <v>5</v>
+      </c>
+      <c r="AV130">
         <v>8</v>
       </c>
-      <c r="AV130">
-        <v>3</v>
-      </c>
       <c r="AW130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX130">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ130">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BA130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB130">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC130">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BD130">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="BE130">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="BF130">
-        <v>3.14</v>
+        <v>3.66</v>
       </c>
       <c r="BG130">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH130">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="BI130">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BJ130">
-        <v>2.69</v>
+        <v>2.84</v>
       </c>
       <c r="BK130">
         <v>1.75</v>
@@ -28122,7 +28122,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>6454186</v>
+        <v>6454183</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28137,10 +28137,10 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -28155,172 +28155,172 @@
         <v>1</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="Q132">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R132">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S132">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="T132">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U132">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V132">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W132">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X132">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y132">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z132">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA132">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AB132">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AC132">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE132">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AF132">
-        <v>4.3</v>
+        <v>3.66</v>
       </c>
       <c r="AG132">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AH132">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AI132">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AJ132">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AK132">
         <v>1.06</v>
       </c>
       <c r="AL132">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AM132">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AN132">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO132">
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="AS132">
+        <v>1.04</v>
+      </c>
+      <c r="AT132">
+        <v>2.58</v>
+      </c>
+      <c r="AU132">
+        <v>8</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>1</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>7</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>1.29</v>
+      </c>
+      <c r="BE132">
+        <v>10.75</v>
+      </c>
+      <c r="BF132">
+        <v>4.45</v>
+      </c>
+      <c r="BG132">
         <v>1.25</v>
       </c>
-      <c r="AT132">
-        <v>3.09</v>
-      </c>
-      <c r="AU132">
-        <v>5</v>
-      </c>
-      <c r="AV132">
-        <v>8</v>
-      </c>
-      <c r="AW132">
-        <v>5</v>
-      </c>
-      <c r="AX132">
-        <v>8</v>
-      </c>
-      <c r="AY132">
-        <v>10</v>
-      </c>
-      <c r="AZ132">
-        <v>16</v>
-      </c>
-      <c r="BA132">
-        <v>8</v>
-      </c>
-      <c r="BB132">
-        <v>10</v>
-      </c>
-      <c r="BC132">
-        <v>18</v>
-      </c>
-      <c r="BD132">
-        <v>1.38</v>
-      </c>
-      <c r="BE132">
-        <v>10.5</v>
-      </c>
-      <c r="BF132">
-        <v>3.66</v>
-      </c>
-      <c r="BG132">
-        <v>1.17</v>
-      </c>
       <c r="BH132">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="BI132">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="BJ132">
-        <v>2.84</v>
+        <v>2.49</v>
       </c>
       <c r="BK132">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BL132">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BM132">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BN132">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BO132">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="BP132">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28328,7 +28328,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>6454188</v>
+        <v>6454184</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28343,43 +28343,43 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O133" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="Q133">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="R133">
         <v>2.38</v>
       </c>
       <c r="S133">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="T133">
         <v>1.33</v>
@@ -28388,10 +28388,10 @@
         <v>3.25</v>
       </c>
       <c r="V133">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W133">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X133">
         <v>6.5</v>
@@ -28400,31 +28400,31 @@
         <v>1.11</v>
       </c>
       <c r="Z133">
-        <v>5.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA133">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB133">
-        <v>1.57</v>
+        <v>5.25</v>
       </c>
       <c r="AC133">
         <v>1.04</v>
       </c>
       <c r="AD133">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE133">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF133">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AG133">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AI133">
         <v>1.8</v>
@@ -28433,100 +28433,100 @@
         <v>1.95</v>
       </c>
       <c r="AK133">
-        <v>2.43</v>
+        <v>1.2</v>
       </c>
       <c r="AL133">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM133">
-        <v>1.15</v>
+        <v>2.46</v>
       </c>
       <c r="AN133">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AO133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.27</v>
+        <v>2.09</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>0.91</v>
       </c>
       <c r="AR133">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="AS133">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="AU133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV133">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW133">
         <v>3</v>
       </c>
       <c r="AX133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY133">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BA133">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BB133">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC133">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BD133">
-        <v>2.98</v>
+        <v>1.49</v>
       </c>
       <c r="BE133">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BF133">
-        <v>1.52</v>
+        <v>3.14</v>
       </c>
       <c r="BG133">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BH133">
-        <v>4.7</v>
+        <v>3.84</v>
       </c>
       <c r="BI133">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BJ133">
-        <v>3.18</v>
+        <v>2.69</v>
       </c>
       <c r="BK133">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BL133">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="BM133">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BN133">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BO133">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="BP133">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['33', '41', '58', '71']</t>
   </si>
   <si>
+    <t>['8', '18', '31', '48', '52', '57']</t>
+  </si>
+  <si>
+    <t>['24', '59', '65']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>['23', '65']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1474,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1590,7 +1599,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2002,7 +2011,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2414,7 +2423,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2620,7 +2629,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2698,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2826,7 +2835,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3238,7 +3247,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3316,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3444,7 +3453,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3650,7 +3659,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3856,7 +3865,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4268,7 +4277,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4474,7 +4483,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4680,7 +4689,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4886,7 +4895,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5092,7 +5101,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5298,7 +5307,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5504,7 +5513,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5582,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.36</v>
@@ -5791,7 +5800,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ23">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -5916,7 +5925,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6200,10 +6209,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6328,7 +6337,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6946,7 +6955,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7152,7 +7161,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7436,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>0.64</v>
@@ -7642,7 +7651,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.45</v>
@@ -7770,7 +7779,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8057,7 +8066,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ34">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8182,7 +8191,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8594,7 +8603,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8800,7 +8809,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9087,7 +9096,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ39">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9212,7 +9221,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10036,7 +10045,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10114,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10242,7 +10251,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10448,7 +10457,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10654,7 +10663,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10735,7 +10744,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ47">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10860,7 +10869,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11066,7 +11075,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11478,7 +11487,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11890,7 +11899,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11968,7 +11977,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>1.64</v>
@@ -12096,7 +12105,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12383,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12508,7 +12517,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12792,7 +12801,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>0.91</v>
@@ -13126,7 +13135,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13332,7 +13341,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13410,7 +13419,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1.64</v>
@@ -13538,7 +13547,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13619,7 +13628,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ61">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -13825,7 +13834,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -13950,7 +13959,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14156,7 +14165,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14237,7 +14246,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ64">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.09</v>
@@ -14568,7 +14577,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14774,7 +14783,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14980,7 +14989,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15392,7 +15401,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15598,7 +15607,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15676,7 +15685,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.36</v>
@@ -15804,7 +15813,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15882,7 +15891,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>2.18</v>
@@ -16010,7 +16019,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16297,7 +16306,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ74">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16503,7 +16512,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16628,7 +16637,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17452,7 +17461,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17942,7 +17951,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>0.91</v>
@@ -18070,7 +18079,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18148,7 +18157,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>2.09</v>
@@ -18276,7 +18285,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18482,7 +18491,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19181,7 +19190,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ88">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19512,7 +19521,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19593,7 +19602,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ90">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19924,7 +19933,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20130,7 +20139,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20208,7 +20217,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>2.09</v>
@@ -20620,7 +20629,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>1.91</v>
@@ -20748,7 +20757,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20954,7 +20963,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21238,7 +21247,7 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>0.64</v>
@@ -21572,7 +21581,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21859,7 +21868,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -21984,7 +21993,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22190,7 +22199,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22396,7 +22405,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22474,7 +22483,7 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1.91</v>
@@ -22602,7 +22611,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22683,7 +22692,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR105">
         <v>1.73</v>
@@ -22808,7 +22817,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23014,7 +23023,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23710,10 +23719,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -23838,7 +23847,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24250,7 +24259,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24456,7 +24465,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25074,7 +25083,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25155,7 +25164,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ117">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25358,7 +25367,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
         <v>0.91</v>
@@ -25692,7 +25701,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26104,7 +26113,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26310,7 +26319,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26516,7 +26525,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26803,7 +26812,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR125">
         <v>2.05</v>
@@ -26928,7 +26937,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27006,7 +27015,7 @@
         <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
         <v>2.18</v>
@@ -27212,7 +27221,7 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
         <v>2</v>
@@ -27340,7 +27349,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27752,7 +27761,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28245,7 +28254,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
         <v>1.54</v>
@@ -28527,6 +28536,418 @@
       </c>
       <c r="BP133">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7390069</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>8</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q134">
+        <v>2.6</v>
+      </c>
+      <c r="R134">
+        <v>2.2</v>
+      </c>
+      <c r="S134">
+        <v>4.33</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>2.75</v>
+      </c>
+      <c r="V134">
+        <v>2.75</v>
+      </c>
+      <c r="W134">
+        <v>1.4</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>1.85</v>
+      </c>
+      <c r="AA134">
+        <v>3.5</v>
+      </c>
+      <c r="AB134">
+        <v>3.6</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>10.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.32</v>
+      </c>
+      <c r="AF134">
+        <v>3.35</v>
+      </c>
+      <c r="AG134">
+        <v>1.95</v>
+      </c>
+      <c r="AH134">
+        <v>1.85</v>
+      </c>
+      <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.95</v>
+      </c>
+      <c r="AK134">
+        <v>1.28</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.88</v>
+      </c>
+      <c r="AN134">
+        <v>1.18</v>
+      </c>
+      <c r="AO134">
+        <v>0.64</v>
+      </c>
+      <c r="AP134">
+        <v>1.33</v>
+      </c>
+      <c r="AQ134">
+        <v>0.58</v>
+      </c>
+      <c r="AR134">
+        <v>1.3</v>
+      </c>
+      <c r="AS134">
+        <v>1.13</v>
+      </c>
+      <c r="AT134">
+        <v>2.43</v>
+      </c>
+      <c r="AU134">
+        <v>11</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>16</v>
+      </c>
+      <c r="AZ134">
+        <v>8</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>8</v>
+      </c>
+      <c r="BC134">
+        <v>12</v>
+      </c>
+      <c r="BD134">
+        <v>1.54</v>
+      </c>
+      <c r="BE134">
+        <v>9.9</v>
+      </c>
+      <c r="BF134">
+        <v>2.91</v>
+      </c>
+      <c r="BG134">
+        <v>1.12</v>
+      </c>
+      <c r="BH134">
+        <v>5</v>
+      </c>
+      <c r="BI134">
+        <v>1.42</v>
+      </c>
+      <c r="BJ134">
+        <v>2.7</v>
+      </c>
+      <c r="BK134">
+        <v>1.7</v>
+      </c>
+      <c r="BL134">
+        <v>2.05</v>
+      </c>
+      <c r="BM134">
+        <v>2.15</v>
+      </c>
+      <c r="BN134">
+        <v>1.64</v>
+      </c>
+      <c r="BO134">
+        <v>2.31</v>
+      </c>
+      <c r="BP134">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7390070</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>81</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>181</v>
+      </c>
+      <c r="P135" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q135">
+        <v>2.1</v>
+      </c>
+      <c r="R135">
+        <v>2.4</v>
+      </c>
+      <c r="S135">
+        <v>5</v>
+      </c>
+      <c r="T135">
+        <v>1.3</v>
+      </c>
+      <c r="U135">
+        <v>3.4</v>
+      </c>
+      <c r="V135">
+        <v>2.5</v>
+      </c>
+      <c r="W135">
+        <v>1.5</v>
+      </c>
+      <c r="X135">
+        <v>6</v>
+      </c>
+      <c r="Y135">
+        <v>1.13</v>
+      </c>
+      <c r="Z135">
+        <v>1.53</v>
+      </c>
+      <c r="AA135">
+        <v>4.2</v>
+      </c>
+      <c r="AB135">
+        <v>4.8</v>
+      </c>
+      <c r="AC135">
+        <v>1.02</v>
+      </c>
+      <c r="AD135">
+        <v>14.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.2</v>
+      </c>
+      <c r="AF135">
+        <v>4.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.68</v>
+      </c>
+      <c r="AH135">
+        <v>2.2</v>
+      </c>
+      <c r="AI135">
+        <v>1.7</v>
+      </c>
+      <c r="AJ135">
+        <v>2.05</v>
+      </c>
+      <c r="AK135">
+        <v>1.16</v>
+      </c>
+      <c r="AL135">
+        <v>1.2</v>
+      </c>
+      <c r="AM135">
+        <v>2.3</v>
+      </c>
+      <c r="AN135">
+        <v>1.64</v>
+      </c>
+      <c r="AO135">
+        <v>0.82</v>
+      </c>
+      <c r="AP135">
+        <v>1.75</v>
+      </c>
+      <c r="AQ135">
+        <v>0.75</v>
+      </c>
+      <c r="AR135">
+        <v>1.46</v>
+      </c>
+      <c r="AS135">
+        <v>1.06</v>
+      </c>
+      <c r="AT135">
+        <v>2.52</v>
+      </c>
+      <c r="AU135">
+        <v>11</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>6</v>
+      </c>
+      <c r="AX135">
+        <v>8</v>
+      </c>
+      <c r="AY135">
+        <v>17</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>4</v>
+      </c>
+      <c r="BB135">
+        <v>9</v>
+      </c>
+      <c r="BC135">
+        <v>13</v>
+      </c>
+      <c r="BD135">
+        <v>1.38</v>
+      </c>
+      <c r="BE135">
+        <v>8.5</v>
+      </c>
+      <c r="BF135">
+        <v>3.8</v>
+      </c>
+      <c r="BG135">
+        <v>1.18</v>
+      </c>
+      <c r="BH135">
+        <v>4.2</v>
+      </c>
+      <c r="BI135">
+        <v>1.34</v>
+      </c>
+      <c r="BJ135">
+        <v>2.9</v>
+      </c>
+      <c r="BK135">
+        <v>1.8</v>
+      </c>
+      <c r="BL135">
+        <v>2</v>
+      </c>
+      <c r="BM135">
+        <v>2.02</v>
+      </c>
+      <c r="BN135">
+        <v>1.72</v>
+      </c>
+      <c r="BO135">
+        <v>2.6</v>
+      </c>
+      <c r="BP135">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,15 @@
     <t>['24', '59', '65']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['67', '81']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -773,6 +782,15 @@
   </si>
   <si>
     <t>['45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['69', '90+3']</t>
+  </si>
+  <si>
+    <t>['22', '52', '54']</t>
+  </si>
+  <si>
+    <t>['41', '63']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.75</v>
@@ -1599,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2011,7 +2029,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2295,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2423,7 +2441,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2629,7 +2647,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2835,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3119,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
         <v>0.91</v>
@@ -3247,7 +3265,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3453,7 +3471,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3659,7 +3677,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3740,7 +3758,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -3865,7 +3883,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3943,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.64</v>
@@ -4149,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.91</v>
@@ -4277,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4358,7 +4376,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ16">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4483,7 +4501,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4689,7 +4707,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4770,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -4895,7 +4913,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5101,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5179,7 +5197,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20">
         <v>1.91</v>
@@ -5307,7 +5325,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5513,7 +5531,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5594,7 +5612,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.62</v>
@@ -5925,7 +5943,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6337,7 +6355,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6621,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6955,7 +6973,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7033,10 +7051,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7161,7 +7179,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7242,7 +7260,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ30">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7779,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7857,7 +7875,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33">
         <v>0.91</v>
@@ -8191,7 +8209,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8603,7 +8621,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8684,7 +8702,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ37">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8809,7 +8827,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9093,7 +9111,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -9221,7 +9239,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9302,7 +9320,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ40">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9711,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42">
         <v>0.45</v>
@@ -9917,10 +9935,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10045,7 +10063,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10251,7 +10269,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10457,7 +10475,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10663,7 +10681,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10869,7 +10887,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10950,7 +10968,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ48">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11075,7 +11093,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11487,7 +11505,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11771,7 +11789,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.45</v>
@@ -11899,7 +11917,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11980,7 +11998,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12105,7 +12123,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12183,7 +12201,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
         <v>1.91</v>
@@ -12517,7 +12535,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12595,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -13010,7 +13028,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13135,7 +13153,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13216,7 +13234,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ59">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13341,7 +13359,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13422,7 +13440,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13547,7 +13565,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13831,7 +13849,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.58</v>
@@ -13959,7 +13977,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14165,7 +14183,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14577,7 +14595,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14655,7 +14673,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>0.91</v>
@@ -14783,7 +14801,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14989,7 +15007,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15273,7 +15291,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
         <v>0.64</v>
@@ -15401,7 +15419,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15482,7 +15500,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ70">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15607,7 +15625,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15688,7 +15706,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -15813,7 +15831,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15894,7 +15912,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -16019,7 +16037,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16303,7 +16321,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
         <v>0.58</v>
@@ -16509,7 +16527,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16637,7 +16655,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16921,7 +16939,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.91</v>
@@ -17130,7 +17148,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17461,7 +17479,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18079,7 +18097,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18285,7 +18303,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18491,7 +18509,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18572,7 +18590,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ85">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -18775,7 +18793,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>0.91</v>
@@ -18981,10 +18999,10 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19393,10 +19411,10 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -19521,7 +19539,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19933,7 +19951,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20139,7 +20157,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20426,7 +20444,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20757,7 +20775,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20838,7 +20856,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ96">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -20963,7 +20981,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21041,7 +21059,7 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>2</v>
@@ -21581,7 +21599,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21662,7 +21680,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ100">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -21993,7 +22011,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22071,10 +22089,10 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ102">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22199,7 +22217,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22277,7 +22295,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ103">
         <v>0.45</v>
@@ -22405,7 +22423,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22611,7 +22629,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22817,7 +22835,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23023,7 +23041,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23101,7 +23119,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>2.09</v>
@@ -23516,7 +23534,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ109">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -23847,7 +23865,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24259,7 +24277,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24340,7 +24358,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ113">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24465,7 +24483,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24749,10 +24767,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -24955,7 +24973,7 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116">
         <v>2.09</v>
@@ -25083,7 +25101,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25701,7 +25719,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26113,7 +26131,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26194,7 +26212,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ122">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
         <v>1.09</v>
@@ -26319,7 +26337,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26397,10 +26415,10 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26525,7 +26543,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26809,7 +26827,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ125">
         <v>0.58</v>
@@ -26937,7 +26955,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27018,7 +27036,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27349,7 +27367,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27761,7 +27779,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28045,7 +28063,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ131">
         <v>0.64</v>
@@ -28585,7 +28603,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28948,6 +28966,624 @@
       </c>
       <c r="BP135">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7390071</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q136">
+        <v>2.5</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>4.33</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>2</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>3.6</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>11.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.29</v>
+      </c>
+      <c r="AF136">
+        <v>3.55</v>
+      </c>
+      <c r="AG136">
+        <v>1.91</v>
+      </c>
+      <c r="AH136">
+        <v>1.95</v>
+      </c>
+      <c r="AI136">
+        <v>1.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.26</v>
+      </c>
+      <c r="AL136">
+        <v>1.24</v>
+      </c>
+      <c r="AM136">
+        <v>1.92</v>
+      </c>
+      <c r="AN136">
+        <v>2</v>
+      </c>
+      <c r="AO136">
+        <v>2.18</v>
+      </c>
+      <c r="AP136">
+        <v>1.83</v>
+      </c>
+      <c r="AQ136">
+        <v>2.25</v>
+      </c>
+      <c r="AR136">
+        <v>2.06</v>
+      </c>
+      <c r="AS136">
+        <v>1.32</v>
+      </c>
+      <c r="AT136">
+        <v>3.38</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>5</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="AY136">
+        <v>11</v>
+      </c>
+      <c r="AZ136">
+        <v>6</v>
+      </c>
+      <c r="BA136">
+        <v>7</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>1.64</v>
+      </c>
+      <c r="BE136">
+        <v>8</v>
+      </c>
+      <c r="BF136">
+        <v>2.67</v>
+      </c>
+      <c r="BG136">
+        <v>1.23</v>
+      </c>
+      <c r="BH136">
+        <v>3.6</v>
+      </c>
+      <c r="BI136">
+        <v>1.55</v>
+      </c>
+      <c r="BJ136">
+        <v>2.33</v>
+      </c>
+      <c r="BK136">
+        <v>1.8</v>
+      </c>
+      <c r="BL136">
+        <v>2</v>
+      </c>
+      <c r="BM136">
+        <v>2.4</v>
+      </c>
+      <c r="BN136">
+        <v>1.52</v>
+      </c>
+      <c r="BO136">
+        <v>2.95</v>
+      </c>
+      <c r="BP136">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7390072</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>70</v>
+      </c>
+      <c r="H137" t="s">
+        <v>75</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>183</v>
+      </c>
+      <c r="P137" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q137">
+        <v>2.5</v>
+      </c>
+      <c r="R137">
+        <v>2.3</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>1.33</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
+        <v>2.63</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>1.9</v>
+      </c>
+      <c r="AA137">
+        <v>3.6</v>
+      </c>
+      <c r="AB137">
+        <v>3.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.03</v>
+      </c>
+      <c r="AD137">
+        <v>12.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>3.95</v>
+      </c>
+      <c r="AG137">
+        <v>1.84</v>
+      </c>
+      <c r="AH137">
+        <v>2.02</v>
+      </c>
+      <c r="AI137">
+        <v>1.67</v>
+      </c>
+      <c r="AJ137">
+        <v>2.1</v>
+      </c>
+      <c r="AK137">
+        <v>1.24</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>2.36</v>
+      </c>
+      <c r="AO137">
+        <v>1.36</v>
+      </c>
+      <c r="AP137">
+        <v>2.17</v>
+      </c>
+      <c r="AQ137">
+        <v>1.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.65</v>
+      </c>
+      <c r="AS137">
+        <v>1.49</v>
+      </c>
+      <c r="AT137">
+        <v>3.14</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>12</v>
+      </c>
+      <c r="AZ137">
+        <v>9</v>
+      </c>
+      <c r="BA137">
+        <v>9</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>14</v>
+      </c>
+      <c r="BD137">
+        <v>1.82</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>2.33</v>
+      </c>
+      <c r="BG137">
+        <v>1.3</v>
+      </c>
+      <c r="BH137">
+        <v>3.1</v>
+      </c>
+      <c r="BI137">
+        <v>1.5</v>
+      </c>
+      <c r="BJ137">
+        <v>2.45</v>
+      </c>
+      <c r="BK137">
+        <v>2</v>
+      </c>
+      <c r="BL137">
+        <v>1.8</v>
+      </c>
+      <c r="BM137">
+        <v>2.3</v>
+      </c>
+      <c r="BN137">
+        <v>1.56</v>
+      </c>
+      <c r="BO137">
+        <v>3.45</v>
+      </c>
+      <c r="BP137">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7390073</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>72</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>184</v>
+      </c>
+      <c r="P138" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q138">
+        <v>3.75</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>3.1</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>10</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>3.01</v>
+      </c>
+      <c r="AA138">
+        <v>3.3</v>
+      </c>
+      <c r="AB138">
+        <v>2.44</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>8.85</v>
+      </c>
+      <c r="AE138">
+        <v>1.42</v>
+      </c>
+      <c r="AF138">
+        <v>2.85</v>
+      </c>
+      <c r="AG138">
+        <v>2.01</v>
+      </c>
+      <c r="AH138">
+        <v>1.75</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.63</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.36</v>
+      </c>
+      <c r="AN138">
+        <v>1.55</v>
+      </c>
+      <c r="AO138">
+        <v>1.64</v>
+      </c>
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.58</v>
+      </c>
+      <c r="AR138">
+        <v>1.42</v>
+      </c>
+      <c r="AS138">
+        <v>1.17</v>
+      </c>
+      <c r="AT138">
+        <v>2.59</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>12</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
+        <v>2.39</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>1.82</v>
+      </c>
+      <c r="BG138">
+        <v>1.38</v>
+      </c>
+      <c r="BH138">
+        <v>2.85</v>
+      </c>
+      <c r="BI138">
+        <v>1.68</v>
+      </c>
+      <c r="BJ138">
+        <v>2.08</v>
+      </c>
+      <c r="BK138">
+        <v>2</v>
+      </c>
+      <c r="BL138">
+        <v>1.8</v>
+      </c>
+      <c r="BM138">
+        <v>2.55</v>
+      </c>
+      <c r="BN138">
+        <v>1.45</v>
+      </c>
+      <c r="BO138">
+        <v>3.45</v>
+      </c>
+      <c r="BP138">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1155,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ3">
         <v>2.09</v>
@@ -3555,7 +3555,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ12">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -5203,7 +5203,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ20">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -6848,7 +6848,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
         <v>0.91</v>
@@ -8293,7 +8293,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ35">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -9320,7 +9320,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -11380,7 +11380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -12207,7 +12207,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ54">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -14061,7 +14061,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -15500,7 +15500,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
         <v>1.58</v>
@@ -16945,7 +16945,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17560,10 +17560,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -20653,7 +20653,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20856,7 +20856,7 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96">
         <v>2.25</v>
@@ -21474,7 +21474,7 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99">
         <v>0.91</v>
@@ -22507,7 +22507,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -25182,7 +25182,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -25803,7 +25803,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26627,7 +26627,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ124">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR124">
         <v>1.27</v>
@@ -27654,7 +27654,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ129">
         <v>0.45</v>
@@ -29793,6 +29793,212 @@
       </c>
       <c r="BP139">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7390075</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45387.58333333334</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>96</v>
+      </c>
+      <c r="P140" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q140">
+        <v>3.5</v>
+      </c>
+      <c r="R140">
+        <v>2.25</v>
+      </c>
+      <c r="S140">
+        <v>2.88</v>
+      </c>
+      <c r="T140">
+        <v>1.33</v>
+      </c>
+      <c r="U140">
+        <v>3.25</v>
+      </c>
+      <c r="V140">
+        <v>2.63</v>
+      </c>
+      <c r="W140">
+        <v>1.44</v>
+      </c>
+      <c r="X140">
+        <v>6.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.11</v>
+      </c>
+      <c r="Z140">
+        <v>3.03</v>
+      </c>
+      <c r="AA140">
+        <v>3.55</v>
+      </c>
+      <c r="AB140">
+        <v>2.28</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>9.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.25</v>
+      </c>
+      <c r="AF140">
+        <v>3.95</v>
+      </c>
+      <c r="AG140">
+        <v>1.72</v>
+      </c>
+      <c r="AH140">
+        <v>2.14</v>
+      </c>
+      <c r="AI140">
+        <v>1.62</v>
+      </c>
+      <c r="AJ140">
+        <v>2.2</v>
+      </c>
+      <c r="AK140">
+        <v>1.62</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.36</v>
+      </c>
+      <c r="AN140">
+        <v>1.45</v>
+      </c>
+      <c r="AO140">
+        <v>1.91</v>
+      </c>
+      <c r="AP140">
+        <v>1.42</v>
+      </c>
+      <c r="AQ140">
+        <v>1.83</v>
+      </c>
+      <c r="AR140">
+        <v>1.4</v>
+      </c>
+      <c r="AS140">
+        <v>1.19</v>
+      </c>
+      <c r="AT140">
+        <v>2.59</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>6</v>
+      </c>
+      <c r="AZ140">
+        <v>6</v>
+      </c>
+      <c r="BA140">
+        <v>7</v>
+      </c>
+      <c r="BB140">
+        <v>8</v>
+      </c>
+      <c r="BC140">
+        <v>15</v>
+      </c>
+      <c r="BD140">
+        <v>2.2</v>
+      </c>
+      <c r="BE140">
+        <v>8.5</v>
+      </c>
+      <c r="BF140">
+        <v>1.83</v>
+      </c>
+      <c r="BG140">
+        <v>1.1</v>
+      </c>
+      <c r="BH140">
+        <v>5.4</v>
+      </c>
+      <c r="BI140">
+        <v>1.36</v>
+      </c>
+      <c r="BJ140">
+        <v>2.9</v>
+      </c>
+      <c r="BK140">
+        <v>1.62</v>
+      </c>
+      <c r="BL140">
+        <v>2.18</v>
+      </c>
+      <c r="BM140">
+        <v>1.73</v>
+      </c>
+      <c r="BN140">
+        <v>2</v>
+      </c>
+      <c r="BO140">
+        <v>2.5</v>
+      </c>
+      <c r="BP140">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['3', '71']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['22', '29']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -794,6 +800,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['3', '13', '90']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1620,7 +1629,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1701,7 +1710,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ3">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1904,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.83</v>
@@ -2032,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2113,7 +2122,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ5">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2444,7 +2453,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2522,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ7">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2650,7 +2659,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2856,7 +2865,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2934,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3268,7 +3277,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3474,7 +3483,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3680,7 +3689,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3758,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3886,7 +3895,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4173,7 +4182,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4298,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4376,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ16">
         <v>1.58</v>
@@ -4504,7 +4513,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4585,7 +4594,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -4710,7 +4719,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4788,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
         <v>2.25</v>
@@ -4916,7 +4925,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -4997,7 +5006,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -5122,7 +5131,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5328,7 +5337,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5406,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5534,7 +5543,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5946,7 +5955,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6024,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.91</v>
@@ -6358,7 +6367,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6436,10 +6445,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ26">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -6851,7 +6860,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -6976,7 +6985,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7182,7 +7191,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7675,7 +7684,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7800,7 +7809,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8084,7 +8093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.58</v>
@@ -8212,7 +8221,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8290,7 +8299,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ35">
         <v>1.83</v>
@@ -8496,10 +8505,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8624,7 +8633,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8702,7 +8711,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ37">
         <v>2.25</v>
@@ -8830,7 +8839,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9242,7 +9251,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9529,7 +9538,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -9735,7 +9744,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10066,7 +10075,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10147,7 +10156,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10272,7 +10281,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10350,10 +10359,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ45">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10478,7 +10487,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10556,10 +10565,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10684,7 +10693,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10762,7 +10771,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ47">
         <v>0.58</v>
@@ -10890,7 +10899,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10968,7 +10977,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -11096,7 +11105,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11508,7 +11517,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11589,7 +11598,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ51">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -11795,7 +11804,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -11920,7 +11929,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12126,7 +12135,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12410,7 +12419,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12538,7 +12547,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12619,7 +12628,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13028,7 +13037,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13156,7 +13165,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13234,7 +13243,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ59">
         <v>2.25</v>
@@ -13362,7 +13371,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13568,7 +13577,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13980,7 +13989,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14058,7 +14067,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ63">
         <v>1.83</v>
@@ -14186,7 +14195,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14264,7 +14273,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14473,7 +14482,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ65">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14598,7 +14607,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14679,7 +14688,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14804,7 +14813,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14882,10 +14891,10 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15010,7 +15019,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15088,7 +15097,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ68">
         <v>0.91</v>
@@ -15422,7 +15431,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15628,7 +15637,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15834,7 +15843,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16040,7 +16049,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16121,7 +16130,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -16658,7 +16667,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16736,10 +16745,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ76">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17354,10 +17363,10 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17482,7 +17491,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17766,7 +17775,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18100,7 +18109,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18181,7 +18190,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18306,7 +18315,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18384,10 +18393,10 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -18512,7 +18521,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18799,7 +18808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19208,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ88">
         <v>0.58</v>
@@ -19542,7 +19551,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19826,10 +19835,10 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -19954,7 +19963,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20032,7 +20041,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20160,7 +20169,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20241,7 +20250,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20444,7 +20453,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ94">
         <v>1.58</v>
@@ -20778,7 +20787,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20984,7 +20993,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21065,7 +21074,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21602,7 +21611,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22014,7 +22023,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22220,7 +22229,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22301,7 +22310,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ103">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22426,7 +22435,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22632,7 +22641,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22710,7 +22719,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ105">
         <v>0.58</v>
@@ -22838,7 +22847,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22916,10 +22925,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ106">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR106">
         <v>1.09</v>
@@ -23044,7 +23053,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23125,7 +23134,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23331,7 +23340,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23534,7 +23543,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>1.58</v>
@@ -23868,7 +23877,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -23946,10 +23955,10 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ111">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.09</v>
@@ -24152,7 +24161,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ112">
         <v>0.91</v>
@@ -24280,7 +24289,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24486,7 +24495,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24564,10 +24573,10 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -24979,7 +24988,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ116">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25104,7 +25113,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25391,7 +25400,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25722,7 +25731,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25800,7 +25809,7 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.83</v>
@@ -26006,7 +26015,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ121">
         <v>0.91</v>
@@ -26134,7 +26143,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26212,7 +26221,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ122">
         <v>1.5</v>
@@ -26340,7 +26349,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26546,7 +26555,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26624,7 +26633,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ124">
         <v>1.83</v>
@@ -26958,7 +26967,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27245,7 +27254,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27370,7 +27379,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27451,7 +27460,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ128">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27657,7 +27666,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ129">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -27782,7 +27791,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27860,10 +27869,10 @@
         <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28272,7 +28281,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>0.75</v>
@@ -28606,7 +28615,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29018,7 +29027,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29224,7 +29233,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29430,7 +29439,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29636,7 +29645,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29941,16 +29950,16 @@
         <v>2</v>
       </c>
       <c r="AW140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA140">
         <v>7</v>
@@ -29999,6 +30008,830 @@
       </c>
       <c r="BP140">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7390077</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45389.375</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>175</v>
+      </c>
+      <c r="P141" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q141">
+        <v>3.5</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>3.2</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.8</v>
+      </c>
+      <c r="AA141">
+        <v>3.1</v>
+      </c>
+      <c r="AB141">
+        <v>2.5</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.35</v>
+      </c>
+      <c r="AF141">
+        <v>3.1</v>
+      </c>
+      <c r="AG141">
+        <v>2</v>
+      </c>
+      <c r="AH141">
+        <v>1.73</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.95</v>
+      </c>
+      <c r="AK141">
+        <v>1.53</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.38</v>
+      </c>
+      <c r="AN141">
+        <v>1.09</v>
+      </c>
+      <c r="AO141">
+        <v>0.45</v>
+      </c>
+      <c r="AP141">
+        <v>1.08</v>
+      </c>
+      <c r="AQ141">
+        <v>0.5</v>
+      </c>
+      <c r="AR141">
+        <v>1.24</v>
+      </c>
+      <c r="AS141">
+        <v>1.25</v>
+      </c>
+      <c r="AT141">
+        <v>2.49</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>8</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>12</v>
+      </c>
+      <c r="BD141">
+        <v>2.77</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>1.64</v>
+      </c>
+      <c r="BG141">
+        <v>1.33</v>
+      </c>
+      <c r="BH141">
+        <v>3.05</v>
+      </c>
+      <c r="BI141">
+        <v>1.57</v>
+      </c>
+      <c r="BJ141">
+        <v>2.28</v>
+      </c>
+      <c r="BK141">
+        <v>1.98</v>
+      </c>
+      <c r="BL141">
+        <v>1.82</v>
+      </c>
+      <c r="BM141">
+        <v>2.5</v>
+      </c>
+      <c r="BN141">
+        <v>1.48</v>
+      </c>
+      <c r="BO141">
+        <v>3.3</v>
+      </c>
+      <c r="BP141">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7390076</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45389.375</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>78</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>185</v>
+      </c>
+      <c r="P142" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q142">
+        <v>4.5</v>
+      </c>
+      <c r="R142">
+        <v>2.3</v>
+      </c>
+      <c r="S142">
+        <v>2.38</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.63</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>6.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.11</v>
+      </c>
+      <c r="Z142">
+        <v>4.2</v>
+      </c>
+      <c r="AA142">
+        <v>3.8</v>
+      </c>
+      <c r="AB142">
+        <v>1.73</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>9.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.99</v>
+      </c>
+      <c r="AG142">
+        <v>1.67</v>
+      </c>
+      <c r="AH142">
+        <v>2.1</v>
+      </c>
+      <c r="AI142">
+        <v>1.7</v>
+      </c>
+      <c r="AJ142">
+        <v>2.05</v>
+      </c>
+      <c r="AK142">
+        <v>1.95</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>1.22</v>
+      </c>
+      <c r="AN142">
+        <v>0.18</v>
+      </c>
+      <c r="AO142">
+        <v>0.91</v>
+      </c>
+      <c r="AP142">
+        <v>0.17</v>
+      </c>
+      <c r="AQ142">
+        <v>1.08</v>
+      </c>
+      <c r="AR142">
+        <v>1.12</v>
+      </c>
+      <c r="AS142">
+        <v>1.3</v>
+      </c>
+      <c r="AT142">
+        <v>2.42</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>7</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>8</v>
+      </c>
+      <c r="AY142">
+        <v>10</v>
+      </c>
+      <c r="AZ142">
+        <v>15</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>3</v>
+      </c>
+      <c r="BD142">
+        <v>2.43</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>1.75</v>
+      </c>
+      <c r="BG142">
+        <v>1.22</v>
+      </c>
+      <c r="BH142">
+        <v>4.36</v>
+      </c>
+      <c r="BI142">
+        <v>1.38</v>
+      </c>
+      <c r="BJ142">
+        <v>2.85</v>
+      </c>
+      <c r="BK142">
+        <v>1.65</v>
+      </c>
+      <c r="BL142">
+        <v>2.13</v>
+      </c>
+      <c r="BM142">
+        <v>2</v>
+      </c>
+      <c r="BN142">
+        <v>1.8</v>
+      </c>
+      <c r="BO142">
+        <v>2.6</v>
+      </c>
+      <c r="BP142">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7390078</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45389.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>186</v>
+      </c>
+      <c r="P143" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q143">
+        <v>3.3</v>
+      </c>
+      <c r="R143">
+        <v>2.15</v>
+      </c>
+      <c r="S143">
+        <v>2.85</v>
+      </c>
+      <c r="T143">
+        <v>1.33</v>
+      </c>
+      <c r="U143">
+        <v>3.31</v>
+      </c>
+      <c r="V143">
+        <v>2.59</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>5.75</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>2.8</v>
+      </c>
+      <c r="AA143">
+        <v>3.3</v>
+      </c>
+      <c r="AB143">
+        <v>2.38</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.22</v>
+      </c>
+      <c r="AF143">
+        <v>4.2</v>
+      </c>
+      <c r="AG143">
+        <v>1.73</v>
+      </c>
+      <c r="AH143">
+        <v>2</v>
+      </c>
+      <c r="AI143">
+        <v>1.55</v>
+      </c>
+      <c r="AJ143">
+        <v>2.25</v>
+      </c>
+      <c r="AK143">
+        <v>1.62</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.42</v>
+      </c>
+      <c r="AN143">
+        <v>2</v>
+      </c>
+      <c r="AO143">
+        <v>2.09</v>
+      </c>
+      <c r="AP143">
+        <v>2.08</v>
+      </c>
+      <c r="AQ143">
+        <v>1.92</v>
+      </c>
+      <c r="AR143">
+        <v>1.79</v>
+      </c>
+      <c r="AS143">
+        <v>1.62</v>
+      </c>
+      <c r="AT143">
+        <v>3.41</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>10</v>
+      </c>
+      <c r="AX143">
+        <v>15</v>
+      </c>
+      <c r="AY143">
+        <v>15</v>
+      </c>
+      <c r="AZ143">
+        <v>19</v>
+      </c>
+      <c r="BA143">
+        <v>12</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>16</v>
+      </c>
+      <c r="BD143">
+        <v>1.75</v>
+      </c>
+      <c r="BE143">
+        <v>8</v>
+      </c>
+      <c r="BF143">
+        <v>2.44</v>
+      </c>
+      <c r="BG143">
+        <v>1.24</v>
+      </c>
+      <c r="BH143">
+        <v>4.01</v>
+      </c>
+      <c r="BI143">
+        <v>1.4</v>
+      </c>
+      <c r="BJ143">
+        <v>2.75</v>
+      </c>
+      <c r="BK143">
+        <v>1.73</v>
+      </c>
+      <c r="BL143">
+        <v>2</v>
+      </c>
+      <c r="BM143">
+        <v>2.05</v>
+      </c>
+      <c r="BN143">
+        <v>1.7</v>
+      </c>
+      <c r="BO143">
+        <v>2.65</v>
+      </c>
+      <c r="BP143">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7390079</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45389.54166666666</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>96</v>
+      </c>
+      <c r="P144" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.25</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>9</v>
+      </c>
+      <c r="Y144">
+        <v>1.07</v>
+      </c>
+      <c r="Z144">
+        <v>3.1</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>2.25</v>
+      </c>
+      <c r="AC144">
+        <v>1.06</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.33</v>
+      </c>
+      <c r="AF144">
+        <v>3.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.99</v>
+      </c>
+      <c r="AH144">
+        <v>1.83</v>
+      </c>
+      <c r="AI144">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>1.62</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.35</v>
+      </c>
+      <c r="AN144">
+        <v>1.64</v>
+      </c>
+      <c r="AO144">
+        <v>2</v>
+      </c>
+      <c r="AP144">
+        <v>1.5</v>
+      </c>
+      <c r="AQ144">
+        <v>2.08</v>
+      </c>
+      <c r="AR144">
+        <v>1.52</v>
+      </c>
+      <c r="AS144">
+        <v>1.5</v>
+      </c>
+      <c r="AT144">
+        <v>3.02</v>
+      </c>
+      <c r="AU144">
+        <v>0</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>2</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>2</v>
+      </c>
+      <c r="AZ144">
+        <v>5</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>2</v>
+      </c>
+      <c r="BD144">
+        <v>2.1</v>
+      </c>
+      <c r="BE144">
+        <v>7.5</v>
+      </c>
+      <c r="BF144">
+        <v>1.95</v>
+      </c>
+      <c r="BG144">
+        <v>1.38</v>
+      </c>
+      <c r="BH144">
+        <v>2.85</v>
+      </c>
+      <c r="BI144">
+        <v>1.68</v>
+      </c>
+      <c r="BJ144">
+        <v>2.08</v>
+      </c>
+      <c r="BK144">
+        <v>2</v>
+      </c>
+      <c r="BL144">
+        <v>1.73</v>
+      </c>
+      <c r="BM144">
+        <v>2.7</v>
+      </c>
+      <c r="BN144">
+        <v>1.42</v>
+      </c>
+      <c r="BO144">
+        <v>4.1</v>
+      </c>
+      <c r="BP144">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -30562,22 +30562,22 @@
         <v>3.41</v>
       </c>
       <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
         <v>5</v>
       </c>
-      <c r="AV143">
-        <v>4</v>
-      </c>
       <c r="AW143">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AX143">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY143">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ143">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA143">
         <v>12</v>
@@ -30768,31 +30768,31 @@
         <v>3.02</v>
       </c>
       <c r="AU144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW144">
         <v>2</v>
       </c>
       <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>5</v>
+      </c>
+      <c r="AZ144">
+        <v>8</v>
+      </c>
+      <c r="BA144">
+        <v>5</v>
+      </c>
+      <c r="BB144">
         <v>3</v>
       </c>
-      <c r="AY144">
-        <v>2</v>
-      </c>
-      <c r="AZ144">
-        <v>5</v>
-      </c>
-      <c r="BA144">
-        <v>1</v>
-      </c>
-      <c r="BB144">
-        <v>1</v>
-      </c>
       <c r="BC144">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD144">
         <v>2.1</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['22', '29']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
   </si>
   <si>
     <t>['3', '13', '90']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1635,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2041,7 +2047,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2453,7 +2459,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2659,7 +2665,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2865,7 +2871,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3152,7 +3158,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3277,7 +3283,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3483,7 +3489,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3561,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.83</v>
@@ -3689,7 +3695,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3895,7 +3901,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4307,7 +4313,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4513,7 +4519,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4719,7 +4725,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4925,7 +4931,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5131,7 +5137,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5337,7 +5343,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5543,7 +5549,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5827,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.58</v>
@@ -5955,7 +5961,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6036,7 +6042,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6367,7 +6373,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6985,7 +6991,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7191,7 +7197,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7809,7 +7815,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7890,7 +7896,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8221,7 +8227,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8633,7 +8639,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8839,7 +8845,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9251,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9535,7 +9541,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1.08</v>
@@ -10075,7 +10081,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10281,7 +10287,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10487,7 +10493,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10693,7 +10699,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10899,7 +10905,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11105,7 +11111,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11186,7 +11192,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ49">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11517,7 +11523,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11595,7 +11601,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.92</v>
@@ -11929,7 +11935,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12135,7 +12141,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12547,7 +12553,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12834,7 +12840,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13165,7 +13171,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13371,7 +13377,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13577,7 +13583,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13989,7 +13995,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14195,7 +14201,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14479,7 +14485,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14607,7 +14613,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14813,7 +14819,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15019,7 +15025,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15100,7 +15106,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15431,7 +15437,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15637,7 +15643,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15843,7 +15849,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16049,7 +16055,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16667,7 +16673,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17157,7 +17163,7 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17491,7 +17497,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17984,7 +17990,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18109,7 +18115,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18315,7 +18321,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18521,7 +18527,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18599,7 +18605,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.58</v>
@@ -19551,7 +19557,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19963,7 +19969,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20169,7 +20175,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20787,7 +20793,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20993,7 +20999,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21486,7 +21492,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ99">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21611,7 +21617,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21895,7 +21901,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22023,7 +22029,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22229,7 +22235,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22435,7 +22441,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22641,7 +22647,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22847,7 +22853,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23053,7 +23059,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23337,7 +23343,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>2.08</v>
@@ -23877,7 +23883,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24164,7 +24170,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ112">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR112">
         <v>1.22</v>
@@ -24289,7 +24295,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24495,7 +24501,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25113,7 +25119,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25603,7 +25609,7 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>0.83</v>
@@ -25731,7 +25737,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26018,7 +26024,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ121">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26143,7 +26149,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26349,7 +26355,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26555,7 +26561,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26967,7 +26973,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27379,7 +27385,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27791,7 +27797,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28487,10 +28493,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.57</v>
@@ -28615,7 +28621,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29027,7 +29033,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29233,7 +29239,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29439,7 +29445,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29645,7 +29651,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30263,7 +30269,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30832,6 +30838,212 @@
       </c>
       <c r="BP144">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7390080</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>1.5</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.48</v>
+      </c>
+      <c r="AA145">
+        <v>4</v>
+      </c>
+      <c r="AB145">
+        <v>5.25</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
+        <v>4.2</v>
+      </c>
+      <c r="AG145">
+        <v>1.65</v>
+      </c>
+      <c r="AH145">
+        <v>2.05</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.95</v>
+      </c>
+      <c r="AK145">
+        <v>1.08</v>
+      </c>
+      <c r="AL145">
+        <v>1.15</v>
+      </c>
+      <c r="AM145">
+        <v>2.8</v>
+      </c>
+      <c r="AN145">
+        <v>2.09</v>
+      </c>
+      <c r="AO145">
+        <v>0.91</v>
+      </c>
+      <c r="AP145">
+        <v>2</v>
+      </c>
+      <c r="AQ145">
+        <v>0.92</v>
+      </c>
+      <c r="AR145">
+        <v>1.59</v>
+      </c>
+      <c r="AS145">
+        <v>1.16</v>
+      </c>
+      <c r="AT145">
+        <v>2.75</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>8</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>8</v>
+      </c>
+      <c r="BD145">
+        <v>1.35</v>
+      </c>
+      <c r="BE145">
+        <v>9.25</v>
+      </c>
+      <c r="BF145">
+        <v>5.1</v>
+      </c>
+      <c r="BG145">
+        <v>1.32</v>
+      </c>
+      <c r="BH145">
+        <v>3.36</v>
+      </c>
+      <c r="BI145">
+        <v>1.58</v>
+      </c>
+      <c r="BJ145">
+        <v>2.38</v>
+      </c>
+      <c r="BK145">
+        <v>1.77</v>
+      </c>
+      <c r="BL145">
+        <v>1.95</v>
+      </c>
+      <c r="BM145">
+        <v>2.51</v>
+      </c>
+      <c r="BN145">
+        <v>1.53</v>
+      </c>
+      <c r="BO145">
+        <v>3.44</v>
+      </c>
+      <c r="BP145">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -810,6 +810,9 @@
   <si>
     <t>['80']</t>
   </si>
+  <si>
+    <t>['21', '80', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ5">
         <v>1.08</v>
@@ -2540,7 +2543,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5009,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -7275,7 +7278,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ30">
         <v>1.58</v>
@@ -7690,7 +7693,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8923,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ38">
         <v>0.83</v>
@@ -9750,7 +9753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -11189,7 +11192,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ49">
         <v>0.92</v>
@@ -11810,7 +11813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -13661,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ61">
         <v>0.58</v>
@@ -14488,7 +14491,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -16133,7 +16136,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ73">
         <v>2.08</v>
@@ -16754,7 +16757,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -19635,7 +19638,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -19844,7 +19847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -21695,7 +21698,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -22316,7 +22319,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -23964,7 +23967,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ111">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111">
         <v>1.09</v>
@@ -24373,7 +24376,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ113">
         <v>2.25</v>
@@ -27463,7 +27466,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ128">
         <v>1.92</v>
@@ -27672,7 +27675,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ129">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -29729,7 +29732,7 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ139">
         <v>0.83</v>
@@ -30144,7 +30147,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141">
         <v>1.24</v>
@@ -31044,6 +31047,212 @@
       </c>
       <c r="BP145">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7390081</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45394.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>113</v>
+      </c>
+      <c r="P146" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q146">
+        <v>2.85</v>
+      </c>
+      <c r="R146">
+        <v>2.15</v>
+      </c>
+      <c r="S146">
+        <v>3.5</v>
+      </c>
+      <c r="T146">
+        <v>1.38</v>
+      </c>
+      <c r="U146">
+        <v>2.9</v>
+      </c>
+      <c r="V146">
+        <v>2.65</v>
+      </c>
+      <c r="W146">
+        <v>1.42</v>
+      </c>
+      <c r="X146">
+        <v>6</v>
+      </c>
+      <c r="Y146">
+        <v>1.09</v>
+      </c>
+      <c r="Z146">
+        <v>2.36</v>
+      </c>
+      <c r="AA146">
+        <v>3.34</v>
+      </c>
+      <c r="AB146">
+        <v>2.9</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>12.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.27</v>
+      </c>
+      <c r="AF146">
+        <v>3.8</v>
+      </c>
+      <c r="AG146">
+        <v>1.81</v>
+      </c>
+      <c r="AH146">
+        <v>1.98</v>
+      </c>
+      <c r="AI146">
+        <v>1.68</v>
+      </c>
+      <c r="AJ146">
+        <v>2.15</v>
+      </c>
+      <c r="AK146">
+        <v>1.38</v>
+      </c>
+      <c r="AL146">
+        <v>1.32</v>
+      </c>
+      <c r="AM146">
+        <v>1.6</v>
+      </c>
+      <c r="AN146">
+        <v>0.25</v>
+      </c>
+      <c r="AO146">
+        <v>0.5</v>
+      </c>
+      <c r="AP146">
+        <v>0.23</v>
+      </c>
+      <c r="AQ146">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR146">
+        <v>1.36</v>
+      </c>
+      <c r="AS146">
+        <v>1.24</v>
+      </c>
+      <c r="AT146">
+        <v>2.6</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>8</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>6</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>1.97</v>
+      </c>
+      <c r="BE146">
+        <v>8.9</v>
+      </c>
+      <c r="BF146">
+        <v>2.11</v>
+      </c>
+      <c r="BG146">
+        <v>1.26</v>
+      </c>
+      <c r="BH146">
+        <v>3.5</v>
+      </c>
+      <c r="BI146">
+        <v>1.46</v>
+      </c>
+      <c r="BJ146">
+        <v>2.55</v>
+      </c>
+      <c r="BK146">
+        <v>1.78</v>
+      </c>
+      <c r="BL146">
+        <v>1.95</v>
+      </c>
+      <c r="BM146">
+        <v>2.25</v>
+      </c>
+      <c r="BN146">
+        <v>1.59</v>
+      </c>
+      <c r="BO146">
+        <v>2.9</v>
+      </c>
+      <c r="BP146">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['8', '90+2']</t>
+  </si>
+  <si>
+    <t>['20', '41']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -727,9 +736,6 @@
     <t>['19', '28', '43', '90']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['57', '62']</t>
   </si>
   <si>
@@ -812,6 +818,15 @@
   </si>
   <si>
     <t>['21', '80', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '57']</t>
+  </si>
+  <si>
+    <t>['5', '55']</t>
+  </si>
+  <si>
+    <t>['11', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1638,7 +1653,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1716,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1922,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4">
         <v>0.83</v>
@@ -2050,7 +2065,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2131,7 +2146,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ5">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2337,7 +2352,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2462,7 +2477,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2668,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2874,7 +2889,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2952,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3158,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -3286,7 +3301,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3367,7 +3382,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3492,7 +3507,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3698,7 +3713,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3776,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3904,7 +3919,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4191,7 +4206,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4316,7 +4331,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4522,7 +4537,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4600,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
         <v>2.08</v>
@@ -4728,7 +4743,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4809,7 +4824,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ18">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -4934,7 +4949,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5140,7 +5155,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5346,7 +5361,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5424,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>2.08</v>
@@ -5552,7 +5567,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5964,7 +5979,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6042,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ24">
         <v>0.92</v>
@@ -6251,7 +6266,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6376,7 +6391,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6457,7 +6472,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ26">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -6866,10 +6881,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -6994,7 +7009,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7072,10 +7087,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7200,7 +7215,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7818,7 +7833,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8102,7 +8117,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ34">
         <v>0.58</v>
@@ -8230,7 +8245,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8642,7 +8657,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8720,10 +8735,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8848,7 +8863,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9135,7 +9150,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9260,7 +9275,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9338,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9547,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -9956,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ43">
         <v>1.58</v>
@@ -10084,7 +10099,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10290,7 +10305,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10371,7 +10386,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ45">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10496,7 +10511,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10574,10 +10589,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10702,7 +10717,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10908,7 +10923,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10986,10 +11001,10 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11114,7 +11129,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11398,7 +11413,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11526,7 +11541,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11607,7 +11622,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -11938,7 +11953,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12144,7 +12159,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12222,7 +12237,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ54">
         <v>1.83</v>
@@ -12431,7 +12446,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12556,7 +12571,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13046,7 +13061,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13174,7 +13189,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13255,7 +13270,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ59">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13380,7 +13395,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13586,7 +13601,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13998,7 +14013,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14204,7 +14219,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14282,10 +14297,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR64">
         <v>1.09</v>
@@ -14616,7 +14631,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14694,10 +14709,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14822,7 +14837,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14900,10 +14915,10 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ67">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15028,7 +15043,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15440,7 +15455,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15518,7 +15533,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.58</v>
@@ -15646,7 +15661,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15852,7 +15867,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15933,7 +15948,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -16058,7 +16073,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16342,7 +16357,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ74">
         <v>0.58</v>
@@ -16551,7 +16566,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16676,7 +16691,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16754,7 +16769,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>0.6899999999999999</v>
@@ -17372,10 +17387,10 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17500,7 +17515,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17578,7 +17593,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.83</v>
@@ -18118,7 +18133,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18199,7 +18214,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18324,7 +18339,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18530,7 +18545,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18817,7 +18832,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19023,7 +19038,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19226,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.58</v>
@@ -19432,7 +19447,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19560,7 +19575,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19641,7 +19656,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19844,7 +19859,7 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ91">
         <v>0.6899999999999999</v>
@@ -19972,7 +19987,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20178,7 +20193,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20259,7 +20274,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20796,7 +20811,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20874,10 +20889,10 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -21002,7 +21017,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21492,7 +21507,7 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
         <v>0.92</v>
@@ -21620,7 +21635,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21907,7 +21922,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22032,7 +22047,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22238,7 +22253,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22316,7 +22331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -22444,7 +22459,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22650,7 +22665,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22856,7 +22871,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22937,7 +22952,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ106">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR106">
         <v>1.09</v>
@@ -23062,7 +23077,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23143,7 +23158,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23552,7 +23567,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.58</v>
@@ -23886,7 +23901,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24170,7 +24185,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>0.92</v>
@@ -24298,7 +24313,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24379,7 +24394,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ113">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24504,7 +24519,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24582,7 +24597,7 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ114">
         <v>2.08</v>
@@ -24994,10 +25009,10 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ116">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25122,7 +25137,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25200,10 +25215,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25409,7 +25424,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25740,7 +25755,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25818,7 +25833,7 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ120">
         <v>1.83</v>
@@ -26152,7 +26167,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26358,7 +26373,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26564,7 +26579,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26642,7 +26657,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.83</v>
@@ -26976,7 +26991,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27057,7 +27072,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27388,7 +27403,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27469,7 +27484,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ128">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27672,7 +27687,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>0.6899999999999999</v>
@@ -27800,7 +27815,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27881,7 +27896,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ130">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28084,7 +28099,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ131">
         <v>0.83</v>
@@ -28290,10 +28305,10 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR132">
         <v>1.54</v>
@@ -28624,7 +28639,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28911,7 +28926,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -29036,7 +29051,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29117,7 +29132,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ136">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR136">
         <v>2.06</v>
@@ -29242,7 +29257,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29320,7 +29335,7 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29448,7 +29463,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29654,7 +29669,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29938,7 +29953,7 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>1.83</v>
@@ -30144,7 +30159,7 @@
         <v>0.45</v>
       </c>
       <c r="AP141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>0.6899999999999999</v>
@@ -30272,7 +30287,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30353,7 +30368,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ142">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30559,7 +30574,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ143">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR143">
         <v>1.79</v>
@@ -30762,7 +30777,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ144">
         <v>2.08</v>
@@ -30890,7 +30905,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31096,7 +31111,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31253,6 +31268,830 @@
       </c>
       <c r="BP146">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7390082</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>83</v>
+      </c>
+      <c r="P147" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q147">
+        <v>2.38</v>
+      </c>
+      <c r="R147">
+        <v>2.3</v>
+      </c>
+      <c r="S147">
+        <v>4.5</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.11</v>
+      </c>
+      <c r="Z147">
+        <v>1.69</v>
+      </c>
+      <c r="AA147">
+        <v>3.95</v>
+      </c>
+      <c r="AB147">
+        <v>4.5</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>10</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>4</v>
+      </c>
+      <c r="AG147">
+        <v>1.76</v>
+      </c>
+      <c r="AH147">
+        <v>2.11</v>
+      </c>
+      <c r="AI147">
+        <v>1.7</v>
+      </c>
+      <c r="AJ147">
+        <v>2.05</v>
+      </c>
+      <c r="AK147">
+        <v>1.22</v>
+      </c>
+      <c r="AL147">
+        <v>1.26</v>
+      </c>
+      <c r="AM147">
+        <v>2.04</v>
+      </c>
+      <c r="AN147">
+        <v>1.42</v>
+      </c>
+      <c r="AO147">
+        <v>0.75</v>
+      </c>
+      <c r="AP147">
+        <v>1.38</v>
+      </c>
+      <c r="AQ147">
+        <v>0.77</v>
+      </c>
+      <c r="AR147">
+        <v>1.35</v>
+      </c>
+      <c r="AS147">
+        <v>1.13</v>
+      </c>
+      <c r="AT147">
+        <v>2.48</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>10</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>5</v>
+      </c>
+      <c r="BD147">
+        <v>1.82</v>
+      </c>
+      <c r="BE147">
+        <v>8.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.32</v>
+      </c>
+      <c r="BG147">
+        <v>1.12</v>
+      </c>
+      <c r="BH147">
+        <v>5</v>
+      </c>
+      <c r="BI147">
+        <v>1.32</v>
+      </c>
+      <c r="BJ147">
+        <v>3.1</v>
+      </c>
+      <c r="BK147">
+        <v>1.52</v>
+      </c>
+      <c r="BL147">
+        <v>2.4</v>
+      </c>
+      <c r="BM147">
+        <v>1.85</v>
+      </c>
+      <c r="BN147">
+        <v>1.87</v>
+      </c>
+      <c r="BO147">
+        <v>2.35</v>
+      </c>
+      <c r="BP147">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7390083</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>77</v>
+      </c>
+      <c r="H148" t="s">
+        <v>78</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>188</v>
+      </c>
+      <c r="P148" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q148">
+        <v>3.6</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3.1</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>9</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>2.95</v>
+      </c>
+      <c r="AA148">
+        <v>3.2</v>
+      </c>
+      <c r="AB148">
+        <v>2.38</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>7.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.33</v>
+      </c>
+      <c r="AF148">
+        <v>3</v>
+      </c>
+      <c r="AG148">
+        <v>2.16</v>
+      </c>
+      <c r="AH148">
+        <v>1.72</v>
+      </c>
+      <c r="AI148">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.55</v>
+      </c>
+      <c r="AL148">
+        <v>1.35</v>
+      </c>
+      <c r="AM148">
+        <v>1.4</v>
+      </c>
+      <c r="AN148">
+        <v>1.08</v>
+      </c>
+      <c r="AO148">
+        <v>1.08</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+      <c r="AQ148">
+        <v>1.23</v>
+      </c>
+      <c r="AR148">
+        <v>1.25</v>
+      </c>
+      <c r="AS148">
+        <v>1.35</v>
+      </c>
+      <c r="AT148">
+        <v>2.6</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>1</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>5</v>
+      </c>
+      <c r="AZ148">
+        <v>11</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>10</v>
+      </c>
+      <c r="BD148">
+        <v>2.54</v>
+      </c>
+      <c r="BE148">
+        <v>8</v>
+      </c>
+      <c r="BF148">
+        <v>1.69</v>
+      </c>
+      <c r="BG148">
+        <v>1.25</v>
+      </c>
+      <c r="BH148">
+        <v>3.6</v>
+      </c>
+      <c r="BI148">
+        <v>1.46</v>
+      </c>
+      <c r="BJ148">
+        <v>2.55</v>
+      </c>
+      <c r="BK148">
+        <v>1.75</v>
+      </c>
+      <c r="BL148">
+        <v>1.98</v>
+      </c>
+      <c r="BM148">
+        <v>2.2</v>
+      </c>
+      <c r="BN148">
+        <v>1.61</v>
+      </c>
+      <c r="BO148">
+        <v>2.85</v>
+      </c>
+      <c r="BP148">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7390084</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>189</v>
+      </c>
+      <c r="P149" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>2.88</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>9</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>3.5</v>
+      </c>
+      <c r="AA149">
+        <v>3.4</v>
+      </c>
+      <c r="AB149">
+        <v>2.1</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.35</v>
+      </c>
+      <c r="AF149">
+        <v>3.1</v>
+      </c>
+      <c r="AG149">
+        <v>2.1</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.91</v>
+      </c>
+      <c r="AK149">
+        <v>1.72</v>
+      </c>
+      <c r="AL149">
+        <v>1.32</v>
+      </c>
+      <c r="AM149">
+        <v>1.31</v>
+      </c>
+      <c r="AN149">
+        <v>1.5</v>
+      </c>
+      <c r="AO149">
+        <v>2.25</v>
+      </c>
+      <c r="AP149">
+        <v>1.46</v>
+      </c>
+      <c r="AQ149">
+        <v>2.15</v>
+      </c>
+      <c r="AR149">
+        <v>1.47</v>
+      </c>
+      <c r="AS149">
+        <v>1.29</v>
+      </c>
+      <c r="AT149">
+        <v>2.76</v>
+      </c>
+      <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>2.1</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>1.95</v>
+      </c>
+      <c r="BG149">
+        <v>1.5</v>
+      </c>
+      <c r="BH149">
+        <v>2.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.85</v>
+      </c>
+      <c r="BJ149">
+        <v>1.85</v>
+      </c>
+      <c r="BK149">
+        <v>2.4</v>
+      </c>
+      <c r="BL149">
+        <v>1.5</v>
+      </c>
+      <c r="BM149">
+        <v>3.2</v>
+      </c>
+      <c r="BN149">
+        <v>1.3</v>
+      </c>
+      <c r="BO149">
+        <v>2.9</v>
+      </c>
+      <c r="BP149">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7390085</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45396.54166666666</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>80</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>190</v>
+      </c>
+      <c r="P150" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q150">
+        <v>3.25</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3.2</v>
+      </c>
+      <c r="T150">
+        <v>1.36</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>2.75</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>7</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>2.69</v>
+      </c>
+      <c r="AA150">
+        <v>3.29</v>
+      </c>
+      <c r="AB150">
+        <v>2.55</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>9.9</v>
+      </c>
+      <c r="AE150">
+        <v>1.23</v>
+      </c>
+      <c r="AF150">
+        <v>3.58</v>
+      </c>
+      <c r="AG150">
+        <v>1.82</v>
+      </c>
+      <c r="AH150">
+        <v>1.97</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.52</v>
+      </c>
+      <c r="AL150">
+        <v>1.3</v>
+      </c>
+      <c r="AM150">
+        <v>1.49</v>
+      </c>
+      <c r="AN150">
+        <v>2.17</v>
+      </c>
+      <c r="AO150">
+        <v>1.92</v>
+      </c>
+      <c r="AP150">
+        <v>2.08</v>
+      </c>
+      <c r="AQ150">
+        <v>1.85</v>
+      </c>
+      <c r="AR150">
+        <v>1.65</v>
+      </c>
+      <c r="AS150">
+        <v>1.64</v>
+      </c>
+      <c r="AT150">
+        <v>3.29</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>9</v>
+      </c>
+      <c r="BB150">
+        <v>7</v>
+      </c>
+      <c r="BC150">
+        <v>16</v>
+      </c>
+      <c r="BD150">
+        <v>1.82</v>
+      </c>
+      <c r="BE150">
+        <v>7.5</v>
+      </c>
+      <c r="BF150">
+        <v>2.4</v>
+      </c>
+      <c r="BG150">
+        <v>1.39</v>
+      </c>
+      <c r="BH150">
+        <v>2.76</v>
+      </c>
+      <c r="BI150">
+        <v>1.68</v>
+      </c>
+      <c r="BJ150">
+        <v>2.06</v>
+      </c>
+      <c r="BK150">
+        <v>2.2</v>
+      </c>
+      <c r="BL150">
+        <v>1.6</v>
+      </c>
+      <c r="BM150">
+        <v>2.95</v>
+      </c>
+      <c r="BN150">
+        <v>1.35</v>
+      </c>
+      <c r="BO150">
+        <v>2.6</v>
+      </c>
+      <c r="BP150">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -828,6 +828,9 @@
   <si>
     <t>['11', '90+5']</t>
   </si>
+  <si>
+    <t>['46']</t>
+  </si>
 </sst>
 </file>
 
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2349,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>2.15</v>
@@ -3794,7 +3797,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -3997,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -5648,7 +5651,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR22">
         <v>1.62</v>
@@ -6675,10 +6678,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -9147,7 +9150,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>0.77</v>
@@ -9356,7 +9359,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -11825,7 +11828,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>0.6899999999999999</v>
@@ -13064,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13885,7 +13888,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>0.58</v>
@@ -15742,7 +15745,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -16975,7 +16978,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>1.83</v>
@@ -17184,7 +17187,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -18829,7 +18832,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
         <v>1.23</v>
@@ -19450,7 +19453,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -21095,7 +21098,7 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>2.08</v>
@@ -21716,7 +21719,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -23155,7 +23158,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
         <v>1.85</v>
@@ -24806,7 +24809,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -26248,7 +26251,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ122">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR122">
         <v>1.09</v>
@@ -26451,7 +26454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>1.58</v>
@@ -29338,7 +29341,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR137">
         <v>1.65</v>
@@ -29541,7 +29544,7 @@
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
         <v>1.58</v>
@@ -31428,13 +31431,13 @@
         <v>10</v>
       </c>
       <c r="BA147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB147">
         <v>3</v>
       </c>
       <c r="BC147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD147">
         <v>1.82</v>
@@ -31822,19 +31825,19 @@
         <v>2.76</v>
       </c>
       <c r="AU149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ149">
         <v>6</v>
@@ -32031,28 +32034,28 @@
         <v>6</v>
       </c>
       <c r="AV150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW150">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX150">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY150">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ150">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA150">
         <v>9</v>
       </c>
       <c r="BB150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC150">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD150">
         <v>1.82</v>
@@ -32092,6 +32095,212 @@
       </c>
       <c r="BP150">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7390086</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>96</v>
+      </c>
+      <c r="P151" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q151">
+        <v>3.75</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>2.6</v>
+      </c>
+      <c r="T151">
+        <v>1.3</v>
+      </c>
+      <c r="U151">
+        <v>3.4</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>3.5</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.83</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>14.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.22</v>
+      </c>
+      <c r="AF151">
+        <v>4.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.65</v>
+      </c>
+      <c r="AH151">
+        <v>2.15</v>
+      </c>
+      <c r="AI151">
+        <v>1.57</v>
+      </c>
+      <c r="AJ151">
+        <v>2.25</v>
+      </c>
+      <c r="AK151">
+        <v>1.83</v>
+      </c>
+      <c r="AL151">
+        <v>1.22</v>
+      </c>
+      <c r="AM151">
+        <v>1.33</v>
+      </c>
+      <c r="AN151">
+        <v>1.5</v>
+      </c>
+      <c r="AO151">
+        <v>1.5</v>
+      </c>
+      <c r="AP151">
+        <v>1.38</v>
+      </c>
+      <c r="AQ151">
+        <v>1.62</v>
+      </c>
+      <c r="AR151">
+        <v>1.42</v>
+      </c>
+      <c r="AS151">
+        <v>1.46</v>
+      </c>
+      <c r="AT151">
+        <v>2.88</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>12</v>
+      </c>
+      <c r="AZ151">
+        <v>8</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>6</v>
+      </c>
+      <c r="BD151">
+        <v>2.66</v>
+      </c>
+      <c r="BE151">
+        <v>9</v>
+      </c>
+      <c r="BF151">
+        <v>1.67</v>
+      </c>
+      <c r="BG151">
+        <v>1.29</v>
+      </c>
+      <c r="BH151">
+        <v>3.14</v>
+      </c>
+      <c r="BI151">
+        <v>1.56</v>
+      </c>
+      <c r="BJ151">
+        <v>2.27</v>
+      </c>
+      <c r="BK151">
+        <v>1.97</v>
+      </c>
+      <c r="BL151">
+        <v>1.78</v>
+      </c>
+      <c r="BM151">
+        <v>2.57</v>
+      </c>
+      <c r="BN151">
+        <v>1.44</v>
+      </c>
+      <c r="BO151">
+        <v>3.48</v>
+      </c>
+      <c r="BP151">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -32237,31 +32237,31 @@
         <v>2.88</v>
       </c>
       <c r="AU151">
+        <v>7</v>
+      </c>
+      <c r="AV151">
         <v>6</v>
       </c>
-      <c r="AV151">
+      <c r="AW151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>15</v>
+      </c>
+      <c r="AZ151">
+        <v>11</v>
+      </c>
+      <c r="BA151">
         <v>4</v>
       </c>
-      <c r="AW151">
-        <v>6</v>
-      </c>
-      <c r="AX151">
+      <c r="BB151">
         <v>4</v>
       </c>
-      <c r="AY151">
-        <v>12</v>
-      </c>
-      <c r="AZ151">
+      <c r="BC151">
         <v>8</v>
-      </c>
-      <c r="BA151">
-        <v>3</v>
-      </c>
-      <c r="BB151">
-        <v>3</v>
-      </c>
-      <c r="BC151">
-        <v>6</v>
       </c>
       <c r="BD151">
         <v>2.66</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -32237,19 +32237,19 @@
         <v>2.88</v>
       </c>
       <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
         <v>7</v>
-      </c>
-      <c r="AV151">
-        <v>6</v>
       </c>
       <c r="AW151">
         <v>8</v>
       </c>
       <c r="AX151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY151">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ151">
         <v>11</v>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['20', '41']</t>
   </si>
   <si>
+    <t>['75', '90+2']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -830,6 +833,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['60', '88']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1662,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2068,7 +2074,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2480,7 +2486,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2686,7 +2692,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2892,7 +2898,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3304,7 +3310,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3382,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ11">
         <v>0.77</v>
@@ -3510,7 +3516,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3591,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3716,7 +3722,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3922,7 +3928,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4334,7 +4340,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4540,7 +4546,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4746,7 +4752,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4952,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5158,7 +5164,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5239,7 +5245,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ20">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -5364,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5570,7 +5576,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5648,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22">
         <v>1.62</v>
@@ -5982,7 +5988,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6394,7 +6400,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7012,7 +7018,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7218,7 +7224,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7708,7 +7714,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ32">
         <v>0.6899999999999999</v>
@@ -7836,7 +7842,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8248,7 +8254,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8329,7 +8335,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8660,7 +8666,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8866,7 +8872,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9278,7 +9284,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10102,7 +10108,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10308,7 +10314,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10514,7 +10520,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10720,7 +10726,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10926,7 +10932,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11132,7 +11138,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11544,7 +11550,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11956,7 +11962,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12034,7 +12040,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ53">
         <v>1.58</v>
@@ -12162,7 +12168,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12243,7 +12249,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12574,7 +12580,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12858,7 +12864,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ57">
         <v>0.92</v>
@@ -13192,7 +13198,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13398,7 +13404,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13604,7 +13610,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14016,7 +14022,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14097,7 +14103,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14222,7 +14228,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14634,7 +14640,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14840,7 +14846,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15046,7 +15052,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15458,7 +15464,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15664,7 +15670,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15870,7 +15876,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15948,7 +15954,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ72">
         <v>2.15</v>
@@ -16076,7 +16082,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16694,7 +16700,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16981,7 +16987,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17518,7 +17524,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17599,7 +17605,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -18136,7 +18142,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18214,7 +18220,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ83">
         <v>1.85</v>
@@ -18342,7 +18348,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19578,7 +19584,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19990,7 +19996,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20196,7 +20202,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20686,10 +20692,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20814,7 +20820,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21020,7 +21026,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21304,7 +21310,7 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
         <v>0.83</v>
@@ -21638,7 +21644,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22050,7 +22056,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22256,7 +22262,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22462,7 +22468,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22543,7 +22549,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22668,7 +22674,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22874,7 +22880,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23080,7 +23086,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23776,7 +23782,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ110">
         <v>0.58</v>
@@ -23904,7 +23910,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24316,7 +24322,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24522,7 +24528,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25140,7 +25146,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25758,7 +25764,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25839,7 +25845,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ120">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26170,7 +26176,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26376,7 +26382,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26582,7 +26588,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26663,7 +26669,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR124">
         <v>1.27</v>
@@ -26994,7 +27000,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27278,7 +27284,7 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127">
         <v>2.08</v>
@@ -27406,7 +27412,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27818,7 +27824,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28642,7 +28648,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28720,7 +28726,7 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ134">
         <v>0.58</v>
@@ -29054,7 +29060,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29260,7 +29266,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29466,7 +29472,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29672,7 +29678,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29959,7 +29965,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ140">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30290,7 +30296,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30908,7 +30914,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31114,7 +31120,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31526,7 +31532,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31732,7 +31738,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31938,7 +31944,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32144,7 +32150,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32301,6 +32307,212 @@
       </c>
       <c r="BP151">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7390087</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45401.58333333334</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>191</v>
+      </c>
+      <c r="P152" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q152">
+        <v>2.38</v>
+      </c>
+      <c r="R152">
+        <v>2.15</v>
+      </c>
+      <c r="S152">
+        <v>4.33</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>2.88</v>
+      </c>
+      <c r="V152">
+        <v>2.62</v>
+      </c>
+      <c r="W152">
+        <v>1.42</v>
+      </c>
+      <c r="X152">
+        <v>6</v>
+      </c>
+      <c r="Y152">
+        <v>1.1</v>
+      </c>
+      <c r="Z152">
+        <v>1.85</v>
+      </c>
+      <c r="AA152">
+        <v>3.3</v>
+      </c>
+      <c r="AB152">
+        <v>3.7</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>9.9</v>
+      </c>
+      <c r="AE152">
+        <v>1.26</v>
+      </c>
+      <c r="AF152">
+        <v>3.82</v>
+      </c>
+      <c r="AG152">
+        <v>1.75</v>
+      </c>
+      <c r="AH152">
+        <v>1.95</v>
+      </c>
+      <c r="AI152">
+        <v>1.7</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.22</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.9</v>
+      </c>
+      <c r="AN152">
+        <v>1.33</v>
+      </c>
+      <c r="AO152">
+        <v>1.83</v>
+      </c>
+      <c r="AP152">
+        <v>1.31</v>
+      </c>
+      <c r="AQ152">
+        <v>1.77</v>
+      </c>
+      <c r="AR152">
+        <v>1.39</v>
+      </c>
+      <c r="AS152">
+        <v>1.17</v>
+      </c>
+      <c r="AT152">
+        <v>2.56</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>5</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
+      <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>2</v>
+      </c>
+      <c r="BB152">
+        <v>6</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>1.59</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>2.78</v>
+      </c>
+      <c r="BG152">
+        <v>1.18</v>
+      </c>
+      <c r="BH152">
+        <v>4.5</v>
+      </c>
+      <c r="BI152">
+        <v>1.45</v>
+      </c>
+      <c r="BJ152">
+        <v>2.55</v>
+      </c>
+      <c r="BK152">
+        <v>1.75</v>
+      </c>
+      <c r="BL152">
+        <v>1.98</v>
+      </c>
+      <c r="BM152">
+        <v>1.92</v>
+      </c>
+      <c r="BN152">
+        <v>1.88</v>
+      </c>
+      <c r="BO152">
+        <v>2.85</v>
+      </c>
+      <c r="BP152">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['75', '90+2']</t>
   </si>
   <si>
+    <t>['20', '84']</t>
+  </si>
+  <si>
+    <t>['25', '76']</t>
+  </si>
+  <si>
+    <t>['45', '61']</t>
+  </si>
+  <si>
+    <t>['10', '36']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -836,6 +848,12 @@
   </si>
   <si>
     <t>['60', '88']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1949,7 +1967,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,7 +2092,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2486,7 +2504,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2692,7 +2710,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2770,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2898,7 +2916,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3185,7 +3203,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3310,7 +3328,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3516,7 +3534,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3594,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ12">
         <v>1.77</v>
@@ -3722,7 +3740,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3928,7 +3946,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4009,7 +4027,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR14">
         <v>2.35</v>
@@ -4212,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15">
         <v>1.23</v>
@@ -4340,7 +4358,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4418,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ16">
         <v>1.58</v>
@@ -4546,7 +4564,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4627,7 +4645,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -4752,7 +4770,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4958,7 +4976,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5164,7 +5182,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5242,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ20">
         <v>1.77</v>
@@ -5370,7 +5388,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5451,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5576,7 +5594,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5860,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ23">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -5988,7 +6006,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6069,7 +6087,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ24">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6272,7 +6290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ25">
         <v>0.77</v>
@@ -6400,7 +6418,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6478,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
         <v>1.85</v>
@@ -7018,7 +7036,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7224,7 +7242,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7508,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7842,7 +7860,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7920,10 +7938,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8129,7 +8147,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ34">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8254,7 +8272,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8332,7 +8350,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ35">
         <v>1.77</v>
@@ -8541,7 +8559,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ36">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8666,7 +8684,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8872,7 +8890,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8953,7 +8971,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR38">
         <v>1.4</v>
@@ -9284,7 +9302,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9568,7 +9586,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ41">
         <v>1.23</v>
@@ -9774,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ42">
         <v>0.6899999999999999</v>
@@ -10108,7 +10126,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10186,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ44">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10314,7 +10332,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10520,7 +10538,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10726,7 +10744,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10804,10 +10822,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ47">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10932,7 +10950,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11138,7 +11156,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11219,7 +11237,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11425,7 +11443,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR50">
         <v>1.22</v>
@@ -11550,7 +11568,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11628,7 +11646,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ51">
         <v>1.85</v>
@@ -11962,7 +11980,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12168,7 +12186,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12580,7 +12598,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12658,10 +12676,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ56">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -12867,7 +12885,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ57">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13198,7 +13216,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13276,7 +13294,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
         <v>2.15</v>
@@ -13404,7 +13422,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13482,7 +13500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ60">
         <v>1.58</v>
@@ -13610,7 +13628,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13691,7 +13709,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ61">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -13897,7 +13915,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -14022,7 +14040,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14228,7 +14246,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14512,7 +14530,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65">
         <v>0.6899999999999999</v>
@@ -14640,7 +14658,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14846,7 +14864,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15052,7 +15070,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15130,10 +15148,10 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ68">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15336,10 +15354,10 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15464,7 +15482,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15670,7 +15688,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15748,7 +15766,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ71">
         <v>1.62</v>
@@ -15876,7 +15894,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16082,7 +16100,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16163,7 +16181,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ73">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -16369,7 +16387,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ74">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16572,7 +16590,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ75">
         <v>0.77</v>
@@ -16700,7 +16718,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17190,7 +17208,7 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ78">
         <v>1.62</v>
@@ -17524,7 +17542,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17811,7 +17829,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -18014,10 +18032,10 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18142,7 +18160,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18348,7 +18366,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18426,10 +18444,10 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ84">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -18632,7 +18650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ85">
         <v>1.58</v>
@@ -19044,7 +19062,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ87">
         <v>2.15</v>
@@ -19253,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19584,7 +19602,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19996,7 +20014,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20074,10 +20092,10 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20202,7 +20220,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20280,7 +20298,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ93">
         <v>1.85</v>
@@ -20820,7 +20838,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21026,7 +21044,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21107,7 +21125,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21313,7 +21331,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21519,7 +21537,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21644,7 +21662,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21928,7 +21946,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ101">
         <v>0.77</v>
@@ -22056,7 +22074,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22134,7 +22152,7 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ102">
         <v>1.58</v>
@@ -22262,7 +22280,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22468,7 +22486,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22546,7 +22564,7 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ104">
         <v>1.77</v>
@@ -22674,7 +22692,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22755,7 +22773,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ105">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR105">
         <v>1.73</v>
@@ -22880,7 +22898,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22958,7 +22976,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ106">
         <v>1.23</v>
@@ -23086,7 +23104,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23370,10 +23388,10 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ108">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23785,7 +23803,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ110">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -23910,7 +23928,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -23988,7 +24006,7 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ111">
         <v>0.6899999999999999</v>
@@ -24197,7 +24215,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR112">
         <v>1.22</v>
@@ -24322,7 +24340,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24528,7 +24546,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24609,7 +24627,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ114">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -24812,7 +24830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ115">
         <v>1.62</v>
@@ -25146,7 +25164,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25430,7 +25448,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ118">
         <v>1.23</v>
@@ -25636,10 +25654,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25764,7 +25782,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26051,7 +26069,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ121">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26176,7 +26194,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26254,7 +26272,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ122">
         <v>1.62</v>
@@ -26382,7 +26400,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26588,7 +26606,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26872,10 +26890,10 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ125">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR125">
         <v>2.05</v>
@@ -27000,7 +27018,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27078,7 +27096,7 @@
         <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ126">
         <v>2.15</v>
@@ -27287,7 +27305,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27412,7 +27430,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27824,7 +27842,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28111,7 +28129,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ131">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28520,10 +28538,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR133">
         <v>1.57</v>
@@ -28648,7 +28666,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28729,7 +28747,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ134">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -28932,7 +28950,7 @@
         <v>0.82</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ135">
         <v>0.77</v>
@@ -29060,7 +29078,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29138,7 +29156,7 @@
         <v>2.18</v>
       </c>
       <c r="AP136">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ136">
         <v>2.15</v>
@@ -29266,7 +29284,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29472,7 +29490,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29678,7 +29696,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29759,7 +29777,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ139">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -30296,7 +30314,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30374,7 +30392,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ142">
         <v>1.23</v>
@@ -30789,7 +30807,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ144">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30914,7 +30932,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -30992,10 +31010,10 @@
         <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31120,7 +31138,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31532,7 +31550,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31738,7 +31756,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31944,7 +31962,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32150,7 +32168,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32356,7 +32374,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32513,6 +32531,830 @@
       </c>
       <c r="BP152">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7390088</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>192</v>
+      </c>
+      <c r="P153" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q153">
+        <v>3.6</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>2.88</v>
+      </c>
+      <c r="T153">
+        <v>1.36</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>8</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>3.1</v>
+      </c>
+      <c r="AA153">
+        <v>3.5</v>
+      </c>
+      <c r="AB153">
+        <v>2.15</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>9.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.28</v>
+      </c>
+      <c r="AF153">
+        <v>3.55</v>
+      </c>
+      <c r="AG153">
+        <v>1.8</v>
+      </c>
+      <c r="AH153">
+        <v>1.91</v>
+      </c>
+      <c r="AI153">
+        <v>1.7</v>
+      </c>
+      <c r="AJ153">
+        <v>2.05</v>
+      </c>
+      <c r="AK153">
+        <v>1.62</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.35</v>
+      </c>
+      <c r="AN153">
+        <v>0.17</v>
+      </c>
+      <c r="AO153">
+        <v>0.83</v>
+      </c>
+      <c r="AP153">
+        <v>0.38</v>
+      </c>
+      <c r="AQ153">
+        <v>0.77</v>
+      </c>
+      <c r="AR153">
+        <v>1.13</v>
+      </c>
+      <c r="AS153">
+        <v>1.13</v>
+      </c>
+      <c r="AT153">
+        <v>2.26</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>4</v>
+      </c>
+      <c r="AZ153">
+        <v>9</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>7</v>
+      </c>
+      <c r="BD153">
+        <v>1.75</v>
+      </c>
+      <c r="BE153">
+        <v>8</v>
+      </c>
+      <c r="BF153">
+        <v>2.44</v>
+      </c>
+      <c r="BG153">
+        <v>1.22</v>
+      </c>
+      <c r="BH153">
+        <v>3.75</v>
+      </c>
+      <c r="BI153">
+        <v>1.41</v>
+      </c>
+      <c r="BJ153">
+        <v>2.63</v>
+      </c>
+      <c r="BK153">
+        <v>1.73</v>
+      </c>
+      <c r="BL153">
+        <v>2</v>
+      </c>
+      <c r="BM153">
+        <v>2.18</v>
+      </c>
+      <c r="BN153">
+        <v>1.6</v>
+      </c>
+      <c r="BO153">
+        <v>2.88</v>
+      </c>
+      <c r="BP153">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7390089</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>193</v>
+      </c>
+      <c r="P154" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q154">
+        <v>2.38</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>4.75</v>
+      </c>
+      <c r="T154">
+        <v>1.36</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>7</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>1.78</v>
+      </c>
+      <c r="AA154">
+        <v>3.7</v>
+      </c>
+      <c r="AB154">
+        <v>4.1</v>
+      </c>
+      <c r="AC154">
+        <v>1.01</v>
+      </c>
+      <c r="AD154">
+        <v>9.9</v>
+      </c>
+      <c r="AE154">
+        <v>1.26</v>
+      </c>
+      <c r="AF154">
+        <v>3.85</v>
+      </c>
+      <c r="AG154">
+        <v>1.8</v>
+      </c>
+      <c r="AH154">
+        <v>1.91</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.95</v>
+      </c>
+      <c r="AK154">
+        <v>1.22</v>
+      </c>
+      <c r="AL154">
+        <v>1.27</v>
+      </c>
+      <c r="AM154">
+        <v>2.05</v>
+      </c>
+      <c r="AN154">
+        <v>1.75</v>
+      </c>
+      <c r="AO154">
+        <v>0.58</v>
+      </c>
+      <c r="AP154">
+        <v>1.85</v>
+      </c>
+      <c r="AQ154">
+        <v>0.54</v>
+      </c>
+      <c r="AR154">
+        <v>1.52</v>
+      </c>
+      <c r="AS154">
+        <v>1.13</v>
+      </c>
+      <c r="AT154">
+        <v>2.65</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>10</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
+        <v>10</v>
+      </c>
+      <c r="BC154">
+        <v>16</v>
+      </c>
+      <c r="BD154">
+        <v>1.51</v>
+      </c>
+      <c r="BE154">
+        <v>9</v>
+      </c>
+      <c r="BF154">
+        <v>3.06</v>
+      </c>
+      <c r="BG154">
+        <v>1.18</v>
+      </c>
+      <c r="BH154">
+        <v>4.25</v>
+      </c>
+      <c r="BI154">
+        <v>1.34</v>
+      </c>
+      <c r="BJ154">
+        <v>2.95</v>
+      </c>
+      <c r="BK154">
+        <v>1.6</v>
+      </c>
+      <c r="BL154">
+        <v>2.17</v>
+      </c>
+      <c r="BM154">
+        <v>2</v>
+      </c>
+      <c r="BN154">
+        <v>1.73</v>
+      </c>
+      <c r="BO154">
+        <v>2.6</v>
+      </c>
+      <c r="BP154">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7390090</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>194</v>
+      </c>
+      <c r="P155" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q155">
+        <v>1.83</v>
+      </c>
+      <c r="R155">
+        <v>2.63</v>
+      </c>
+      <c r="S155">
+        <v>6.5</v>
+      </c>
+      <c r="T155">
+        <v>1.25</v>
+      </c>
+      <c r="U155">
+        <v>3.75</v>
+      </c>
+      <c r="V155">
+        <v>2.2</v>
+      </c>
+      <c r="W155">
+        <v>1.62</v>
+      </c>
+      <c r="X155">
+        <v>5</v>
+      </c>
+      <c r="Y155">
+        <v>1.17</v>
+      </c>
+      <c r="Z155">
+        <v>1.36</v>
+      </c>
+      <c r="AA155">
+        <v>5</v>
+      </c>
+      <c r="AB155">
+        <v>7.5</v>
+      </c>
+      <c r="AC155">
+        <v>1.03</v>
+      </c>
+      <c r="AD155">
+        <v>11</v>
+      </c>
+      <c r="AE155">
+        <v>1.17</v>
+      </c>
+      <c r="AF155">
+        <v>5</v>
+      </c>
+      <c r="AG155">
+        <v>1.46</v>
+      </c>
+      <c r="AH155">
+        <v>2.46</v>
+      </c>
+      <c r="AI155">
+        <v>1.8</v>
+      </c>
+      <c r="AJ155">
+        <v>1.95</v>
+      </c>
+      <c r="AK155">
+        <v>1.08</v>
+      </c>
+      <c r="AL155">
+        <v>1.12</v>
+      </c>
+      <c r="AM155">
+        <v>3</v>
+      </c>
+      <c r="AN155">
+        <v>1.83</v>
+      </c>
+      <c r="AO155">
+        <v>0.92</v>
+      </c>
+      <c r="AP155">
+        <v>1.92</v>
+      </c>
+      <c r="AQ155">
+        <v>0.85</v>
+      </c>
+      <c r="AR155">
+        <v>2.01</v>
+      </c>
+      <c r="AS155">
+        <v>1.15</v>
+      </c>
+      <c r="AT155">
+        <v>3.16</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>4</v>
+      </c>
+      <c r="AY155">
+        <v>10</v>
+      </c>
+      <c r="AZ155">
+        <v>7</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>1</v>
+      </c>
+      <c r="BC155">
+        <v>2</v>
+      </c>
+      <c r="BD155">
+        <v>1.31</v>
+      </c>
+      <c r="BE155">
+        <v>9.5</v>
+      </c>
+      <c r="BF155">
+        <v>4.41</v>
+      </c>
+      <c r="BG155">
+        <v>1.27</v>
+      </c>
+      <c r="BH155">
+        <v>3.35</v>
+      </c>
+      <c r="BI155">
+        <v>1.49</v>
+      </c>
+      <c r="BJ155">
+        <v>2.4</v>
+      </c>
+      <c r="BK155">
+        <v>1.85</v>
+      </c>
+      <c r="BL155">
+        <v>1.95</v>
+      </c>
+      <c r="BM155">
+        <v>2.38</v>
+      </c>
+      <c r="BN155">
+        <v>1.5</v>
+      </c>
+      <c r="BO155">
+        <v>3.2</v>
+      </c>
+      <c r="BP155">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7390091</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>195</v>
+      </c>
+      <c r="P156" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q156">
+        <v>2.88</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>3.5</v>
+      </c>
+      <c r="T156">
+        <v>1.36</v>
+      </c>
+      <c r="U156">
+        <v>3</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.1</v>
+      </c>
+      <c r="Z156">
+        <v>2.1</v>
+      </c>
+      <c r="AA156">
+        <v>3.4</v>
+      </c>
+      <c r="AB156">
+        <v>3</v>
+      </c>
+      <c r="AC156">
+        <v>1.05</v>
+      </c>
+      <c r="AD156">
+        <v>9.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.25</v>
+      </c>
+      <c r="AF156">
+        <v>3.75</v>
+      </c>
+      <c r="AG156">
+        <v>1.74</v>
+      </c>
+      <c r="AH156">
+        <v>1.94</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.36</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.62</v>
+      </c>
+      <c r="AN156">
+        <v>2</v>
+      </c>
+      <c r="AO156">
+        <v>2.08</v>
+      </c>
+      <c r="AP156">
+        <v>2.08</v>
+      </c>
+      <c r="AQ156">
+        <v>1.92</v>
+      </c>
+      <c r="AR156">
+        <v>1.59</v>
+      </c>
+      <c r="AS156">
+        <v>1.46</v>
+      </c>
+      <c r="AT156">
+        <v>3.05</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>8</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>15</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>6</v>
+      </c>
+      <c r="BC156">
+        <v>11</v>
+      </c>
+      <c r="BD156">
+        <v>1.95</v>
+      </c>
+      <c r="BE156">
+        <v>7.5</v>
+      </c>
+      <c r="BF156">
+        <v>2.1</v>
+      </c>
+      <c r="BG156">
+        <v>1.45</v>
+      </c>
+      <c r="BH156">
+        <v>2.5</v>
+      </c>
+      <c r="BI156">
+        <v>1.82</v>
+      </c>
+      <c r="BJ156">
+        <v>1.98</v>
+      </c>
+      <c r="BK156">
+        <v>2.33</v>
+      </c>
+      <c r="BL156">
+        <v>1.52</v>
+      </c>
+      <c r="BM156">
+        <v>3.15</v>
+      </c>
+      <c r="BN156">
+        <v>1.29</v>
+      </c>
+      <c r="BO156">
+        <v>4.5</v>
+      </c>
+      <c r="BP156">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['10', '36']</t>
   </si>
   <si>
+    <t>['13', '27', '44', '56', '60', '69', '89']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -854,6 +857,9 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['22', '79']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1680,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2092,7 +2098,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2504,7 +2510,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2582,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ7">
         <v>0.6899999999999999</v>
@@ -2710,7 +2716,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2916,7 +2922,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3328,7 +3334,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3534,7 +3540,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3740,7 +3746,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3946,7 +3952,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4358,7 +4364,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4439,7 +4445,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ16">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4564,7 +4570,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4770,7 +4776,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4848,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ18">
         <v>2.15</v>
@@ -4976,7 +4982,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5182,7 +5188,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5388,7 +5394,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5594,7 +5600,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6006,7 +6012,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6418,7 +6424,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7036,7 +7042,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7242,7 +7248,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7323,7 +7329,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ30">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7860,7 +7866,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8272,7 +8278,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8556,7 +8562,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ36">
         <v>1.92</v>
@@ -8684,7 +8690,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8890,7 +8896,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9302,7 +9308,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10001,7 +10007,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10126,7 +10132,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10332,7 +10338,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10410,7 +10416,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ45">
         <v>1.85</v>
@@ -10538,7 +10544,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10744,7 +10750,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10950,7 +10956,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11156,7 +11162,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11568,7 +11574,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11980,7 +11986,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12061,7 +12067,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12186,7 +12192,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12470,7 +12476,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ55">
         <v>0.77</v>
@@ -12598,7 +12604,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13216,7 +13222,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13422,7 +13428,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13503,7 +13509,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ60">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13628,7 +13634,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14040,7 +14046,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14118,7 +14124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ63">
         <v>1.77</v>
@@ -14246,7 +14252,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14658,7 +14664,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14864,7 +14870,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15070,7 +15076,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15482,7 +15488,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15563,7 +15569,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15688,7 +15694,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15894,7 +15900,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16100,7 +16106,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16718,7 +16724,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17542,7 +17548,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17826,7 +17832,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ81">
         <v>0.77</v>
@@ -18160,7 +18166,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18366,7 +18372,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18653,7 +18659,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ85">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -19602,7 +19608,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20014,7 +20020,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20220,7 +20226,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20504,10 +20510,10 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ94">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20838,7 +20844,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21044,7 +21050,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21662,7 +21668,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22074,7 +22080,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22155,7 +22161,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ102">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22280,7 +22286,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22486,7 +22492,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22692,7 +22698,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22770,7 +22776,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ105">
         <v>0.54</v>
@@ -22898,7 +22904,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23104,7 +23110,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23597,7 +23603,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -23928,7 +23934,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24340,7 +24346,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24546,7 +24552,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25164,7 +25170,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25782,7 +25788,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26066,7 +26072,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ121">
         <v>0.85</v>
@@ -26194,7 +26200,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26400,7 +26406,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26481,7 +26487,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26606,7 +26612,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27018,7 +27024,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27430,7 +27436,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27842,7 +27848,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27920,7 +27926,7 @@
         <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ130">
         <v>1.23</v>
@@ -28666,7 +28672,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29078,7 +29084,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29284,7 +29290,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29490,7 +29496,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29571,7 +29577,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR138">
         <v>1.42</v>
@@ -29696,7 +29702,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30314,7 +30320,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30598,7 +30604,7 @@
         <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ143">
         <v>1.85</v>
@@ -30932,7 +30938,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31138,7 +31144,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31550,7 +31556,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31756,7 +31762,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31962,7 +31968,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32168,7 +32174,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32374,7 +32380,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32580,7 +32586,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32673,22 +32679,22 @@
         <v>2.26</v>
       </c>
       <c r="AU153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV153">
         <v>4</v>
       </c>
       <c r="AW153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX153">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY153">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ153">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -32786,7 +32792,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32879,7 +32885,7 @@
         <v>2.65</v>
       </c>
       <c r="AU154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV154">
         <v>4</v>
@@ -32891,7 +32897,7 @@
         <v>5</v>
       </c>
       <c r="AY154">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ154">
         <v>9</v>
@@ -33355,6 +33361,212 @@
       </c>
       <c r="BP156">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7390092</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>7</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>9</v>
+      </c>
+      <c r="O157" t="s">
+        <v>196</v>
+      </c>
+      <c r="P157" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q157">
+        <v>2.25</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>5.5</v>
+      </c>
+      <c r="T157">
+        <v>1.36</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>8</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>1.75</v>
+      </c>
+      <c r="AA157">
+        <v>3.6</v>
+      </c>
+      <c r="AB157">
+        <v>4.06</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE157">
+        <v>1.26</v>
+      </c>
+      <c r="AF157">
+        <v>3.34</v>
+      </c>
+      <c r="AG157">
+        <v>1.65</v>
+      </c>
+      <c r="AH157">
+        <v>2.1</v>
+      </c>
+      <c r="AI157">
+        <v>1.91</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>1.17</v>
+      </c>
+      <c r="AL157">
+        <v>1.26</v>
+      </c>
+      <c r="AM157">
+        <v>2.22</v>
+      </c>
+      <c r="AN157">
+        <v>2.08</v>
+      </c>
+      <c r="AO157">
+        <v>1.58</v>
+      </c>
+      <c r="AP157">
+        <v>2.15</v>
+      </c>
+      <c r="AQ157">
+        <v>1.46</v>
+      </c>
+      <c r="AR157">
+        <v>1.75</v>
+      </c>
+      <c r="AS157">
+        <v>1.18</v>
+      </c>
+      <c r="AT157">
+        <v>2.93</v>
+      </c>
+      <c r="AU157">
+        <v>11</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>3</v>
+      </c>
+      <c r="AX157">
+        <v>1</v>
+      </c>
+      <c r="AY157">
+        <v>14</v>
+      </c>
+      <c r="AZ157">
+        <v>5</v>
+      </c>
+      <c r="BA157">
+        <v>8</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>11</v>
+      </c>
+      <c r="BD157">
+        <v>1.45</v>
+      </c>
+      <c r="BE157">
+        <v>9</v>
+      </c>
+      <c r="BF157">
+        <v>3.32</v>
+      </c>
+      <c r="BG157">
+        <v>1.22</v>
+      </c>
+      <c r="BH157">
+        <v>3.75</v>
+      </c>
+      <c r="BI157">
+        <v>1.78</v>
+      </c>
+      <c r="BJ157">
+        <v>2.02</v>
+      </c>
+      <c r="BK157">
+        <v>1.78</v>
+      </c>
+      <c r="BL157">
+        <v>2.02</v>
+      </c>
+      <c r="BM157">
+        <v>2.18</v>
+      </c>
+      <c r="BN157">
+        <v>1.6</v>
+      </c>
+      <c r="BO157">
+        <v>2.88</v>
+      </c>
+      <c r="BP157">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['13', '27', '44', '56', '60', '69', '89']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -860,6 +863,12 @@
   </si>
   <si>
     <t>['22', '79']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['33', '82']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1570,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1686,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1764,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
         <v>1.85</v>
@@ -1973,7 +1982,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2098,7 +2107,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2176,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ5">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2510,7 +2519,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2716,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2794,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ8">
         <v>0.54</v>
@@ -2922,7 +2931,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3334,7 +3343,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3415,7 +3424,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ11">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3540,7 +3549,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3746,7 +3755,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3952,7 +3961,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4033,7 +4042,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR14">
         <v>2.35</v>
@@ -4239,7 +4248,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4364,7 +4373,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4570,7 +4579,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4648,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ17">
         <v>1.92</v>
@@ -4776,7 +4785,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4982,7 +4991,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5060,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ19">
         <v>0.6899999999999999</v>
@@ -5188,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5394,7 +5403,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5600,7 +5609,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6012,7 +6021,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6296,10 +6305,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ25">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6424,7 +6433,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6914,10 +6923,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ28">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7042,7 +7051,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7248,7 +7257,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7326,7 +7335,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ30">
         <v>1.46</v>
@@ -7532,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7866,7 +7875,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8278,7 +8287,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8690,7 +8699,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8896,7 +8905,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8974,10 +8983,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ38">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR38">
         <v>1.4</v>
@@ -9183,7 +9192,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9308,7 +9317,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9386,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ40">
         <v>1.62</v>
@@ -9595,7 +9604,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ41">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -10132,7 +10141,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10210,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ44">
         <v>1.92</v>
@@ -10338,7 +10347,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10544,7 +10553,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10625,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10750,7 +10759,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10956,7 +10965,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11162,7 +11171,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11240,7 +11249,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ49">
         <v>0.85</v>
@@ -11446,10 +11455,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
         <v>1.22</v>
@@ -11574,7 +11583,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11986,7 +11995,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12192,7 +12201,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12479,7 +12488,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ55">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12604,7 +12613,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13222,7 +13231,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13428,7 +13437,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13506,7 +13515,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ60">
         <v>1.46</v>
@@ -13634,7 +13643,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13712,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ61">
         <v>0.54</v>
@@ -14046,7 +14055,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14252,7 +14261,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14333,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR64">
         <v>1.09</v>
@@ -14664,7 +14673,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14745,7 +14754,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ66">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14870,7 +14879,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15076,7 +15085,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15363,7 +15372,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ69">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15488,7 +15497,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15566,7 +15575,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70">
         <v>1.46</v>
@@ -15694,7 +15703,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15772,7 +15781,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ71">
         <v>1.62</v>
@@ -15900,7 +15909,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16106,7 +16115,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16184,7 +16193,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ73">
         <v>1.92</v>
@@ -16599,7 +16608,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ75">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16724,7 +16733,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17423,7 +17432,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ79">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17548,7 +17557,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17626,7 +17635,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ80">
         <v>1.77</v>
@@ -17835,7 +17844,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ81">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -18038,7 +18047,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ82">
         <v>0.85</v>
@@ -18166,7 +18175,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18372,7 +18381,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18865,7 +18874,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19608,7 +19617,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19686,10 +19695,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ90">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -20020,7 +20029,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20101,7 +20110,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ92">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20226,7 +20235,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20304,7 +20313,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ93">
         <v>1.85</v>
@@ -20844,7 +20853,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20922,7 +20931,7 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
         <v>2.15</v>
@@ -21050,7 +21059,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21337,7 +21346,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21540,7 +21549,7 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>0.85</v>
@@ -21668,7 +21677,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21746,7 +21755,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ100">
         <v>1.62</v>
@@ -21955,7 +21964,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ101">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22080,7 +22089,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22286,7 +22295,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22492,7 +22501,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22570,7 +22579,7 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ104">
         <v>1.77</v>
@@ -22698,7 +22707,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22904,7 +22913,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22985,7 +22994,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ106">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR106">
         <v>1.09</v>
@@ -23110,7 +23119,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23934,7 +23943,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24346,7 +24355,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24424,7 +24433,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ113">
         <v>2.15</v>
@@ -24552,7 +24561,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25170,7 +25179,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25248,10 +25257,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25454,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ118">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25663,7 +25672,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ119">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25788,7 +25797,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26200,7 +26209,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26406,7 +26415,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26612,7 +26621,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27024,7 +27033,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27102,7 +27111,7 @@
         <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ126">
         <v>2.15</v>
@@ -27436,7 +27445,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27514,7 +27523,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ128">
         <v>1.85</v>
@@ -27720,7 +27729,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
         <v>0.6899999999999999</v>
@@ -27848,7 +27857,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27929,7 +27938,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ130">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28135,7 +28144,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ131">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28341,7 +28350,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ132">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR132">
         <v>1.54</v>
@@ -28672,7 +28681,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28956,10 +28965,10 @@
         <v>0.82</v>
       </c>
       <c r="AP135">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -29084,7 +29093,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29290,7 +29299,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29496,7 +29505,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29702,7 +29711,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29780,10 +29789,10 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ139">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -29986,7 +29995,7 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ140">
         <v>1.77</v>
@@ -30320,7 +30329,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30401,7 +30410,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ142">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30938,7 +30947,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31144,7 +31153,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31222,7 +31231,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ146">
         <v>0.6899999999999999</v>
@@ -31428,10 +31437,10 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31556,7 +31565,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31637,7 +31646,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR148">
         <v>1.25</v>
@@ -31762,7 +31771,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31968,7 +31977,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32174,7 +32183,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32380,7 +32389,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32586,7 +32595,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32667,7 +32676,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ153">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -32792,7 +32801,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32870,7 +32879,7 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ154">
         <v>0.54</v>
@@ -33410,7 +33419,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33567,6 +33576,624 @@
       </c>
       <c r="BP157">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7390093</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45408.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>71</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>106</v>
+      </c>
+      <c r="P158" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>3.75</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.63</v>
+      </c>
+      <c r="V158">
+        <v>3.25</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>2.4</v>
+      </c>
+      <c r="AA158">
+        <v>3</v>
+      </c>
+      <c r="AB158">
+        <v>3</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
+        <v>2.1</v>
+      </c>
+      <c r="AH158">
+        <v>1.65</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>1.33</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.62</v>
+      </c>
+      <c r="AN158">
+        <v>1.38</v>
+      </c>
+      <c r="AO158">
+        <v>0.77</v>
+      </c>
+      <c r="AP158">
+        <v>1.36</v>
+      </c>
+      <c r="AQ158">
+        <v>0.79</v>
+      </c>
+      <c r="AR158">
+        <v>1.35</v>
+      </c>
+      <c r="AS158">
+        <v>1.15</v>
+      </c>
+      <c r="AT158">
+        <v>2.5</v>
+      </c>
+      <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>7</v>
+      </c>
+      <c r="AY158">
+        <v>10</v>
+      </c>
+      <c r="AZ158">
+        <v>11</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.59</v>
+      </c>
+      <c r="BE158">
+        <v>8.5</v>
+      </c>
+      <c r="BF158">
+        <v>2.78</v>
+      </c>
+      <c r="BG158">
+        <v>1.21</v>
+      </c>
+      <c r="BH158">
+        <v>3.8</v>
+      </c>
+      <c r="BI158">
+        <v>1.4</v>
+      </c>
+      <c r="BJ158">
+        <v>2.65</v>
+      </c>
+      <c r="BK158">
+        <v>1.7</v>
+      </c>
+      <c r="BL158">
+        <v>2.05</v>
+      </c>
+      <c r="BM158">
+        <v>2.15</v>
+      </c>
+      <c r="BN158">
+        <v>1.61</v>
+      </c>
+      <c r="BO158">
+        <v>2.8</v>
+      </c>
+      <c r="BP158">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7390094</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>96</v>
+      </c>
+      <c r="P159" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q159">
+        <v>3.1</v>
+      </c>
+      <c r="R159">
+        <v>2.2</v>
+      </c>
+      <c r="S159">
+        <v>3.25</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>2.89</v>
+      </c>
+      <c r="AA159">
+        <v>3.63</v>
+      </c>
+      <c r="AB159">
+        <v>2.06</v>
+      </c>
+      <c r="AC159">
+        <v>1.03</v>
+      </c>
+      <c r="AD159">
+        <v>11.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.27</v>
+      </c>
+      <c r="AF159">
+        <v>3.7</v>
+      </c>
+      <c r="AG159">
+        <v>1.91</v>
+      </c>
+      <c r="AH159">
+        <v>1.97</v>
+      </c>
+      <c r="AI159">
+        <v>1.67</v>
+      </c>
+      <c r="AJ159">
+        <v>2.1</v>
+      </c>
+      <c r="AK159">
+        <v>1.47</v>
+      </c>
+      <c r="AL159">
+        <v>1.26</v>
+      </c>
+      <c r="AM159">
+        <v>1.57</v>
+      </c>
+      <c r="AN159">
+        <v>1.85</v>
+      </c>
+      <c r="AO159">
+        <v>1.23</v>
+      </c>
+      <c r="AP159">
+        <v>1.79</v>
+      </c>
+      <c r="AQ159">
+        <v>1.21</v>
+      </c>
+      <c r="AR159">
+        <v>1.54</v>
+      </c>
+      <c r="AS159">
+        <v>1.35</v>
+      </c>
+      <c r="AT159">
+        <v>2.89</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>1</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>10</v>
+      </c>
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>8</v>
+      </c>
+      <c r="BC159">
+        <v>15</v>
+      </c>
+      <c r="BD159">
+        <v>1.95</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.1</v>
+      </c>
+      <c r="BG159">
+        <v>1.22</v>
+      </c>
+      <c r="BH159">
+        <v>3.7</v>
+      </c>
+      <c r="BI159">
+        <v>1.42</v>
+      </c>
+      <c r="BJ159">
+        <v>2.6</v>
+      </c>
+      <c r="BK159">
+        <v>1.73</v>
+      </c>
+      <c r="BL159">
+        <v>2</v>
+      </c>
+      <c r="BM159">
+        <v>2.2</v>
+      </c>
+      <c r="BN159">
+        <v>1.58</v>
+      </c>
+      <c r="BO159">
+        <v>2.9</v>
+      </c>
+      <c r="BP159">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7390095</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s">
+        <v>81</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q160">
+        <v>2.3</v>
+      </c>
+      <c r="R160">
+        <v>2.38</v>
+      </c>
+      <c r="S160">
+        <v>4.75</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>1.92</v>
+      </c>
+      <c r="AA160">
+        <v>2.38</v>
+      </c>
+      <c r="AB160">
+        <v>5.93</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>14.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>4.3</v>
+      </c>
+      <c r="AG160">
+        <v>1.65</v>
+      </c>
+      <c r="AH160">
+        <v>2.05</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.05</v>
+      </c>
+      <c r="AK160">
+        <v>1.2</v>
+      </c>
+      <c r="AL160">
+        <v>1.2</v>
+      </c>
+      <c r="AM160">
+        <v>2.15</v>
+      </c>
+      <c r="AN160">
+        <v>0.23</v>
+      </c>
+      <c r="AO160">
+        <v>0.77</v>
+      </c>
+      <c r="AP160">
+        <v>0.21</v>
+      </c>
+      <c r="AQ160">
+        <v>0.93</v>
+      </c>
+      <c r="AR160">
+        <v>1.33</v>
+      </c>
+      <c r="AS160">
+        <v>1.16</v>
+      </c>
+      <c r="AT160">
+        <v>2.49</v>
+      </c>
+      <c r="AU160">
+        <v>8</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>11</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>13</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>18</v>
+      </c>
+      <c r="BD160">
+        <v>1.75</v>
+      </c>
+      <c r="BE160">
+        <v>8</v>
+      </c>
+      <c r="BF160">
+        <v>2.52</v>
+      </c>
+      <c r="BG160">
+        <v>1.22</v>
+      </c>
+      <c r="BH160">
+        <v>3.7</v>
+      </c>
+      <c r="BI160">
+        <v>1.42</v>
+      </c>
+      <c r="BJ160">
+        <v>2.6</v>
+      </c>
+      <c r="BK160">
+        <v>1.73</v>
+      </c>
+      <c r="BL160">
+        <v>2</v>
+      </c>
+      <c r="BM160">
+        <v>2.2</v>
+      </c>
+      <c r="BN160">
+        <v>1.58</v>
+      </c>
+      <c r="BO160">
+        <v>2.9</v>
+      </c>
+      <c r="BP160">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['57', '85', '90+3']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -869,6 +875,12 @@
   </si>
   <si>
     <t>['33', '82']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['67', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1695,7 +1707,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2107,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2394,7 +2406,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2519,7 +2531,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7">
         <v>0.6899999999999999</v>
@@ -2725,7 +2737,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2931,7 +2943,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3343,7 +3355,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3549,7 +3561,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3755,7 +3767,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3961,7 +3973,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4245,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1.21</v>
@@ -4373,7 +4385,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4454,7 +4466,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ16">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4579,7 +4591,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4785,7 +4797,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4863,10 +4875,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ18">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -4991,7 +5003,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5197,7 +5209,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5275,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.77</v>
@@ -5403,7 +5415,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5609,7 +5621,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6021,7 +6033,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6433,7 +6445,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7051,7 +7063,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7132,7 +7144,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7257,7 +7269,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7338,7 +7350,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ30">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7875,7 +7887,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7953,7 +7965,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.85</v>
@@ -8287,7 +8299,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8571,7 +8583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ36">
         <v>1.92</v>
@@ -8699,7 +8711,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8780,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8905,7 +8917,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9317,7 +9329,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9807,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.6899999999999999</v>
@@ -10016,7 +10028,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10141,7 +10153,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10347,7 +10359,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10425,7 +10437,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ45">
         <v>1.85</v>
@@ -10553,7 +10565,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10759,7 +10771,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10965,7 +10977,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11046,7 +11058,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ48">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11171,7 +11183,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11583,7 +11595,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11995,7 +12007,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12076,7 +12088,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ53">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12201,7 +12213,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12485,7 +12497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ55">
         <v>0.93</v>
@@ -12613,7 +12625,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12691,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.92</v>
@@ -13231,7 +13243,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13312,7 +13324,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ59">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13437,7 +13449,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13518,7 +13530,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ60">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13643,7 +13655,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14055,7 +14067,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14133,7 +14145,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ63">
         <v>1.77</v>
@@ -14261,7 +14273,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14673,7 +14685,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14879,7 +14891,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15085,7 +15097,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15369,7 +15381,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.79</v>
@@ -15497,7 +15509,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15578,7 +15590,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ70">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15703,7 +15715,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15909,7 +15921,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15990,7 +16002,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ72">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -16115,7 +16127,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16605,7 +16617,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -16733,7 +16745,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17557,7 +17569,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17841,7 +17853,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ81">
         <v>0.79</v>
@@ -18175,7 +18187,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18381,7 +18393,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18668,7 +18680,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ85">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -19077,10 +19089,10 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19617,7 +19629,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20029,7 +20041,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20235,7 +20247,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20519,10 +20531,10 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ94">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20853,7 +20865,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20934,7 +20946,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ96">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -21059,7 +21071,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21677,7 +21689,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22089,7 +22101,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22167,10 +22179,10 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22295,7 +22307,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22501,7 +22513,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22707,7 +22719,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22785,7 +22797,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ105">
         <v>0.54</v>
@@ -22913,7 +22925,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23119,7 +23131,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23612,7 +23624,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -23943,7 +23955,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24355,7 +24367,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24436,7 +24448,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ113">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24561,7 +24573,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24845,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.62</v>
@@ -25179,7 +25191,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25797,7 +25809,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26081,7 +26093,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ121">
         <v>0.85</v>
@@ -26209,7 +26221,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26415,7 +26427,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26496,7 +26508,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26621,7 +26633,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26905,7 +26917,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>0.54</v>
@@ -27033,7 +27045,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27114,7 +27126,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ126">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27445,7 +27457,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27857,7 +27869,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27935,7 +27947,7 @@
         <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ130">
         <v>1.21</v>
@@ -28681,7 +28693,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29093,7 +29105,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29171,10 +29183,10 @@
         <v>2.18</v>
       </c>
       <c r="AP136">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ136">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR136">
         <v>2.06</v>
@@ -29299,7 +29311,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29505,7 +29517,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29586,7 +29598,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR138">
         <v>1.42</v>
@@ -29711,7 +29723,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30329,7 +30341,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30613,7 +30625,7 @@
         <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ143">
         <v>1.85</v>
@@ -30947,7 +30959,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31153,7 +31165,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31565,7 +31577,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31771,7 +31783,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31852,7 +31864,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ149">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -31977,7 +31989,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32183,7 +32195,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32389,7 +32401,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32595,7 +32607,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32801,7 +32813,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33085,7 +33097,7 @@
         <v>0.92</v>
       </c>
       <c r="AP155">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
         <v>0.85</v>
@@ -33419,7 +33431,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33497,10 +33509,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ157">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR157">
         <v>1.75</v>
@@ -33625,7 +33637,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33924,22 +33936,22 @@
         <v>2.89</v>
       </c>
       <c r="AU159">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV159">
         <v>6</v>
       </c>
       <c r="AW159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY159">
         <v>8</v>
       </c>
       <c r="AZ159">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA159">
         <v>7</v>
@@ -34037,7 +34049,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34130,31 +34142,31 @@
         <v>2.49</v>
       </c>
       <c r="AU160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV160">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY160">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ160">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA160">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB160">
         <v>5</v>
       </c>
       <c r="BC160">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD160">
         <v>1.75</v>
@@ -34194,6 +34206,418 @@
       </c>
       <c r="BP160">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7390096</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q161">
+        <v>2.88</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>3.5</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3.25</v>
+      </c>
+      <c r="V161">
+        <v>2.5</v>
+      </c>
+      <c r="W161">
+        <v>1.5</v>
+      </c>
+      <c r="X161">
+        <v>6.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.11</v>
+      </c>
+      <c r="Z161">
+        <v>4.02</v>
+      </c>
+      <c r="AA161">
+        <v>6.57</v>
+      </c>
+      <c r="AB161">
+        <v>1.41</v>
+      </c>
+      <c r="AC161">
+        <v>1.02</v>
+      </c>
+      <c r="AD161">
+        <v>14.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.23</v>
+      </c>
+      <c r="AF161">
+        <v>4.15</v>
+      </c>
+      <c r="AG161">
+        <v>1.7</v>
+      </c>
+      <c r="AH161">
+        <v>1.95</v>
+      </c>
+      <c r="AI161">
+        <v>1.57</v>
+      </c>
+      <c r="AJ161">
+        <v>2.25</v>
+      </c>
+      <c r="AK161">
+        <v>1.4</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.68</v>
+      </c>
+      <c r="AN161">
+        <v>2.15</v>
+      </c>
+      <c r="AO161">
+        <v>2.15</v>
+      </c>
+      <c r="AP161">
+        <v>2.07</v>
+      </c>
+      <c r="AQ161">
+        <v>2.07</v>
+      </c>
+      <c r="AR161">
+        <v>1.77</v>
+      </c>
+      <c r="AS161">
+        <v>1.27</v>
+      </c>
+      <c r="AT161">
+        <v>3.04</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>10</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>8</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.64</v>
+      </c>
+      <c r="BE161">
+        <v>8.5</v>
+      </c>
+      <c r="BF161">
+        <v>2.66</v>
+      </c>
+      <c r="BG161">
+        <v>1.22</v>
+      </c>
+      <c r="BH161">
+        <v>3.7</v>
+      </c>
+      <c r="BI161">
+        <v>1.42</v>
+      </c>
+      <c r="BJ161">
+        <v>2.6</v>
+      </c>
+      <c r="BK161">
+        <v>1.73</v>
+      </c>
+      <c r="BL161">
+        <v>2</v>
+      </c>
+      <c r="BM161">
+        <v>2.2</v>
+      </c>
+      <c r="BN161">
+        <v>1.58</v>
+      </c>
+      <c r="BO161">
+        <v>2.9</v>
+      </c>
+      <c r="BP161">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7390097</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45410.54166666666</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>80</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162" t="s">
+        <v>199</v>
+      </c>
+      <c r="P162" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
+        <v>2.3</v>
+      </c>
+      <c r="S162">
+        <v>6.5</v>
+      </c>
+      <c r="T162">
+        <v>1.36</v>
+      </c>
+      <c r="U162">
+        <v>3</v>
+      </c>
+      <c r="V162">
+        <v>2.75</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>7</v>
+      </c>
+      <c r="Y162">
+        <v>1.1</v>
+      </c>
+      <c r="Z162">
+        <v>1.45</v>
+      </c>
+      <c r="AA162">
+        <v>4.5</v>
+      </c>
+      <c r="AB162">
+        <v>7</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>11.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.29</v>
+      </c>
+      <c r="AF162">
+        <v>3.55</v>
+      </c>
+      <c r="AG162">
+        <v>1.85</v>
+      </c>
+      <c r="AH162">
+        <v>1.95</v>
+      </c>
+      <c r="AI162">
+        <v>2.05</v>
+      </c>
+      <c r="AJ162">
+        <v>1.7</v>
+      </c>
+      <c r="AK162">
+        <v>1.09</v>
+      </c>
+      <c r="AL162">
+        <v>1.17</v>
+      </c>
+      <c r="AM162">
+        <v>2.75</v>
+      </c>
+      <c r="AN162">
+        <v>1.92</v>
+      </c>
+      <c r="AO162">
+        <v>1.46</v>
+      </c>
+      <c r="AP162">
+        <v>2</v>
+      </c>
+      <c r="AQ162">
+        <v>1.36</v>
+      </c>
+      <c r="AR162">
+        <v>1.97</v>
+      </c>
+      <c r="AS162">
+        <v>1.16</v>
+      </c>
+      <c r="AT162">
+        <v>3.13</v>
+      </c>
+      <c r="AU162">
+        <v>8</v>
+      </c>
+      <c r="AV162">
+        <v>5</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>1</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.51</v>
+      </c>
+      <c r="BE162">
+        <v>8.5</v>
+      </c>
+      <c r="BF162">
+        <v>3.16</v>
+      </c>
+      <c r="BG162">
+        <v>1.3</v>
+      </c>
+      <c r="BH162">
+        <v>3.05</v>
+      </c>
+      <c r="BI162">
+        <v>1.57</v>
+      </c>
+      <c r="BJ162">
+        <v>2.23</v>
+      </c>
+      <c r="BK162">
+        <v>1.91</v>
+      </c>
+      <c r="BL162">
+        <v>1.8</v>
+      </c>
+      <c r="BM162">
+        <v>2.6</v>
+      </c>
+      <c r="BN162">
+        <v>1.43</v>
+      </c>
+      <c r="BO162">
+        <v>3.55</v>
+      </c>
+      <c r="BP162">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
